--- a/ASLA_Pre-IGCSE_CS_Term_Test_2.... Part 2 of 2.xlsx
+++ b/ASLA_Pre-IGCSE_CS_Term_Test_2.... Part 2 of 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mykal\Documents\Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E641FF-7822-4E12-840E-E30E33F20A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{396BE44B-E460-44AA-B71B-B886C34C2A40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="797" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="797" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="5" r:id="rId1"/>
@@ -1578,6 +1578,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -2082,7 +2083,7 @@
     <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="181">
+  <cellXfs count="180">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2279,9 +2280,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="7" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4575,7 +4573,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DF90914-49B4-426D-A48A-CC3FD0E5CB0D}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4614,13 +4612,13 @@
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A5" s="162" t="s">
+      <c r="A5" s="161" t="s">
         <v>251</v>
       </c>
-      <c r="B5" s="163"/>
-      <c r="C5" s="163"/>
-      <c r="D5" s="163"/>
-      <c r="E5" s="164"/>
+      <c r="B5" s="162"/>
+      <c r="C5" s="162"/>
+      <c r="D5" s="162"/>
+      <c r="E5" s="163"/>
     </row>
     <row r="6" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
@@ -4885,11 +4883,11 @@
       <c r="D5" s="14"/>
     </row>
     <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="165" t="s">
+      <c r="A6" s="164" t="s">
         <v>104</v>
       </c>
-      <c r="B6" s="165"/>
-      <c r="C6" s="165"/>
+      <c r="B6" s="164"/>
+      <c r="C6" s="164"/>
       <c r="D6" s="14"/>
     </row>
     <row r="7" spans="1:4" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
@@ -4984,7 +4982,7 @@
       <c r="A16" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="B16" s="96">
+      <c r="B16" s="95">
         <v>2</v>
       </c>
       <c r="C16" s="14"/>
@@ -4994,7 +4992,7 @@
       <c r="A17" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="B17" s="97">
+      <c r="B17" s="96">
         <v>2.4</v>
       </c>
       <c r="C17" s="14"/>
@@ -5030,7 +5028,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC34B952-030C-4621-A624-31A59D448B56}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5269,7 +5267,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FA439EB-7ACE-487B-A004-5B01D9450400}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H20" sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5284,10 +5284,10 @@
         <v>264</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="94" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="93" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="37"/>
     </row>
-    <row r="3" spans="1:7" s="94" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="93" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="37" t="s">
         <v>261</v>
       </c>
@@ -5296,34 +5296,34 @@
       <c r="A4" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="B4" s="90"/>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
     </row>
     <row r="5" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="B5" s="90"/>
-      <c r="C5" s="90"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
     </row>
     <row r="6" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="B6" s="90"/>
-      <c r="C6" s="90"/>
-      <c r="D6" s="90"/>
-      <c r="E6" s="90"/>
-      <c r="F6" s="90"/>
-      <c r="G6" s="90"/>
+      <c r="B6" s="89"/>
+      <c r="C6" s="89"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
     </row>
     <row r="7" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
@@ -5335,36 +5335,36 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="166" t="s">
+      <c r="A8" s="165" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="166"/>
-      <c r="C8" s="166"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="166" t="s">
+      <c r="B8" s="165"/>
+      <c r="C8" s="165"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="165" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="167"/>
-      <c r="G8" s="167"/>
+      <c r="F8" s="166"/>
+      <c r="G8" s="166"/>
     </row>
     <row r="9" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="92" t="s">
+      <c r="A9" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="92" t="s">
+      <c r="B9" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="92" t="s">
+      <c r="C9" s="91" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="91"/>
-      <c r="E9" s="92" t="s">
+      <c r="D9" s="90"/>
+      <c r="E9" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="92" t="s">
+      <c r="F9" s="91" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="92" t="s">
+      <c r="G9" s="91" t="s">
         <v>37</v>
       </c>
     </row>
@@ -5375,13 +5375,22 @@
       <c r="B10" s="82">
         <v>16</v>
       </c>
-      <c r="C10" s="88">
+      <c r="C10" s="87">
         <v>24</v>
       </c>
-      <c r="D10" s="89"/>
-      <c r="E10" s="84"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="86"/>
+      <c r="D10" s="88"/>
+      <c r="E10">
+        <f>B10*C10*$B$23</f>
+        <v>360.96</v>
+      </c>
+      <c r="F10" s="84">
+        <f>B10*C10*$B$24</f>
+        <v>560.64</v>
+      </c>
+      <c r="G10" s="85">
+        <f>B10*C10*$B$25</f>
+        <v>14108.16</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="81" t="s">
@@ -5390,13 +5399,22 @@
       <c r="B11" s="82">
         <v>15</v>
       </c>
-      <c r="C11" s="88">
+      <c r="C11" s="87">
         <v>12</v>
       </c>
-      <c r="D11" s="89"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="86"/>
+      <c r="D11" s="88"/>
+      <c r="E11">
+        <f t="shared" ref="E11:E19" si="0">B11*C11*$B$23</f>
+        <v>169.2</v>
+      </c>
+      <c r="F11" s="84">
+        <f t="shared" ref="F11:F19" si="1">B11*C11*$B$24</f>
+        <v>262.8</v>
+      </c>
+      <c r="G11" s="85">
+        <f t="shared" ref="G11:G19" si="2">B11*C11*$B$25</f>
+        <v>6613.2000000000007</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="81" t="s">
@@ -5405,13 +5423,22 @@
       <c r="B12" s="82">
         <v>13</v>
       </c>
-      <c r="C12" s="88">
+      <c r="C12" s="87">
         <v>12</v>
       </c>
-      <c r="D12" s="89"/>
-      <c r="E12" s="84"/>
-      <c r="F12" s="85"/>
-      <c r="G12" s="86"/>
+      <c r="D12" s="88"/>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>146.63999999999999</v>
+      </c>
+      <c r="F12" s="84">
+        <f t="shared" si="1"/>
+        <v>227.76</v>
+      </c>
+      <c r="G12" s="85">
+        <f t="shared" si="2"/>
+        <v>5731.4400000000005</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="81" t="s">
@@ -5420,13 +5447,22 @@
       <c r="B13" s="82">
         <v>6</v>
       </c>
-      <c r="C13" s="88">
+      <c r="C13" s="87">
         <v>26</v>
       </c>
-      <c r="D13" s="89"/>
-      <c r="E13" s="84"/>
-      <c r="F13" s="85"/>
-      <c r="G13" s="86"/>
+      <c r="D13" s="88"/>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>146.63999999999999</v>
+      </c>
+      <c r="F13" s="84">
+        <f t="shared" si="1"/>
+        <v>227.76</v>
+      </c>
+      <c r="G13" s="85">
+        <f t="shared" si="2"/>
+        <v>5731.4400000000005</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="81" t="s">
@@ -5435,13 +5471,22 @@
       <c r="B14" s="82">
         <v>8</v>
       </c>
-      <c r="C14" s="88">
+      <c r="C14" s="87">
         <v>28</v>
       </c>
-      <c r="D14" s="89"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="85"/>
-      <c r="G14" s="86"/>
+      <c r="D14" s="88"/>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>210.56</v>
+      </c>
+      <c r="F14" s="84">
+        <f t="shared" si="1"/>
+        <v>327.03999999999996</v>
+      </c>
+      <c r="G14" s="85">
+        <f t="shared" si="2"/>
+        <v>8229.76</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="81" t="s">
@@ -5450,13 +5495,22 @@
       <c r="B15" s="82">
         <v>15</v>
       </c>
-      <c r="C15" s="88">
+      <c r="C15" s="87">
         <v>11</v>
       </c>
-      <c r="D15" s="89"/>
-      <c r="E15" s="84"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="86"/>
+      <c r="D15" s="88"/>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>155.1</v>
+      </c>
+      <c r="F15" s="84">
+        <f t="shared" si="1"/>
+        <v>240.9</v>
+      </c>
+      <c r="G15" s="85">
+        <f t="shared" si="2"/>
+        <v>6062.1</v>
+      </c>
     </row>
     <row r="16" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="81" t="s">
@@ -5465,13 +5519,22 @@
       <c r="B16" s="82">
         <v>2</v>
       </c>
-      <c r="C16" s="88">
+      <c r="C16" s="87">
         <v>29</v>
       </c>
-      <c r="D16" s="89"/>
-      <c r="E16" s="84"/>
-      <c r="F16" s="85"/>
-      <c r="G16" s="86"/>
+      <c r="D16" s="88"/>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>54.519999999999996</v>
+      </c>
+      <c r="F16" s="84">
+        <f t="shared" si="1"/>
+        <v>84.679999999999993</v>
+      </c>
+      <c r="G16" s="85">
+        <f t="shared" si="2"/>
+        <v>2130.92</v>
+      </c>
     </row>
     <row r="17" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="81" t="s">
@@ -5480,13 +5543,22 @@
       <c r="B17" s="82">
         <v>6</v>
       </c>
-      <c r="C17" s="88">
+      <c r="C17" s="87">
         <v>13</v>
       </c>
-      <c r="D17" s="89"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="85"/>
-      <c r="G17" s="86"/>
+      <c r="D17" s="88"/>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>73.319999999999993</v>
+      </c>
+      <c r="F17" s="84">
+        <f t="shared" si="1"/>
+        <v>113.88</v>
+      </c>
+      <c r="G17" s="85">
+        <f t="shared" si="2"/>
+        <v>2865.7200000000003</v>
+      </c>
     </row>
     <row r="18" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="81" t="s">
@@ -5495,13 +5567,22 @@
       <c r="B18" s="82">
         <v>7</v>
       </c>
-      <c r="C18" s="88">
+      <c r="C18" s="87">
         <v>11</v>
       </c>
-      <c r="D18" s="89"/>
-      <c r="E18" s="84"/>
-      <c r="F18" s="85"/>
-      <c r="G18" s="86"/>
+      <c r="D18" s="88"/>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>72.38</v>
+      </c>
+      <c r="F18" s="84">
+        <f t="shared" si="1"/>
+        <v>112.42</v>
+      </c>
+      <c r="G18" s="85">
+        <f t="shared" si="2"/>
+        <v>2828.98</v>
+      </c>
     </row>
     <row r="19" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="81" t="s">
@@ -5510,13 +5591,22 @@
       <c r="B19" s="82">
         <v>20</v>
       </c>
-      <c r="C19" s="88">
+      <c r="C19" s="87">
         <v>26</v>
       </c>
-      <c r="D19" s="89"/>
-      <c r="E19" s="84"/>
-      <c r="F19" s="85"/>
-      <c r="G19" s="86"/>
+      <c r="D19" s="88"/>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>488.79999999999995</v>
+      </c>
+      <c r="F19" s="84">
+        <f t="shared" si="1"/>
+        <v>759.19999999999993</v>
+      </c>
+      <c r="G19" s="85">
+        <f t="shared" si="2"/>
+        <v>19104.8</v>
+      </c>
     </row>
     <row r="20" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
@@ -5542,7 +5632,7 @@
       <c r="A22" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="98">
+      <c r="B22" s="97">
         <v>1</v>
       </c>
       <c r="C22" s="5"/>
@@ -5555,7 +5645,7 @@
       <c r="A23" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="99">
+      <c r="B23" s="98">
         <v>0.94</v>
       </c>
       <c r="C23" s="5"/>
@@ -5568,7 +5658,7 @@
       <c r="A24" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="100">
+      <c r="B24" s="99">
         <v>1.46</v>
       </c>
       <c r="C24" s="5"/>
@@ -5581,7 +5671,7 @@
       <c r="A25" s="81" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="101">
+      <c r="B25" s="100">
         <v>36.74</v>
       </c>
       <c r="C25" s="5"/>
@@ -5603,7 +5693,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{949C3AB2-E27C-4425-842C-988C1CF1DA93}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5684,108 +5776,162 @@
       <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A10" s="105" t="s">
+      <c r="A10" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="105" t="s">
+      <c r="B10" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="105" t="s">
+      <c r="C10" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="105" t="s">
+      <c r="D10" s="104" t="s">
         <v>200</v>
       </c>
-      <c r="E10" s="105" t="s">
+      <c r="E10" s="104" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="105" t="s">
+      <c r="F10" s="104" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A11" s="102" t="s">
+      <c r="A11" s="101" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="103">
+      <c r="B11" s="102">
         <v>5</v>
       </c>
-      <c r="C11" s="103">
+      <c r="C11" s="102">
         <v>3</v>
       </c>
-      <c r="D11" s="104"/>
-      <c r="E11" s="104"/>
-      <c r="F11" s="104"/>
+      <c r="D11" s="103">
+        <f>(B11*$B$18) + (C11*$B$19)</f>
+        <v>92.2</v>
+      </c>
+      <c r="E11" s="103">
+        <f>D11*$B$20</f>
+        <v>12.908000000000001</v>
+      </c>
+      <c r="F11" s="103">
+        <f>D11-E11+$B$21</f>
+        <v>83.292000000000002</v>
+      </c>
     </row>
     <row r="12" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A12" s="102" t="s">
+      <c r="A12" s="101" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="103">
+      <c r="B12" s="102">
         <v>3</v>
       </c>
-      <c r="C12" s="103">
+      <c r="C12" s="102">
         <v>2</v>
       </c>
-      <c r="D12" s="104"/>
-      <c r="E12" s="104"/>
-      <c r="F12" s="104"/>
+      <c r="D12" s="103">
+        <f t="shared" ref="D12:D16" si="0">(B12*$B$18) + (C12*$B$19)</f>
+        <v>56.8</v>
+      </c>
+      <c r="E12" s="103">
+        <f t="shared" ref="E12:E16" si="1">D12*$B$20</f>
+        <v>7.952</v>
+      </c>
+      <c r="F12" s="103">
+        <f t="shared" ref="F12:F16" si="2">D12-E12+$B$21</f>
+        <v>52.847999999999999</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A13" s="102" t="s">
+      <c r="A13" s="101" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="103">
+      <c r="B13" s="102">
         <v>6</v>
       </c>
-      <c r="C13" s="103">
+      <c r="C13" s="102">
         <v>5</v>
       </c>
-      <c r="D13" s="104"/>
-      <c r="E13" s="104"/>
-      <c r="F13" s="104"/>
+      <c r="D13" s="103">
+        <f t="shared" si="0"/>
+        <v>121</v>
+      </c>
+      <c r="E13" s="103">
+        <f t="shared" si="1"/>
+        <v>16.940000000000001</v>
+      </c>
+      <c r="F13" s="103">
+        <f t="shared" si="2"/>
+        <v>108.06</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A14" s="102" t="s">
+      <c r="A14" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="103">
+      <c r="B14" s="102">
         <v>7</v>
       </c>
-      <c r="C14" s="103">
+      <c r="C14" s="102">
         <v>3</v>
       </c>
-      <c r="D14" s="104"/>
-      <c r="E14" s="104"/>
-      <c r="F14" s="104"/>
+      <c r="D14" s="103">
+        <f t="shared" si="0"/>
+        <v>120.2</v>
+      </c>
+      <c r="E14" s="103">
+        <f t="shared" si="1"/>
+        <v>16.828000000000003</v>
+      </c>
+      <c r="F14" s="103">
+        <f t="shared" si="2"/>
+        <v>107.372</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A15" s="102" t="s">
+      <c r="A15" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="103">
+      <c r="B15" s="102">
         <v>9</v>
       </c>
-      <c r="C15" s="103">
+      <c r="C15" s="102">
         <v>4</v>
       </c>
-      <c r="D15" s="104"/>
-      <c r="E15" s="104"/>
-      <c r="F15" s="104"/>
+      <c r="D15" s="103">
+        <f t="shared" si="0"/>
+        <v>155.6</v>
+      </c>
+      <c r="E15" s="103">
+        <f t="shared" si="1"/>
+        <v>21.784000000000002</v>
+      </c>
+      <c r="F15" s="103">
+        <f t="shared" si="2"/>
+        <v>137.816</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A16" s="102" t="s">
+      <c r="A16" s="101" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="103">
+      <c r="B16" s="102">
         <v>6</v>
       </c>
-      <c r="C16" s="103">
+      <c r="C16" s="102">
         <v>5</v>
       </c>
-      <c r="D16" s="104"/>
-      <c r="E16" s="104"/>
-      <c r="F16" s="104"/>
+      <c r="D16" s="103">
+        <f t="shared" si="0"/>
+        <v>121</v>
+      </c>
+      <c r="E16" s="103">
+        <f t="shared" si="1"/>
+        <v>16.940000000000001</v>
+      </c>
+      <c r="F16" s="103">
+        <f t="shared" si="2"/>
+        <v>108.06</v>
+      </c>
     </row>
     <row r="17" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
@@ -5798,7 +5944,7 @@
       <c r="A18" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="B18" s="106">
+      <c r="B18" s="105">
         <v>14</v>
       </c>
       <c r="C18" s="5"/>
@@ -5809,7 +5955,7 @@
       <c r="A19" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="B19" s="106">
+      <c r="B19" s="105">
         <v>7.4</v>
       </c>
       <c r="C19" s="5"/>
@@ -5820,7 +5966,7 @@
       <c r="A20" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="B20" s="107">
+      <c r="B20" s="106">
         <v>0.14000000000000001</v>
       </c>
       <c r="C20" s="5"/>
@@ -5828,10 +5974,10 @@
       <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="102" t="s">
+      <c r="A21" s="101" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="106">
+      <c r="B21" s="105">
         <v>4</v>
       </c>
       <c r="C21" s="5"/>
@@ -5848,7 +5994,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4A00C76-5201-47EC-B7C8-A2377C767181}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5886,117 +6034,117 @@
     </row>
     <row r="7" spans="1:10" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7"/>
-      <c r="B7" s="112"/>
-      <c r="C7" s="112"/>
-      <c r="D7" s="171" t="s">
+      <c r="B7" s="111"/>
+      <c r="C7" s="111"/>
+      <c r="D7" s="170" t="s">
         <v>277</v>
       </c>
-      <c r="E7" s="172"/>
-      <c r="F7" s="172"/>
-      <c r="G7" s="172"/>
-      <c r="H7" s="173"/>
-      <c r="I7" s="112"/>
-      <c r="J7" s="112"/>
+      <c r="E7" s="171"/>
+      <c r="F7" s="171"/>
+      <c r="G7" s="171"/>
+      <c r="H7" s="172"/>
+      <c r="I7" s="111"/>
+      <c r="J7" s="111"/>
     </row>
     <row r="8" spans="1:10" ht="42.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="112"/>
-      <c r="C8" s="110"/>
-      <c r="D8" s="108">
+      <c r="B8" s="111"/>
+      <c r="C8" s="109"/>
+      <c r="D8" s="107">
         <v>4</v>
       </c>
-      <c r="E8" s="108">
+      <c r="E8" s="107">
         <v>5</v>
       </c>
-      <c r="F8" s="108">
+      <c r="F8" s="107">
         <v>6</v>
       </c>
-      <c r="G8" s="108">
+      <c r="G8" s="107">
         <v>7</v>
       </c>
-      <c r="H8" s="108">
+      <c r="H8" s="107">
         <v>8</v>
       </c>
-      <c r="I8" s="111"/>
-      <c r="J8" s="112"/>
+      <c r="I8" s="110"/>
+      <c r="J8" s="111"/>
     </row>
     <row r="9" spans="1:10" ht="42.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="168" t="s">
+      <c r="B9" s="167" t="s">
         <v>276</v>
       </c>
-      <c r="C9" s="108">
+      <c r="C9" s="107">
         <v>1</v>
       </c>
-      <c r="D9" s="109"/>
-      <c r="E9" s="109"/>
-      <c r="F9" s="109"/>
-      <c r="G9" s="109"/>
-      <c r="H9" s="109"/>
-      <c r="I9" s="108">
+      <c r="D9" s="108"/>
+      <c r="E9" s="108"/>
+      <c r="F9" s="108"/>
+      <c r="G9" s="108"/>
+      <c r="H9" s="108"/>
+      <c r="I9" s="107">
         <v>1</v>
       </c>
-      <c r="J9" s="174" t="s">
+      <c r="J9" s="173" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="42.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="169"/>
-      <c r="C10" s="108">
+      <c r="B10" s="168"/>
+      <c r="C10" s="107">
         <v>2</v>
       </c>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="109"/>
-      <c r="G10" s="109"/>
-      <c r="H10" s="109"/>
-      <c r="I10" s="108">
+      <c r="D10" s="108"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="108"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="107">
         <v>2</v>
       </c>
-      <c r="J10" s="175"/>
+      <c r="J10" s="174"/>
     </row>
     <row r="11" spans="1:10" ht="42.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="169"/>
-      <c r="C11" s="108">
+      <c r="B11" s="168"/>
+      <c r="C11" s="107">
         <v>3</v>
       </c>
-      <c r="D11" s="109"/>
-      <c r="E11" s="109"/>
-      <c r="F11" s="109"/>
-      <c r="G11" s="109"/>
-      <c r="H11" s="109"/>
-      <c r="I11" s="108">
+      <c r="D11" s="108"/>
+      <c r="E11" s="108"/>
+      <c r="F11" s="108"/>
+      <c r="G11" s="108"/>
+      <c r="H11" s="108"/>
+      <c r="I11" s="107">
         <v>3</v>
       </c>
-      <c r="J11" s="175"/>
+      <c r="J11" s="174"/>
     </row>
     <row r="12" spans="1:10" ht="42.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="169"/>
-      <c r="C12" s="108">
+      <c r="B12" s="168"/>
+      <c r="C12" s="107">
         <v>4</v>
       </c>
-      <c r="D12" s="109"/>
-      <c r="E12" s="109"/>
-      <c r="F12" s="109"/>
-      <c r="G12" s="109"/>
-      <c r="H12" s="109"/>
-      <c r="I12" s="108">
+      <c r="D12" s="108"/>
+      <c r="E12" s="108"/>
+      <c r="F12" s="108"/>
+      <c r="G12" s="108"/>
+      <c r="H12" s="108"/>
+      <c r="I12" s="107">
         <v>4</v>
       </c>
-      <c r="J12" s="175"/>
+      <c r="J12" s="174"/>
     </row>
     <row r="13" spans="1:10" ht="42.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="170"/>
-      <c r="C13" s="108">
+      <c r="B13" s="169"/>
+      <c r="C13" s="107">
         <v>5</v>
       </c>
-      <c r="D13" s="109"/>
-      <c r="E13" s="109"/>
-      <c r="F13" s="109"/>
-      <c r="G13" s="109"/>
-      <c r="H13" s="109"/>
-      <c r="I13" s="108">
+      <c r="D13" s="108"/>
+      <c r="E13" s="108"/>
+      <c r="F13" s="108"/>
+      <c r="G13" s="108"/>
+      <c r="H13" s="108"/>
+      <c r="I13" s="107">
         <v>5</v>
       </c>
-      <c r="J13" s="176"/>
+      <c r="J13" s="175"/>
     </row>
     <row r="14" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
@@ -6015,7 +6163,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6030,7 +6178,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="94"/>
+      <c r="A2" s="93"/>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
@@ -6041,465 +6189,483 @@
       <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="143" t="s">
+      <c r="A3" s="142" t="s">
         <v>313</v>
       </c>
-      <c r="B3" s="143" t="s">
+      <c r="B3" s="142" t="s">
         <v>316</v>
       </c>
-      <c r="C3" s="143" t="s">
+      <c r="C3" s="142" t="s">
         <v>312</v>
       </c>
-      <c r="D3" s="143" t="s">
+      <c r="D3" s="142" t="s">
         <v>315</v>
       </c>
-      <c r="E3" s="143" t="s">
+      <c r="E3" s="142" t="s">
         <v>315</v>
       </c>
-      <c r="F3" s="143" t="s">
+      <c r="F3" s="142" t="s">
         <v>313</v>
       </c>
-      <c r="G3" s="143" t="s">
+      <c r="G3" s="142" t="s">
         <v>312</v>
       </c>
       <c r="H3" s="13"/>
     </row>
     <row r="4" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="143" t="s">
+      <c r="A4" s="142" t="s">
         <v>312</v>
       </c>
-      <c r="B4" s="143" t="s">
+      <c r="B4" s="142" t="s">
         <v>314</v>
       </c>
-      <c r="C4" s="143" t="s">
+      <c r="C4" s="142" t="s">
         <v>315</v>
       </c>
-      <c r="D4" s="143" t="s">
+      <c r="D4" s="142" t="s">
         <v>315</v>
       </c>
-      <c r="E4" s="143" t="s">
+      <c r="E4" s="142" t="s">
         <v>314</v>
       </c>
-      <c r="F4" s="143" t="s">
+      <c r="F4" s="142" t="s">
         <v>312</v>
       </c>
-      <c r="G4" s="143" t="s">
+      <c r="G4" s="142" t="s">
         <v>314</v>
       </c>
       <c r="H4" s="13"/>
     </row>
     <row r="5" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="143" t="s">
+      <c r="A5" s="142" t="s">
         <v>316</v>
       </c>
-      <c r="B5" s="143" t="s">
+      <c r="B5" s="142" t="s">
         <v>313</v>
       </c>
-      <c r="C5" s="143" t="s">
+      <c r="C5" s="142" t="s">
         <v>315</v>
       </c>
-      <c r="D5" s="143" t="s">
+      <c r="D5" s="142" t="s">
         <v>312</v>
       </c>
-      <c r="E5" s="143" t="s">
+      <c r="E5" s="142" t="s">
         <v>312</v>
       </c>
-      <c r="F5" s="143" t="s">
+      <c r="F5" s="142" t="s">
         <v>313</v>
       </c>
-      <c r="G5" s="143" t="s">
+      <c r="G5" s="142" t="s">
         <v>313</v>
       </c>
       <c r="H5" s="13"/>
     </row>
     <row r="6" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="143" t="s">
+      <c r="A6" s="142" t="s">
         <v>315</v>
       </c>
-      <c r="B6" s="143" t="s">
+      <c r="B6" s="142" t="s">
         <v>316</v>
       </c>
-      <c r="C6" s="143" t="s">
+      <c r="C6" s="142" t="s">
         <v>314</v>
       </c>
-      <c r="D6" s="143" t="s">
+      <c r="D6" s="142" t="s">
         <v>316</v>
       </c>
-      <c r="E6" s="143" t="s">
+      <c r="E6" s="142" t="s">
         <v>314</v>
       </c>
-      <c r="F6" s="143" t="s">
+      <c r="F6" s="142" t="s">
         <v>312</v>
       </c>
-      <c r="G6" s="143" t="s">
+      <c r="G6" s="142" t="s">
         <v>314</v>
       </c>
       <c r="H6" s="13"/>
     </row>
     <row r="7" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="143" t="s">
+      <c r="A7" s="142" t="s">
         <v>312</v>
       </c>
-      <c r="B7" s="143" t="s">
+      <c r="B7" s="142" t="s">
         <v>315</v>
       </c>
-      <c r="C7" s="143" t="s">
+      <c r="C7" s="142" t="s">
         <v>314</v>
       </c>
-      <c r="D7" s="143" t="s">
+      <c r="D7" s="142" t="s">
         <v>313</v>
       </c>
-      <c r="E7" s="143" t="s">
+      <c r="E7" s="142" t="s">
         <v>313</v>
       </c>
-      <c r="F7" s="143" t="s">
+      <c r="F7" s="142" t="s">
         <v>316</v>
       </c>
-      <c r="G7" s="143" t="s">
+      <c r="G7" s="142" t="s">
         <v>314</v>
       </c>
       <c r="H7" s="13"/>
     </row>
     <row r="8" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="143" t="s">
+      <c r="A8" s="142" t="s">
         <v>314</v>
       </c>
-      <c r="B8" s="143" t="s">
+      <c r="B8" s="142" t="s">
         <v>314</v>
       </c>
-      <c r="C8" s="143" t="s">
+      <c r="C8" s="142" t="s">
         <v>312</v>
       </c>
-      <c r="D8" s="143" t="s">
+      <c r="D8" s="142" t="s">
         <v>316</v>
       </c>
-      <c r="E8" s="143" t="s">
+      <c r="E8" s="142" t="s">
         <v>314</v>
       </c>
-      <c r="F8" s="143" t="s">
+      <c r="F8" s="142" t="s">
         <v>314</v>
       </c>
-      <c r="G8" s="143" t="s">
+      <c r="G8" s="142" t="s">
         <v>316</v>
       </c>
       <c r="H8" s="13"/>
     </row>
     <row r="9" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="143" t="s">
+      <c r="A9" s="142" t="s">
         <v>316</v>
       </c>
-      <c r="B9" s="143" t="s">
+      <c r="B9" s="142" t="s">
         <v>315</v>
       </c>
-      <c r="C9" s="143" t="s">
+      <c r="C9" s="142" t="s">
         <v>313</v>
       </c>
-      <c r="D9" s="143" t="s">
+      <c r="D9" s="142" t="s">
         <v>312</v>
       </c>
-      <c r="E9" s="143" t="s">
+      <c r="E9" s="142" t="s">
         <v>313</v>
       </c>
-      <c r="F9" s="143" t="s">
+      <c r="F9" s="142" t="s">
         <v>313</v>
       </c>
-      <c r="G9" s="143" t="s">
+      <c r="G9" s="142" t="s">
         <v>314</v>
       </c>
       <c r="H9" s="13"/>
     </row>
     <row r="10" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="143" t="s">
+      <c r="A10" s="142" t="s">
         <v>312</v>
       </c>
-      <c r="B10" s="143" t="s">
+      <c r="B10" s="142" t="s">
         <v>316</v>
       </c>
-      <c r="C10" s="143" t="s">
+      <c r="C10" s="142" t="s">
         <v>316</v>
       </c>
-      <c r="D10" s="143" t="s">
+      <c r="D10" s="142" t="s">
         <v>312</v>
       </c>
-      <c r="E10" s="143" t="s">
+      <c r="E10" s="142" t="s">
         <v>312</v>
       </c>
-      <c r="F10" s="143" t="s">
+      <c r="F10" s="142" t="s">
         <v>316</v>
       </c>
-      <c r="G10" s="143" t="s">
+      <c r="G10" s="142" t="s">
         <v>315</v>
       </c>
       <c r="H10" s="13"/>
     </row>
     <row r="11" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="143" t="s">
+      <c r="A11" s="142" t="s">
         <v>312</v>
       </c>
-      <c r="B11" s="143" t="s">
+      <c r="B11" s="142" t="s">
         <v>312</v>
       </c>
-      <c r="C11" s="143" t="s">
+      <c r="C11" s="142" t="s">
         <v>316</v>
       </c>
-      <c r="D11" s="143" t="s">
+      <c r="D11" s="142" t="s">
         <v>315</v>
       </c>
-      <c r="E11" s="143" t="s">
+      <c r="E11" s="142" t="s">
         <v>314</v>
       </c>
-      <c r="F11" s="143" t="s">
+      <c r="F11" s="142" t="s">
         <v>314</v>
       </c>
-      <c r="G11" s="143" t="s">
+      <c r="G11" s="142" t="s">
         <v>314</v>
       </c>
       <c r="H11" s="13"/>
     </row>
     <row r="12" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="143" t="s">
+      <c r="A12" s="142" t="s">
         <v>313</v>
       </c>
-      <c r="B12" s="143" t="s">
+      <c r="B12" s="142" t="s">
         <v>314</v>
       </c>
-      <c r="C12" s="143" t="s">
+      <c r="C12" s="142" t="s">
         <v>316</v>
       </c>
-      <c r="D12" s="143" t="s">
+      <c r="D12" s="142" t="s">
         <v>312</v>
       </c>
-      <c r="E12" s="143" t="s">
+      <c r="E12" s="142" t="s">
         <v>316</v>
       </c>
-      <c r="F12" s="143" t="s">
+      <c r="F12" s="142" t="s">
         <v>314</v>
       </c>
-      <c r="G12" s="143" t="s">
+      <c r="G12" s="142" t="s">
         <v>315</v>
       </c>
       <c r="H12" s="13"/>
     </row>
     <row r="13" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="143" t="s">
+      <c r="A13" s="142" t="s">
         <v>316</v>
       </c>
-      <c r="B13" s="143" t="s">
+      <c r="B13" s="142" t="s">
         <v>316</v>
       </c>
-      <c r="C13" s="143" t="s">
+      <c r="C13" s="142" t="s">
         <v>315</v>
       </c>
-      <c r="D13" s="143" t="s">
+      <c r="D13" s="142" t="s">
         <v>315</v>
       </c>
-      <c r="E13" s="143" t="s">
+      <c r="E13" s="142" t="s">
         <v>313</v>
       </c>
-      <c r="F13" s="143" t="s">
+      <c r="F13" s="142" t="s">
         <v>314</v>
       </c>
-      <c r="G13" s="143" t="s">
+      <c r="G13" s="142" t="s">
         <v>316</v>
       </c>
       <c r="H13" s="13"/>
     </row>
     <row r="14" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="143" t="s">
+      <c r="A14" s="142" t="s">
         <v>315</v>
       </c>
-      <c r="B14" s="143" t="s">
+      <c r="B14" s="142" t="s">
         <v>313</v>
       </c>
-      <c r="C14" s="143" t="s">
+      <c r="C14" s="142" t="s">
         <v>316</v>
       </c>
-      <c r="D14" s="143" t="s">
+      <c r="D14" s="142" t="s">
         <v>315</v>
       </c>
-      <c r="E14" s="143" t="s">
+      <c r="E14" s="142" t="s">
         <v>316</v>
       </c>
-      <c r="F14" s="143" t="s">
+      <c r="F14" s="142" t="s">
         <v>315</v>
       </c>
-      <c r="G14" s="143" t="s">
+      <c r="G14" s="142" t="s">
         <v>315</v>
       </c>
       <c r="H14" s="13"/>
     </row>
     <row r="15" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="143" t="s">
+      <c r="A15" s="142" t="s">
         <v>316</v>
       </c>
-      <c r="B15" s="143" t="s">
+      <c r="B15" s="142" t="s">
         <v>315</v>
       </c>
-      <c r="C15" s="143" t="s">
+      <c r="C15" s="142" t="s">
         <v>315</v>
       </c>
-      <c r="D15" s="143" t="s">
+      <c r="D15" s="142" t="s">
         <v>314</v>
       </c>
-      <c r="E15" s="143" t="s">
+      <c r="E15" s="142" t="s">
         <v>312</v>
       </c>
-      <c r="F15" s="143" t="s">
+      <c r="F15" s="142" t="s">
         <v>316</v>
       </c>
-      <c r="G15" s="143" t="s">
+      <c r="G15" s="142" t="s">
         <v>315</v>
       </c>
       <c r="H15" s="13"/>
     </row>
     <row r="16" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="143" t="s">
+      <c r="A16" s="142" t="s">
         <v>315</v>
       </c>
-      <c r="B16" s="143" t="s">
+      <c r="B16" s="142" t="s">
         <v>313</v>
       </c>
-      <c r="C16" s="143" t="s">
+      <c r="C16" s="142" t="s">
         <v>313</v>
       </c>
-      <c r="D16" s="143" t="s">
+      <c r="D16" s="142" t="s">
         <v>316</v>
       </c>
-      <c r="E16" s="143" t="s">
+      <c r="E16" s="142" t="s">
         <v>314</v>
       </c>
-      <c r="F16" s="143" t="s">
+      <c r="F16" s="142" t="s">
         <v>315</v>
       </c>
-      <c r="G16" s="143" t="s">
+      <c r="G16" s="142" t="s">
         <v>314</v>
       </c>
       <c r="H16" s="14"/>
     </row>
     <row r="17" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="143" t="s">
+      <c r="A17" s="142" t="s">
         <v>316</v>
       </c>
-      <c r="B17" s="143" t="s">
+      <c r="B17" s="142" t="s">
         <v>315</v>
       </c>
-      <c r="C17" s="143" t="s">
+      <c r="C17" s="142" t="s">
         <v>313</v>
       </c>
-      <c r="D17" s="143" t="s">
+      <c r="D17" s="142" t="s">
         <v>314</v>
       </c>
-      <c r="E17" s="143" t="s">
+      <c r="E17" s="142" t="s">
         <v>316</v>
       </c>
-      <c r="F17" s="143" t="s">
+      <c r="F17" s="142" t="s">
         <v>316</v>
       </c>
-      <c r="G17" s="143" t="s">
+      <c r="G17" s="142" t="s">
         <v>316</v>
       </c>
       <c r="H17" s="14"/>
     </row>
     <row r="18" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="143" t="s">
+      <c r="A18" s="142" t="s">
         <v>316</v>
       </c>
-      <c r="B18" s="143" t="s">
+      <c r="B18" s="142" t="s">
         <v>313</v>
       </c>
-      <c r="C18" s="143" t="s">
+      <c r="C18" s="142" t="s">
         <v>314</v>
       </c>
-      <c r="D18" s="143" t="s">
+      <c r="D18" s="142" t="s">
         <v>316</v>
       </c>
-      <c r="E18" s="143" t="s">
+      <c r="E18" s="142" t="s">
         <v>314</v>
       </c>
-      <c r="F18" s="143" t="s">
+      <c r="F18" s="142" t="s">
         <v>316</v>
       </c>
-      <c r="G18" s="143" t="s">
+      <c r="G18" s="142" t="s">
         <v>315</v>
       </c>
       <c r="H18" s="14"/>
     </row>
     <row r="19" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A19" s="94"/>
-      <c r="B19" s="94"/>
-      <c r="C19" s="94"/>
-      <c r="D19" s="94"/>
-      <c r="E19" s="94"/>
-      <c r="F19" s="94"/>
-      <c r="G19" s="94"/>
-      <c r="H19" s="94"/>
-      <c r="I19" s="94"/>
+      <c r="A19" s="93"/>
+      <c r="B19" s="93"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="93"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="93"/>
+      <c r="H19" s="93"/>
+      <c r="I19" s="93"/>
     </row>
     <row r="20" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A20" s="94"/>
-      <c r="B20" s="94"/>
-      <c r="C20" s="94"/>
-      <c r="D20" s="94"/>
-      <c r="E20" s="94"/>
-      <c r="F20" s="141" t="s">
+      <c r="A20" s="93"/>
+      <c r="B20" s="93"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="93"/>
+      <c r="F20" s="140" t="s">
         <v>318</v>
       </c>
-      <c r="G20" s="142"/>
-      <c r="I20" s="94"/>
+      <c r="G20" s="141">
+        <f>COUNTIF(A3:G18, "A")</f>
+        <v>17</v>
+      </c>
+      <c r="I20" s="93"/>
     </row>
     <row r="21" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A21" s="94"/>
-      <c r="B21" s="94"/>
-      <c r="C21" s="94"/>
-      <c r="D21" s="94"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="141" t="s">
+      <c r="A21" s="93"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="140" t="s">
         <v>319</v>
       </c>
-      <c r="G21" s="142"/>
-      <c r="I21" s="94"/>
+      <c r="G21" s="141">
+        <f t="shared" ref="G21:G25" si="0">COUNTIF(A4:G19, "A")</f>
+        <v>15</v>
+      </c>
+      <c r="I21" s="93"/>
     </row>
     <row r="22" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A22" s="94"/>
-      <c r="B22" s="94"/>
-      <c r="C22" s="94"/>
-      <c r="D22" s="94"/>
-      <c r="E22" s="94"/>
-      <c r="F22" s="141" t="s">
+      <c r="A22" s="93"/>
+      <c r="B22" s="93"/>
+      <c r="C22" s="93"/>
+      <c r="D22" s="93"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="140" t="s">
         <v>320</v>
       </c>
-      <c r="G22" s="142"/>
-      <c r="I22" s="94"/>
+      <c r="G22" s="141">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="I22" s="93"/>
     </row>
     <row r="23" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A23" s="94"/>
-      <c r="B23" s="94"/>
-      <c r="C23" s="94"/>
-      <c r="D23" s="94"/>
-      <c r="E23" s="94"/>
-      <c r="F23" s="141" t="s">
+      <c r="A23" s="93"/>
+      <c r="B23" s="93"/>
+      <c r="C23" s="93"/>
+      <c r="D23" s="93"/>
+      <c r="E23" s="93"/>
+      <c r="F23" s="140" t="s">
         <v>321</v>
       </c>
-      <c r="G23" s="142"/>
-      <c r="I23" s="94"/>
+      <c r="G23" s="141">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="I23" s="93"/>
     </row>
     <row r="24" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A24" s="94"/>
-      <c r="B24" s="94"/>
-      <c r="C24" s="94"/>
-      <c r="D24" s="94"/>
-      <c r="E24" s="94"/>
-      <c r="F24" s="141" t="s">
+      <c r="A24" s="93"/>
+      <c r="B24" s="93"/>
+      <c r="C24" s="93"/>
+      <c r="D24" s="93"/>
+      <c r="E24" s="93"/>
+      <c r="F24" s="140" t="s">
         <v>322</v>
       </c>
-      <c r="G24" s="142"/>
-      <c r="I24" s="94"/>
+      <c r="G24" s="141">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I24" s="93"/>
     </row>
     <row r="25" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="F25" s="141" t="s">
+      <c r="F25" s="140" t="s">
         <v>323</v>
       </c>
-      <c r="G25" s="142"/>
+      <c r="G25" s="141">
+        <f>ROWS(A3:G18) * COLUMNS(A3:G18)</f>
+        <v>112</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6510,7 +6676,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCFD9FD-78C7-4053-AB90-9C1D03F6E72A}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6587,20 +6755,20 @@
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="178" t="s">
+      <c r="A6" s="177" t="s">
         <v>310</v>
       </c>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="140"/>
-      <c r="E6" s="177" t="s">
+      <c r="B6" s="177"/>
+      <c r="C6" s="177"/>
+      <c r="D6" s="139"/>
+      <c r="E6" s="176" t="s">
         <v>311</v>
       </c>
-      <c r="F6" s="177"/>
-      <c r="G6" s="177"/>
-      <c r="H6" s="177"/>
-      <c r="I6" s="177"/>
-      <c r="J6" s="177"/>
+      <c r="F6" s="176"/>
+      <c r="G6" s="176"/>
+      <c r="H6" s="176"/>
+      <c r="I6" s="176"/>
+      <c r="J6" s="176"/>
     </row>
     <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
@@ -6613,225 +6781,246 @@
         <v>287</v>
       </c>
       <c r="D7" s="14"/>
-      <c r="E7" s="137" t="s">
+      <c r="E7" s="136" t="s">
         <v>283</v>
       </c>
-      <c r="F7" s="138" t="s">
+      <c r="F7" s="137" t="s">
         <v>284</v>
       </c>
-      <c r="G7" s="139" t="s">
+      <c r="G7" s="138" t="s">
         <v>285</v>
       </c>
-      <c r="H7" s="139" t="s">
+      <c r="H7" s="138" t="s">
         <v>286</v>
       </c>
-      <c r="I7" s="139" t="s">
+      <c r="I7" s="138" t="s">
         <v>287</v>
       </c>
-      <c r="J7" s="138" t="s">
+      <c r="J7" s="137" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="133">
+      <c r="A8" s="132">
         <v>45636</v>
       </c>
-      <c r="B8" s="115" t="s">
+      <c r="B8" s="114" t="s">
         <v>289</v>
       </c>
-      <c r="C8" s="155"/>
+      <c r="C8" s="154">
+        <f>VLOOKUP(B8, $E$8:$J$19, 5, FALSE)</f>
+        <v>52637</v>
+      </c>
       <c r="D8" s="14"/>
-      <c r="E8" s="115" t="s">
+      <c r="E8" s="114" t="s">
         <v>289</v>
       </c>
-      <c r="F8" s="134" t="s">
+      <c r="F8" s="133" t="s">
         <v>290</v>
       </c>
-      <c r="G8" s="136">
+      <c r="G8" s="135">
         <v>25.99</v>
       </c>
-      <c r="H8" s="135">
+      <c r="H8" s="134">
         <v>45334</v>
       </c>
-      <c r="I8" s="135">
+      <c r="I8" s="134">
         <v>52637</v>
       </c>
-      <c r="J8" s="134">
+      <c r="J8" s="133">
         <f>I8-$E$1</f>
         <v>52637</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="133">
+      <c r="A9" s="132">
         <v>45637</v>
       </c>
-      <c r="B9" s="115" t="s">
+      <c r="B9" s="114" t="s">
         <v>294</v>
       </c>
-      <c r="C9" s="155"/>
+      <c r="C9" s="154">
+        <f t="shared" ref="C9:C14" si="0">VLOOKUP(B9, $E$8:$J$19, 5, FALSE)</f>
+        <v>50348</v>
+      </c>
       <c r="D9" s="14"/>
-      <c r="E9" s="115" t="s">
+      <c r="E9" s="114" t="s">
         <v>306</v>
       </c>
-      <c r="F9" s="134" t="s">
+      <c r="F9" s="133" t="s">
         <v>291</v>
       </c>
-      <c r="G9" s="136">
+      <c r="G9" s="135">
         <v>12.99</v>
       </c>
-      <c r="H9" s="135">
+      <c r="H9" s="134">
         <v>44427</v>
       </c>
-      <c r="I9" s="135">
+      <c r="I9" s="134">
         <v>51730</v>
       </c>
-      <c r="J9" s="134">
-        <f t="shared" ref="J9:J19" si="0">I9-$E$1</f>
+      <c r="J9" s="133">
+        <f t="shared" ref="J9:J19" si="1">I9-$E$1</f>
         <v>51730</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="133">
+      <c r="A10" s="132">
         <v>45638</v>
       </c>
-      <c r="B10" s="115" t="s">
+      <c r="B10" s="114" t="s">
         <v>296</v>
       </c>
-      <c r="C10" s="155"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="115" t="s">
-        <v>292</v>
-      </c>
-      <c r="F10" s="134" t="s">
-        <v>293</v>
-      </c>
-      <c r="G10" s="136">
-        <v>14</v>
-      </c>
-      <c r="H10" s="135">
-        <v>43930</v>
-      </c>
-      <c r="I10" s="135">
-        <v>51233</v>
-      </c>
-      <c r="J10" s="134">
-        <f t="shared" si="0"/>
-        <v>51233</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="133">
-        <v>45639</v>
-      </c>
-      <c r="B11" s="115" t="s">
-        <v>297</v>
-      </c>
-      <c r="C11" s="155"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="115" t="s">
-        <v>294</v>
-      </c>
-      <c r="F11" s="134" t="s">
-        <v>295</v>
-      </c>
-      <c r="G11" s="136">
-        <v>18.989999999999998</v>
-      </c>
-      <c r="H11" s="135">
-        <v>43045</v>
-      </c>
-      <c r="I11" s="135">
-        <v>50348</v>
-      </c>
-      <c r="J11" s="134">
-        <f t="shared" si="0"/>
-        <v>50348</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="133">
-        <v>45640</v>
-      </c>
-      <c r="B12" s="115" t="s">
-        <v>299</v>
-      </c>
-      <c r="C12" s="155"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="115" t="s">
-        <v>296</v>
-      </c>
-      <c r="F12" s="134" t="s">
-        <v>290</v>
-      </c>
-      <c r="G12" s="136">
-        <v>11.99</v>
-      </c>
-      <c r="H12" s="135">
-        <v>45874</v>
-      </c>
-      <c r="I12" s="135">
-        <v>53177</v>
-      </c>
-      <c r="J12" s="134">
+      <c r="C10" s="154">
         <f t="shared" si="0"/>
         <v>53177</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="133">
-        <v>45641</v>
-      </c>
-      <c r="B13" s="115" t="s">
-        <v>303</v>
-      </c>
-      <c r="C13" s="155"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="115" t="s">
+      <c r="D10" s="14"/>
+      <c r="E10" s="114" t="s">
+        <v>292</v>
+      </c>
+      <c r="F10" s="133" t="s">
+        <v>293</v>
+      </c>
+      <c r="G10" s="135">
+        <v>14</v>
+      </c>
+      <c r="H10" s="134">
+        <v>43930</v>
+      </c>
+      <c r="I10" s="134">
+        <v>51233</v>
+      </c>
+      <c r="J10" s="133">
+        <f t="shared" si="1"/>
+        <v>51233</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="132">
+        <v>45639</v>
+      </c>
+      <c r="B11" s="114" t="s">
         <v>297</v>
       </c>
-      <c r="F13" s="134" t="s">
-        <v>298</v>
-      </c>
-      <c r="G13" s="136">
-        <v>35</v>
-      </c>
-      <c r="H13" s="135">
-        <v>45016</v>
-      </c>
-      <c r="I13" s="135">
-        <v>52319</v>
-      </c>
-      <c r="J13" s="134">
+      <c r="C11" s="154">
         <f t="shared" si="0"/>
         <v>52319</v>
       </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="114" t="s">
+        <v>294</v>
+      </c>
+      <c r="F11" s="133" t="s">
+        <v>295</v>
+      </c>
+      <c r="G11" s="135">
+        <v>18.989999999999998</v>
+      </c>
+      <c r="H11" s="134">
+        <v>43045</v>
+      </c>
+      <c r="I11" s="134">
+        <v>50348</v>
+      </c>
+      <c r="J11" s="133">
+        <f t="shared" si="1"/>
+        <v>50348</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="132">
+        <v>45640</v>
+      </c>
+      <c r="B12" s="114" t="s">
+        <v>299</v>
+      </c>
+      <c r="C12" s="154">
+        <f t="shared" si="0"/>
+        <v>53186</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="114" t="s">
+        <v>296</v>
+      </c>
+      <c r="F12" s="133" t="s">
+        <v>290</v>
+      </c>
+      <c r="G12" s="135">
+        <v>11.99</v>
+      </c>
+      <c r="H12" s="134">
+        <v>45874</v>
+      </c>
+      <c r="I12" s="134">
+        <v>53177</v>
+      </c>
+      <c r="J12" s="133">
+        <f t="shared" si="1"/>
+        <v>53177</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="132">
+        <v>45641</v>
+      </c>
+      <c r="B13" s="114" t="s">
+        <v>303</v>
+      </c>
+      <c r="C13" s="154">
+        <f t="shared" si="0"/>
+        <v>49861</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="114" t="s">
+        <v>297</v>
+      </c>
+      <c r="F13" s="133" t="s">
+        <v>298</v>
+      </c>
+      <c r="G13" s="135">
+        <v>35</v>
+      </c>
+      <c r="H13" s="134">
+        <v>45016</v>
+      </c>
+      <c r="I13" s="134">
+        <v>52319</v>
+      </c>
+      <c r="J13" s="133">
+        <f t="shared" si="1"/>
+        <v>52319</v>
+      </c>
     </row>
     <row r="14" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="133">
+      <c r="A14" s="132">
         <v>45642</v>
       </c>
-      <c r="B14" s="115" t="s">
+      <c r="B14" s="114" t="s">
         <v>304</v>
       </c>
-      <c r="C14" s="155"/>
+      <c r="C14" s="154">
+        <f t="shared" si="0"/>
+        <v>52379</v>
+      </c>
       <c r="D14" s="14"/>
-      <c r="E14" s="115" t="s">
+      <c r="E14" s="114" t="s">
         <v>307</v>
       </c>
-      <c r="F14" s="134" t="s">
+      <c r="F14" s="133" t="s">
         <v>293</v>
       </c>
-      <c r="G14" s="136">
+      <c r="G14" s="135">
         <v>17</v>
       </c>
-      <c r="H14" s="135">
+      <c r="H14" s="134">
         <v>43642</v>
       </c>
-      <c r="I14" s="135">
+      <c r="I14" s="134">
         <v>50945</v>
       </c>
-      <c r="J14" s="134">
-        <f t="shared" si="0"/>
+      <c r="J14" s="133">
+        <f t="shared" si="1"/>
         <v>50945</v>
       </c>
     </row>
@@ -6840,23 +7029,23 @@
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="14"/>
-      <c r="E15" s="115" t="s">
+      <c r="E15" s="114" t="s">
         <v>299</v>
       </c>
-      <c r="F15" s="134" t="s">
+      <c r="F15" s="133" t="s">
         <v>293</v>
       </c>
-      <c r="G15" s="136">
+      <c r="G15" s="135">
         <v>9.99</v>
       </c>
-      <c r="H15" s="135">
+      <c r="H15" s="134">
         <v>44787</v>
       </c>
-      <c r="I15" s="135">
+      <c r="I15" s="134">
         <v>53186</v>
       </c>
-      <c r="J15" s="134">
-        <f t="shared" si="0"/>
+      <c r="J15" s="133">
+        <f t="shared" si="1"/>
         <v>53186</v>
       </c>
     </row>
@@ -6865,23 +7054,23 @@
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="14"/>
-      <c r="E16" s="115" t="s">
+      <c r="E16" s="114" t="s">
         <v>300</v>
       </c>
-      <c r="F16" s="134" t="s">
+      <c r="F16" s="133" t="s">
         <v>301</v>
       </c>
-      <c r="G16" s="136">
+      <c r="G16" s="135">
         <v>12.5</v>
       </c>
-      <c r="H16" s="135">
+      <c r="H16" s="134">
         <v>44863</v>
       </c>
-      <c r="I16" s="135">
+      <c r="I16" s="134">
         <v>52166</v>
       </c>
-      <c r="J16" s="134">
-        <f t="shared" si="0"/>
+      <c r="J16" s="133">
+        <f t="shared" si="1"/>
         <v>52166</v>
       </c>
     </row>
@@ -6890,23 +7079,23 @@
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="14"/>
-      <c r="E17" s="115" t="s">
+      <c r="E17" s="114" t="s">
         <v>302</v>
       </c>
-      <c r="F17" s="134" t="s">
+      <c r="F17" s="133" t="s">
         <v>295</v>
       </c>
-      <c r="G17" s="136">
+      <c r="G17" s="135">
         <v>17.5</v>
       </c>
-      <c r="H17" s="135">
+      <c r="H17" s="134">
         <v>44929</v>
       </c>
-      <c r="I17" s="135">
+      <c r="I17" s="134">
         <v>53328</v>
       </c>
-      <c r="J17" s="134">
-        <f t="shared" si="0"/>
+      <c r="J17" s="133">
+        <f t="shared" si="1"/>
         <v>53328</v>
       </c>
     </row>
@@ -6915,23 +7104,23 @@
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="14"/>
-      <c r="E18" s="115" t="s">
+      <c r="E18" s="114" t="s">
         <v>303</v>
       </c>
-      <c r="F18" s="134" t="s">
+      <c r="F18" s="133" t="s">
         <v>301</v>
       </c>
-      <c r="G18" s="136">
+      <c r="G18" s="135">
         <v>13.5</v>
       </c>
-      <c r="H18" s="135">
+      <c r="H18" s="134">
         <v>42558</v>
       </c>
-      <c r="I18" s="135">
+      <c r="I18" s="134">
         <v>49861</v>
       </c>
-      <c r="J18" s="134">
-        <f t="shared" si="0"/>
+      <c r="J18" s="133">
+        <f t="shared" si="1"/>
         <v>49861</v>
       </c>
     </row>
@@ -6940,23 +7129,23 @@
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="14"/>
-      <c r="E19" s="115" t="s">
+      <c r="E19" s="114" t="s">
         <v>304</v>
       </c>
-      <c r="F19" s="134" t="s">
+      <c r="F19" s="133" t="s">
         <v>305</v>
       </c>
-      <c r="G19" s="136">
+      <c r="G19" s="135">
         <v>24.5</v>
       </c>
-      <c r="H19" s="135">
+      <c r="H19" s="134">
         <v>45076</v>
       </c>
-      <c r="I19" s="135">
+      <c r="I19" s="134">
         <v>52379</v>
       </c>
-      <c r="J19" s="134">
-        <f t="shared" si="0"/>
+      <c r="J19" s="133">
+        <f t="shared" si="1"/>
         <v>52379</v>
       </c>
     </row>
@@ -6974,7 +7163,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -7050,48 +7239,48 @@
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="180" t="s">
+      <c r="A6" s="179" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="180"/>
-      <c r="C6" s="180"/>
+      <c r="B6" s="179"/>
+      <c r="C6" s="179"/>
       <c r="D6" s="14"/>
-      <c r="E6" s="179" t="s">
+      <c r="E6" s="178" t="s">
         <v>281</v>
       </c>
-      <c r="F6" s="179"/>
-      <c r="G6" s="179"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:9" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="116" t="s">
+      <c r="A7" s="115" t="s">
         <v>92</v>
       </c>
-      <c r="B7" s="116" t="s">
+      <c r="B7" s="115" t="s">
         <v>98</v>
       </c>
-      <c r="C7" s="116" t="s">
+      <c r="C7" s="115" t="s">
         <v>59</v>
       </c>
       <c r="D7" s="14"/>
-      <c r="E7" s="117" t="s">
+      <c r="E7" s="116" t="s">
         <v>56</v>
       </c>
-      <c r="F7" s="117" t="s">
+      <c r="F7" s="116" t="s">
         <v>57</v>
       </c>
-      <c r="G7" s="117" t="s">
+      <c r="G7" s="116" t="s">
         <v>59</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:9" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="118">
+      <c r="A8" s="117">
         <v>25000</v>
       </c>
-      <c r="B8" s="118" t="s">
+      <c r="B8" s="117" t="s">
         <v>93</v>
       </c>
       <c r="C8" s="12" t="s">
@@ -7101,18 +7290,18 @@
       <c r="E8" s="12">
         <v>990678</v>
       </c>
-      <c r="F8" s="113">
+      <c r="F8" s="112">
         <v>84289</v>
       </c>
-      <c r="G8" s="114"/>
+      <c r="G8" s="113"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
     </row>
     <row r="9" spans="1:9" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="118">
+      <c r="A9" s="117">
         <v>50000</v>
       </c>
-      <c r="B9" s="118" t="s">
+      <c r="B9" s="117" t="s">
         <v>94</v>
       </c>
       <c r="C9" s="12" t="s">
@@ -7122,18 +7311,18 @@
       <c r="E9" s="12">
         <v>830385</v>
       </c>
-      <c r="F9" s="113">
+      <c r="F9" s="112">
         <v>190024</v>
       </c>
-      <c r="G9" s="114"/>
+      <c r="G9" s="113"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
     </row>
     <row r="10" spans="1:9" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="118">
+      <c r="A10" s="117">
         <v>75000</v>
       </c>
-      <c r="B10" s="118" t="s">
+      <c r="B10" s="117" t="s">
         <v>95</v>
       </c>
       <c r="C10" s="12" t="s">
@@ -7143,18 +7332,18 @@
       <c r="E10" s="12">
         <v>795574</v>
       </c>
-      <c r="F10" s="113">
+      <c r="F10" s="112">
         <v>64757</v>
       </c>
-      <c r="G10" s="114"/>
+      <c r="G10" s="113"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
     </row>
     <row r="11" spans="1:9" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="118">
+      <c r="A11" s="117">
         <v>100000</v>
       </c>
-      <c r="B11" s="118" t="s">
+      <c r="B11" s="117" t="s">
         <v>96</v>
       </c>
       <c r="C11" s="12" t="s">
@@ -7164,18 +7353,18 @@
       <c r="E11" s="12">
         <v>580622</v>
       </c>
-      <c r="F11" s="113">
+      <c r="F11" s="112">
         <v>71478</v>
       </c>
-      <c r="G11" s="114"/>
+      <c r="G11" s="113"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:9" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="118">
+      <c r="A12" s="117">
         <v>150000</v>
       </c>
-      <c r="B12" s="118" t="s">
+      <c r="B12" s="117" t="s">
         <v>97</v>
       </c>
       <c r="C12" s="12" t="s">
@@ -7185,10 +7374,10 @@
       <c r="E12" s="12">
         <v>549457</v>
       </c>
-      <c r="F12" s="113">
+      <c r="F12" s="112">
         <v>111709</v>
       </c>
-      <c r="G12" s="114"/>
+      <c r="G12" s="113"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
     </row>
@@ -7200,10 +7389,10 @@
       <c r="E13" s="12">
         <v>392128</v>
       </c>
-      <c r="F13" s="113">
+      <c r="F13" s="112">
         <v>85931</v>
       </c>
-      <c r="G13" s="114"/>
+      <c r="G13" s="113"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
     </row>
@@ -7215,10 +7404,10 @@
       <c r="E14" s="12">
         <v>391006</v>
       </c>
-      <c r="F14" s="113">
+      <c r="F14" s="112">
         <v>168114</v>
       </c>
-      <c r="G14" s="114"/>
+      <c r="G14" s="113"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
     </row>
@@ -7230,10 +7419,10 @@
       <c r="E15" s="12">
         <v>352711</v>
       </c>
-      <c r="F15" s="113">
+      <c r="F15" s="112">
         <v>89627</v>
       </c>
-      <c r="G15" s="114"/>
+      <c r="G15" s="113"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
     </row>
@@ -7245,10 +7434,10 @@
       <c r="E16" s="12">
         <v>253072</v>
       </c>
-      <c r="F16" s="113">
+      <c r="F16" s="112">
         <v>149946</v>
       </c>
-      <c r="G16" s="114"/>
+      <c r="G16" s="113"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
     </row>
@@ -7260,10 +7449,10 @@
       <c r="E17" s="12">
         <v>612235</v>
       </c>
-      <c r="F17" s="113">
+      <c r="F17" s="112">
         <v>145893</v>
       </c>
-      <c r="G17" s="114"/>
+      <c r="G17" s="113"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
     </row>
@@ -7275,10 +7464,10 @@
       <c r="E18" s="12">
         <v>611810</v>
       </c>
-      <c r="F18" s="113">
+      <c r="F18" s="112">
         <v>122604</v>
       </c>
-      <c r="G18" s="114"/>
+      <c r="G18" s="113"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
     </row>
@@ -7290,10 +7479,10 @@
       <c r="E19" s="12">
         <v>602693</v>
       </c>
-      <c r="F19" s="113">
+      <c r="F19" s="112">
         <v>137670</v>
       </c>
-      <c r="G19" s="114"/>
+      <c r="G19" s="113"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
     </row>
@@ -7305,10 +7494,10 @@
       <c r="E20" s="12">
         <v>110608</v>
       </c>
-      <c r="F20" s="113">
+      <c r="F20" s="112">
         <v>131505</v>
       </c>
-      <c r="G20" s="114"/>
+      <c r="G20" s="113"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
     </row>
@@ -7396,190 +7585,190 @@
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="66"/>
-      <c r="B3" s="156" t="s">
+      <c r="B3" s="155" t="s">
         <v>212</v>
       </c>
-      <c r="C3" s="157"/>
-      <c r="D3" s="157"/>
-      <c r="E3" s="158"/>
+      <c r="C3" s="156"/>
+      <c r="D3" s="156"/>
+      <c r="E3" s="157"/>
     </row>
     <row r="4" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="66"/>
-      <c r="B4" s="144">
+      <c r="B4" s="143">
         <v>45292</v>
       </c>
-      <c r="C4" s="144">
+      <c r="C4" s="143">
         <v>45415</v>
       </c>
-      <c r="D4" s="144">
+      <c r="D4" s="143">
         <v>45383</v>
       </c>
-      <c r="E4" s="144">
+      <c r="E4" s="143">
         <v>45295</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="66"/>
-      <c r="B5" s="144">
+      <c r="B5" s="143">
         <v>45383</v>
       </c>
-      <c r="C5" s="144">
+      <c r="C5" s="143">
         <v>45439</v>
       </c>
-      <c r="D5" s="144">
+      <c r="D5" s="143">
         <v>45748</v>
       </c>
-      <c r="E5" s="144">
+      <c r="E5" s="143">
         <v>45322</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="66"/>
-      <c r="B6" s="144">
+      <c r="B6" s="143">
         <v>45474</v>
       </c>
-      <c r="C6" s="144">
+      <c r="C6" s="143">
         <v>45463</v>
       </c>
-      <c r="D6" s="144">
+      <c r="D6" s="143">
         <v>46113</v>
       </c>
-      <c r="E6" s="144">
+      <c r="E6" s="143">
         <v>45352</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="66"/>
-      <c r="B7" s="144">
+      <c r="B7" s="143">
         <v>45566</v>
       </c>
-      <c r="C7" s="144">
+      <c r="C7" s="143">
         <v>45487</v>
       </c>
-      <c r="D7" s="144">
+      <c r="D7" s="143">
         <v>46478</v>
       </c>
-      <c r="E7" s="144">
+      <c r="E7" s="143">
         <v>45382</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="66"/>
-      <c r="B8" s="144">
+      <c r="B8" s="143">
         <v>45658</v>
       </c>
-      <c r="C8" s="144">
+      <c r="C8" s="143">
         <v>45511</v>
       </c>
-      <c r="D8" s="144">
+      <c r="D8" s="143">
         <v>46844</v>
       </c>
-      <c r="E8" s="144">
+      <c r="E8" s="143">
         <v>45412</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="66"/>
-      <c r="B9" s="144">
+      <c r="B9" s="143">
         <v>45748</v>
       </c>
-      <c r="C9" s="144">
+      <c r="C9" s="143">
         <v>45535</v>
       </c>
-      <c r="D9" s="144">
+      <c r="D9" s="143">
         <v>47209</v>
       </c>
-      <c r="E9" s="144">
+      <c r="E9" s="143">
         <v>45442</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="66"/>
-      <c r="B10" s="144">
+      <c r="B10" s="143">
         <v>45839</v>
       </c>
-      <c r="C10" s="144">
+      <c r="C10" s="143">
         <v>45559</v>
       </c>
-      <c r="D10" s="144">
+      <c r="D10" s="143">
         <v>47574</v>
       </c>
-      <c r="E10" s="144">
+      <c r="E10" s="143">
         <v>45472</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="66"/>
-      <c r="B11" s="144">
+      <c r="B11" s="143">
         <v>45931</v>
       </c>
-      <c r="C11" s="144">
+      <c r="C11" s="143">
         <v>45583</v>
       </c>
-      <c r="D11" s="144">
+      <c r="D11" s="143">
         <v>47939</v>
       </c>
-      <c r="E11" s="144">
+      <c r="E11" s="143">
         <v>45502</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="66"/>
-      <c r="B12" s="144">
+      <c r="B12" s="143">
         <v>46023</v>
       </c>
-      <c r="C12" s="144">
+      <c r="C12" s="143">
         <v>45607</v>
       </c>
-      <c r="D12" s="144">
+      <c r="D12" s="143">
         <v>48305</v>
       </c>
-      <c r="E12" s="144">
+      <c r="E12" s="143">
         <v>45532</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="66"/>
-      <c r="B13" s="144">
+      <c r="B13" s="143">
         <v>46204</v>
       </c>
-      <c r="C13" s="144">
+      <c r="C13" s="143">
         <v>45655</v>
       </c>
-      <c r="D13" s="144">
+      <c r="D13" s="143">
         <v>49035</v>
       </c>
-      <c r="E13" s="144">
+      <c r="E13" s="143">
         <v>45592</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="66"/>
-      <c r="B14" s="144">
+      <c r="B14" s="143">
         <v>46296</v>
       </c>
-      <c r="C14" s="144">
+      <c r="C14" s="143">
         <v>45679</v>
       </c>
-      <c r="D14" s="144">
+      <c r="D14" s="143">
         <v>49400</v>
       </c>
-      <c r="E14" s="144">
+      <c r="E14" s="143">
         <v>45622</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="66"/>
-      <c r="B15" s="144">
+      <c r="B15" s="143">
         <v>46478</v>
       </c>
-      <c r="C15" s="144">
+      <c r="C15" s="143">
         <v>45727</v>
       </c>
-      <c r="D15" s="144">
+      <c r="D15" s="143">
         <v>50131</v>
       </c>
-      <c r="E15" s="144">
+      <c r="E15" s="143">
         <v>45683</v>
       </c>
     </row>
@@ -7615,22 +7804,22 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A3" s="128" t="s">
+      <c r="A3" s="127" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="129" t="s">
+      <c r="B3" s="128" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="129" t="s">
+      <c r="C3" s="128" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="129" t="s">
+      <c r="D3" s="128" t="s">
         <v>69</v>
       </c>
-      <c r="E3" s="129" t="s">
+      <c r="E3" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="F3" s="129" t="s">
+      <c r="F3" s="128" t="s">
         <v>65</v>
       </c>
     </row>
@@ -7638,19 +7827,19 @@
       <c r="A4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="130">
+      <c r="B4" s="129">
         <v>18580</v>
       </c>
-      <c r="C4" s="130">
+      <c r="C4" s="129">
         <v>49225</v>
       </c>
-      <c r="D4" s="130">
+      <c r="D4" s="129">
         <v>16326</v>
       </c>
-      <c r="E4" s="130">
+      <c r="E4" s="129">
         <v>10017</v>
       </c>
-      <c r="F4" s="130">
+      <c r="F4" s="129">
         <v>26134</v>
       </c>
     </row>
@@ -7658,19 +7847,19 @@
       <c r="A5" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="130">
+      <c r="B5" s="129">
         <v>78970</v>
       </c>
-      <c r="C5" s="130">
+      <c r="C5" s="129">
         <v>82262</v>
       </c>
-      <c r="D5" s="130">
+      <c r="D5" s="129">
         <v>48640</v>
       </c>
-      <c r="E5" s="130">
+      <c r="E5" s="129">
         <v>49985</v>
       </c>
-      <c r="F5" s="130">
+      <c r="F5" s="129">
         <v>73428</v>
       </c>
     </row>
@@ -7678,19 +7867,19 @@
       <c r="A6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="130">
+      <c r="B6" s="129">
         <v>24236</v>
       </c>
-      <c r="C6" s="130">
+      <c r="C6" s="129">
         <v>131390</v>
       </c>
-      <c r="D6" s="130">
+      <c r="D6" s="129">
         <v>79022</v>
       </c>
-      <c r="E6" s="130">
+      <c r="E6" s="129">
         <v>71009</v>
       </c>
-      <c r="F6" s="130">
+      <c r="F6" s="129">
         <v>81474</v>
       </c>
     </row>
@@ -7698,185 +7887,185 @@
       <c r="A7" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="130">
+      <c r="B7" s="129">
         <v>16730</v>
       </c>
-      <c r="C7" s="130">
+      <c r="C7" s="129">
         <v>19730</v>
       </c>
-      <c r="D7" s="130">
+      <c r="D7" s="129">
         <v>12109</v>
       </c>
-      <c r="E7" s="130">
+      <c r="E7" s="129">
         <v>11355</v>
       </c>
-      <c r="F7" s="130">
+      <c r="F7" s="129">
         <v>17686</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="131" t="s">
+      <c r="A8" s="130" t="s">
         <v>71</v>
       </c>
-      <c r="B8" s="130">
+      <c r="B8" s="129">
         <v>35358</v>
       </c>
-      <c r="C8" s="130">
+      <c r="C8" s="129">
         <v>42685</v>
       </c>
-      <c r="D8" s="130">
+      <c r="D8" s="129">
         <v>20893</v>
       </c>
-      <c r="E8" s="130">
+      <c r="E8" s="129">
         <v>16065</v>
       </c>
-      <c r="F8" s="130">
+      <c r="F8" s="129">
         <v>21388</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="132"/>
-      <c r="B10" s="132"/>
-      <c r="C10" s="132"/>
-      <c r="D10" s="132"/>
-      <c r="E10" s="132"/>
-      <c r="F10" s="132"/>
+      <c r="A10" s="131"/>
+      <c r="B10" s="131"/>
+      <c r="C10" s="131"/>
+      <c r="D10" s="131"/>
+      <c r="E10" s="131"/>
+      <c r="F10" s="131"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="132"/>
-      <c r="B11" s="132"/>
-      <c r="C11" s="132"/>
-      <c r="D11" s="132"/>
-      <c r="E11" s="132"/>
-      <c r="F11" s="132"/>
+      <c r="A11" s="131"/>
+      <c r="B11" s="131"/>
+      <c r="C11" s="131"/>
+      <c r="D11" s="131"/>
+      <c r="E11" s="131"/>
+      <c r="F11" s="131"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="132"/>
-      <c r="B12" s="132"/>
-      <c r="C12" s="132"/>
-      <c r="D12" s="132"/>
-      <c r="E12" s="132"/>
-      <c r="F12" s="132"/>
+      <c r="A12" s="131"/>
+      <c r="B12" s="131"/>
+      <c r="C12" s="131"/>
+      <c r="D12" s="131"/>
+      <c r="E12" s="131"/>
+      <c r="F12" s="131"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="132"/>
-      <c r="B13" s="132"/>
-      <c r="C13" s="132"/>
-      <c r="D13" s="132"/>
-      <c r="E13" s="132"/>
-      <c r="F13" s="132"/>
+      <c r="A13" s="131"/>
+      <c r="B13" s="131"/>
+      <c r="C13" s="131"/>
+      <c r="D13" s="131"/>
+      <c r="E13" s="131"/>
+      <c r="F13" s="131"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="132"/>
-      <c r="B14" s="132"/>
-      <c r="C14" s="132"/>
-      <c r="D14" s="132"/>
-      <c r="E14" s="132"/>
-      <c r="F14" s="132"/>
+      <c r="A14" s="131"/>
+      <c r="B14" s="131"/>
+      <c r="C14" s="131"/>
+      <c r="D14" s="131"/>
+      <c r="E14" s="131"/>
+      <c r="F14" s="131"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="132"/>
-      <c r="B15" s="132"/>
-      <c r="C15" s="132"/>
-      <c r="D15" s="132"/>
-      <c r="E15" s="132"/>
-      <c r="F15" s="132"/>
+      <c r="A15" s="131"/>
+      <c r="B15" s="131"/>
+      <c r="C15" s="131"/>
+      <c r="D15" s="131"/>
+      <c r="E15" s="131"/>
+      <c r="F15" s="131"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="132"/>
-      <c r="B16" s="132"/>
-      <c r="C16" s="132"/>
-      <c r="D16" s="132"/>
-      <c r="E16" s="132"/>
-      <c r="F16" s="132"/>
+      <c r="A16" s="131"/>
+      <c r="B16" s="131"/>
+      <c r="C16" s="131"/>
+      <c r="D16" s="131"/>
+      <c r="E16" s="131"/>
+      <c r="F16" s="131"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="132"/>
-      <c r="B17" s="132"/>
-      <c r="C17" s="132"/>
-      <c r="D17" s="132"/>
-      <c r="E17" s="132"/>
-      <c r="F17" s="132"/>
+      <c r="A17" s="131"/>
+      <c r="B17" s="131"/>
+      <c r="C17" s="131"/>
+      <c r="D17" s="131"/>
+      <c r="E17" s="131"/>
+      <c r="F17" s="131"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="132"/>
-      <c r="B18" s="132"/>
-      <c r="C18" s="132"/>
-      <c r="D18" s="132"/>
-      <c r="E18" s="132"/>
-      <c r="F18" s="132"/>
+      <c r="A18" s="131"/>
+      <c r="B18" s="131"/>
+      <c r="C18" s="131"/>
+      <c r="D18" s="131"/>
+      <c r="E18" s="131"/>
+      <c r="F18" s="131"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="132"/>
-      <c r="B19" s="132"/>
-      <c r="C19" s="132"/>
-      <c r="D19" s="132"/>
-      <c r="E19" s="132"/>
-      <c r="F19" s="132"/>
+      <c r="A19" s="131"/>
+      <c r="B19" s="131"/>
+      <c r="C19" s="131"/>
+      <c r="D19" s="131"/>
+      <c r="E19" s="131"/>
+      <c r="F19" s="131"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="132"/>
-      <c r="B20" s="132"/>
-      <c r="C20" s="132"/>
-      <c r="D20" s="132"/>
-      <c r="E20" s="132"/>
-      <c r="F20" s="132"/>
+      <c r="A20" s="131"/>
+      <c r="B20" s="131"/>
+      <c r="C20" s="131"/>
+      <c r="D20" s="131"/>
+      <c r="E20" s="131"/>
+      <c r="F20" s="131"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="132"/>
-      <c r="B21" s="132"/>
-      <c r="C21" s="132"/>
-      <c r="D21" s="132"/>
-      <c r="E21" s="132"/>
-      <c r="F21" s="132"/>
+      <c r="A21" s="131"/>
+      <c r="B21" s="131"/>
+      <c r="C21" s="131"/>
+      <c r="D21" s="131"/>
+      <c r="E21" s="131"/>
+      <c r="F21" s="131"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="132"/>
-      <c r="B22" s="132"/>
-      <c r="C22" s="132"/>
-      <c r="D22" s="132"/>
-      <c r="E22" s="132"/>
-      <c r="F22" s="132"/>
+      <c r="A22" s="131"/>
+      <c r="B22" s="131"/>
+      <c r="C22" s="131"/>
+      <c r="D22" s="131"/>
+      <c r="E22" s="131"/>
+      <c r="F22" s="131"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="132"/>
-      <c r="B23" s="132"/>
-      <c r="C23" s="132"/>
-      <c r="D23" s="132"/>
-      <c r="E23" s="132"/>
-      <c r="F23" s="132"/>
+      <c r="A23" s="131"/>
+      <c r="B23" s="131"/>
+      <c r="C23" s="131"/>
+      <c r="D23" s="131"/>
+      <c r="E23" s="131"/>
+      <c r="F23" s="131"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="132"/>
-      <c r="B24" s="132"/>
-      <c r="C24" s="132"/>
-      <c r="D24" s="132"/>
-      <c r="E24" s="132"/>
-      <c r="F24" s="132"/>
+      <c r="A24" s="131"/>
+      <c r="B24" s="131"/>
+      <c r="C24" s="131"/>
+      <c r="D24" s="131"/>
+      <c r="E24" s="131"/>
+      <c r="F24" s="131"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="132"/>
-      <c r="B25" s="132"/>
-      <c r="C25" s="132"/>
-      <c r="D25" s="132"/>
-      <c r="E25" s="132"/>
-      <c r="F25" s="132"/>
+      <c r="A25" s="131"/>
+      <c r="B25" s="131"/>
+      <c r="C25" s="131"/>
+      <c r="D25" s="131"/>
+      <c r="E25" s="131"/>
+      <c r="F25" s="131"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="132"/>
-      <c r="B26" s="132"/>
-      <c r="C26" s="132"/>
-      <c r="D26" s="132"/>
-      <c r="E26" s="132"/>
-      <c r="F26" s="132"/>
+      <c r="A26" s="131"/>
+      <c r="B26" s="131"/>
+      <c r="C26" s="131"/>
+      <c r="D26" s="131"/>
+      <c r="E26" s="131"/>
+      <c r="F26" s="131"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="132"/>
-      <c r="B27" s="132"/>
-      <c r="C27" s="132"/>
-      <c r="D27" s="132"/>
-      <c r="E27" s="132"/>
-      <c r="F27" s="132"/>
+      <c r="A27" s="131"/>
+      <c r="B27" s="131"/>
+      <c r="C27" s="131"/>
+      <c r="D27" s="131"/>
+      <c r="E27" s="131"/>
+      <c r="F27" s="131"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -7923,762 +8112,762 @@
       <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A3" s="119" t="s">
+      <c r="A3" s="118" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="120" t="s">
+      <c r="B3" s="119" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="120" t="s">
+      <c r="C3" s="119" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="120" t="s">
+      <c r="D3" s="119" t="s">
         <v>91</v>
       </c>
-      <c r="E3" s="120" t="s">
+      <c r="E3" s="119" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="121" t="s">
+      <c r="F3" s="120" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A4" s="122" t="s">
+      <c r="A4" s="121" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="123" t="s">
+      <c r="B4" s="122" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="123" t="s">
+      <c r="C4" s="122" t="s">
         <v>88</v>
       </c>
-      <c r="D4" s="123">
+      <c r="D4" s="122">
         <v>5</v>
       </c>
-      <c r="E4" s="123">
+      <c r="E4" s="122">
         <v>1</v>
       </c>
-      <c r="F4" s="124">
+      <c r="F4" s="123">
         <v>45292</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A5" s="122" t="s">
+      <c r="A5" s="121" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="123" t="s">
+      <c r="B5" s="122" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="123" t="s">
+      <c r="C5" s="122" t="s">
         <v>88</v>
       </c>
-      <c r="D5" s="123">
+      <c r="D5" s="122">
         <v>3</v>
       </c>
-      <c r="E5" s="123">
+      <c r="E5" s="122">
         <v>2</v>
       </c>
-      <c r="F5" s="124">
+      <c r="F5" s="123">
         <v>45293</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A6" s="122" t="s">
+      <c r="A6" s="121" t="s">
         <v>80</v>
       </c>
-      <c r="B6" s="123" t="s">
+      <c r="B6" s="122" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="123" t="s">
+      <c r="C6" s="122" t="s">
         <v>88</v>
       </c>
-      <c r="D6" s="123">
+      <c r="D6" s="122">
         <v>1</v>
       </c>
-      <c r="E6" s="123">
+      <c r="E6" s="122">
         <v>3</v>
       </c>
-      <c r="F6" s="124">
+      <c r="F6" s="123">
         <v>45294</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="122" t="s">
+      <c r="A7" s="121" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="123" t="s">
+      <c r="B7" s="122" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="123" t="s">
+      <c r="C7" s="122" t="s">
         <v>88</v>
       </c>
-      <c r="D7" s="123">
+      <c r="D7" s="122">
         <v>6</v>
       </c>
-      <c r="E7" s="123">
+      <c r="E7" s="122">
         <v>3</v>
       </c>
-      <c r="F7" s="124">
+      <c r="F7" s="123">
         <v>45295</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="122" t="s">
+      <c r="A8" s="121" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="123" t="s">
+      <c r="B8" s="122" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="123" t="s">
+      <c r="C8" s="122" t="s">
         <v>89</v>
       </c>
-      <c r="D8" s="123">
+      <c r="D8" s="122">
         <v>1</v>
       </c>
-      <c r="E8" s="123">
+      <c r="E8" s="122">
         <v>3</v>
       </c>
-      <c r="F8" s="124">
+      <c r="F8" s="123">
         <v>45296</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A9" s="122" t="s">
+      <c r="A9" s="121" t="s">
         <v>76</v>
       </c>
-      <c r="B9" s="123" t="s">
+      <c r="B9" s="122" t="s">
         <v>83</v>
       </c>
-      <c r="C9" s="123" t="s">
+      <c r="C9" s="122" t="s">
         <v>88</v>
       </c>
-      <c r="D9" s="123">
+      <c r="D9" s="122">
         <v>3</v>
       </c>
-      <c r="E9" s="123">
+      <c r="E9" s="122">
         <v>4</v>
       </c>
-      <c r="F9" s="124">
+      <c r="F9" s="123">
         <v>45297</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A10" s="122" t="s">
+      <c r="A10" s="121" t="s">
         <v>74</v>
       </c>
-      <c r="B10" s="123" t="s">
+      <c r="B10" s="122" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="123" t="s">
+      <c r="C10" s="122" t="s">
         <v>89</v>
       </c>
-      <c r="D10" s="123">
+      <c r="D10" s="122">
         <v>1</v>
       </c>
-      <c r="E10" s="123">
+      <c r="E10" s="122">
         <v>4</v>
       </c>
-      <c r="F10" s="124">
+      <c r="F10" s="123">
         <v>45298</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A11" s="122" t="s">
+      <c r="A11" s="121" t="s">
         <v>77</v>
       </c>
-      <c r="B11" s="123" t="s">
+      <c r="B11" s="122" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="123" t="s">
+      <c r="C11" s="122" t="s">
         <v>89</v>
       </c>
-      <c r="D11" s="123">
+      <c r="D11" s="122">
         <v>7</v>
       </c>
-      <c r="E11" s="123">
+      <c r="E11" s="122">
         <v>4</v>
       </c>
-      <c r="F11" s="124">
+      <c r="F11" s="123">
         <v>45299</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A12" s="122" t="s">
+      <c r="A12" s="121" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="123" t="s">
+      <c r="B12" s="122" t="s">
         <v>84</v>
       </c>
-      <c r="C12" s="123" t="s">
+      <c r="C12" s="122" t="s">
         <v>89</v>
       </c>
-      <c r="D12" s="123">
+      <c r="D12" s="122">
         <v>7</v>
       </c>
-      <c r="E12" s="123">
+      <c r="E12" s="122">
         <v>4</v>
       </c>
-      <c r="F12" s="124">
+      <c r="F12" s="123">
         <v>45300</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A13" s="122" t="s">
+      <c r="A13" s="121" t="s">
         <v>73</v>
       </c>
-      <c r="B13" s="123" t="s">
+      <c r="B13" s="122" t="s">
         <v>84</v>
       </c>
-      <c r="C13" s="123" t="s">
+      <c r="C13" s="122" t="s">
         <v>88</v>
       </c>
-      <c r="D13" s="123">
+      <c r="D13" s="122">
         <v>8</v>
       </c>
-      <c r="E13" s="123">
+      <c r="E13" s="122">
         <v>5</v>
       </c>
-      <c r="F13" s="124">
+      <c r="F13" s="123">
         <v>45301</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A14" s="122" t="s">
+      <c r="A14" s="121" t="s">
         <v>79</v>
       </c>
-      <c r="B14" s="123" t="s">
+      <c r="B14" s="122" t="s">
         <v>84</v>
       </c>
-      <c r="C14" s="123" t="s">
+      <c r="C14" s="122" t="s">
         <v>88</v>
       </c>
-      <c r="D14" s="123">
+      <c r="D14" s="122">
         <v>2</v>
       </c>
-      <c r="E14" s="123">
+      <c r="E14" s="122">
         <v>6</v>
       </c>
-      <c r="F14" s="124">
+      <c r="F14" s="123">
         <v>45302</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A15" s="122" t="s">
+      <c r="A15" s="121" t="s">
         <v>75</v>
       </c>
-      <c r="B15" s="123" t="s">
+      <c r="B15" s="122" t="s">
         <v>84</v>
       </c>
-      <c r="C15" s="123" t="s">
+      <c r="C15" s="122" t="s">
         <v>88</v>
       </c>
-      <c r="D15" s="123">
+      <c r="D15" s="122">
         <v>1</v>
       </c>
-      <c r="E15" s="123">
+      <c r="E15" s="122">
         <v>6</v>
       </c>
-      <c r="F15" s="124">
+      <c r="F15" s="123">
         <v>45303</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A16" s="122" t="s">
+      <c r="A16" s="121" t="s">
         <v>78</v>
       </c>
-      <c r="B16" s="123" t="s">
+      <c r="B16" s="122" t="s">
         <v>84</v>
       </c>
-      <c r="C16" s="123" t="s">
+      <c r="C16" s="122" t="s">
         <v>89</v>
       </c>
-      <c r="D16" s="123">
+      <c r="D16" s="122">
         <v>8</v>
       </c>
-      <c r="E16" s="123">
+      <c r="E16" s="122">
         <v>6</v>
       </c>
-      <c r="F16" s="124">
+      <c r="F16" s="123">
         <v>45304</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A17" s="122" t="s">
+      <c r="A17" s="121" t="s">
         <v>73</v>
       </c>
-      <c r="B17" s="123" t="s">
+      <c r="B17" s="122" t="s">
         <v>85</v>
       </c>
-      <c r="C17" s="123" t="s">
+      <c r="C17" s="122" t="s">
         <v>88</v>
       </c>
-      <c r="D17" s="123">
+      <c r="D17" s="122">
         <v>3</v>
       </c>
-      <c r="E17" s="123">
+      <c r="E17" s="122">
         <v>6</v>
       </c>
-      <c r="F17" s="124">
+      <c r="F17" s="123">
         <v>45323</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A18" s="122" t="s">
+      <c r="A18" s="121" t="s">
         <v>79</v>
       </c>
-      <c r="B18" s="123" t="s">
+      <c r="B18" s="122" t="s">
         <v>85</v>
       </c>
-      <c r="C18" s="123" t="s">
+      <c r="C18" s="122" t="s">
         <v>88</v>
       </c>
-      <c r="D18" s="123">
+      <c r="D18" s="122">
         <v>6</v>
       </c>
-      <c r="E18" s="123">
+      <c r="E18" s="122">
         <v>6</v>
       </c>
-      <c r="F18" s="124">
+      <c r="F18" s="123">
         <v>45324</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A19" s="122" t="s">
+      <c r="A19" s="121" t="s">
         <v>80</v>
       </c>
-      <c r="B19" s="123" t="s">
+      <c r="B19" s="122" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="123" t="s">
+      <c r="C19" s="122" t="s">
         <v>88</v>
       </c>
-      <c r="D19" s="123">
+      <c r="D19" s="122">
         <v>8</v>
       </c>
-      <c r="E19" s="123">
+      <c r="E19" s="122">
         <v>6</v>
       </c>
-      <c r="F19" s="124">
+      <c r="F19" s="123">
         <v>45325</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A20" s="122" t="s">
+      <c r="A20" s="121" t="s">
         <v>78</v>
       </c>
-      <c r="B20" s="123" t="s">
+      <c r="B20" s="122" t="s">
         <v>85</v>
       </c>
-      <c r="C20" s="123" t="s">
+      <c r="C20" s="122" t="s">
         <v>89</v>
       </c>
-      <c r="D20" s="123">
+      <c r="D20" s="122">
         <v>3</v>
       </c>
-      <c r="E20" s="123">
+      <c r="E20" s="122">
         <v>8</v>
       </c>
-      <c r="F20" s="124">
+      <c r="F20" s="123">
         <v>45326</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A21" s="122" t="s">
+      <c r="A21" s="121" t="s">
         <v>73</v>
       </c>
-      <c r="B21" s="123" t="s">
+      <c r="B21" s="122" t="s">
         <v>85</v>
       </c>
-      <c r="C21" s="123" t="s">
+      <c r="C21" s="122" t="s">
         <v>88</v>
       </c>
-      <c r="D21" s="123">
+      <c r="D21" s="122">
         <v>1</v>
       </c>
-      <c r="E21" s="123">
+      <c r="E21" s="122">
         <v>8</v>
       </c>
-      <c r="F21" s="124">
+      <c r="F21" s="123">
         <v>45327</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A22" s="122" t="s">
+      <c r="A22" s="121" t="s">
         <v>78</v>
       </c>
-      <c r="B22" s="123" t="s">
+      <c r="B22" s="122" t="s">
         <v>85</v>
       </c>
-      <c r="C22" s="123" t="s">
+      <c r="C22" s="122" t="s">
         <v>89</v>
       </c>
-      <c r="D22" s="123">
+      <c r="D22" s="122">
         <v>5</v>
       </c>
-      <c r="E22" s="123">
+      <c r="E22" s="122">
         <v>9</v>
       </c>
-      <c r="F22" s="124">
+      <c r="F22" s="123">
         <v>45328</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A23" s="122" t="s">
+      <c r="A23" s="121" t="s">
         <v>80</v>
       </c>
-      <c r="B23" s="123" t="s">
+      <c r="B23" s="122" t="s">
         <v>85</v>
       </c>
-      <c r="C23" s="123" t="s">
+      <c r="C23" s="122" t="s">
         <v>88</v>
       </c>
-      <c r="D23" s="123">
+      <c r="D23" s="122">
         <v>3</v>
       </c>
-      <c r="E23" s="123">
+      <c r="E23" s="122">
         <v>10</v>
       </c>
-      <c r="F23" s="124">
+      <c r="F23" s="123">
         <v>45329</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A24" s="122" t="s">
+      <c r="A24" s="121" t="s">
         <v>75</v>
       </c>
-      <c r="B24" s="123" t="s">
+      <c r="B24" s="122" t="s">
         <v>85</v>
       </c>
-      <c r="C24" s="123" t="s">
+      <c r="C24" s="122" t="s">
         <v>88</v>
       </c>
-      <c r="D24" s="123">
+      <c r="D24" s="122">
         <v>5</v>
       </c>
-      <c r="E24" s="123">
+      <c r="E24" s="122">
         <v>10</v>
       </c>
-      <c r="F24" s="124">
+      <c r="F24" s="123">
         <v>45330</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A25" s="122" t="s">
+      <c r="A25" s="121" t="s">
         <v>77</v>
       </c>
-      <c r="B25" s="123" t="s">
+      <c r="B25" s="122" t="s">
         <v>85</v>
       </c>
-      <c r="C25" s="123" t="s">
+      <c r="C25" s="122" t="s">
         <v>89</v>
       </c>
-      <c r="D25" s="123">
+      <c r="D25" s="122">
         <v>8</v>
       </c>
-      <c r="E25" s="123">
+      <c r="E25" s="122">
         <v>10</v>
       </c>
-      <c r="F25" s="124">
+      <c r="F25" s="123">
         <v>45331</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A26" s="122" t="s">
+      <c r="A26" s="121" t="s">
         <v>77</v>
       </c>
-      <c r="B26" s="123" t="s">
+      <c r="B26" s="122" t="s">
         <v>85</v>
       </c>
-      <c r="C26" s="123" t="s">
+      <c r="C26" s="122" t="s">
         <v>89</v>
       </c>
-      <c r="D26" s="123">
+      <c r="D26" s="122">
         <v>3</v>
       </c>
-      <c r="E26" s="123">
+      <c r="E26" s="122">
         <v>10</v>
       </c>
-      <c r="F26" s="124">
+      <c r="F26" s="123">
         <v>45332</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A27" s="122" t="s">
+      <c r="A27" s="121" t="s">
         <v>79</v>
       </c>
-      <c r="B27" s="123" t="s">
+      <c r="B27" s="122" t="s">
         <v>85</v>
       </c>
-      <c r="C27" s="123" t="s">
+      <c r="C27" s="122" t="s">
         <v>88</v>
       </c>
-      <c r="D27" s="123">
+      <c r="D27" s="122">
         <v>2</v>
       </c>
-      <c r="E27" s="123">
+      <c r="E27" s="122">
         <v>11</v>
       </c>
-      <c r="F27" s="124">
+      <c r="F27" s="123">
         <v>45333</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A28" s="122" t="s">
+      <c r="A28" s="121" t="s">
         <v>76</v>
       </c>
-      <c r="B28" s="123" t="s">
+      <c r="B28" s="122" t="s">
         <v>85</v>
       </c>
-      <c r="C28" s="123" t="s">
+      <c r="C28" s="122" t="s">
         <v>88</v>
       </c>
-      <c r="D28" s="123">
+      <c r="D28" s="122">
         <v>4</v>
       </c>
-      <c r="E28" s="123">
+      <c r="E28" s="122">
         <v>11</v>
       </c>
-      <c r="F28" s="124">
+      <c r="F28" s="123">
         <v>45334</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A29" s="122" t="s">
+      <c r="A29" s="121" t="s">
         <v>74</v>
       </c>
-      <c r="B29" s="123" t="s">
+      <c r="B29" s="122" t="s">
         <v>85</v>
       </c>
-      <c r="C29" s="123" t="s">
+      <c r="C29" s="122" t="s">
         <v>89</v>
       </c>
-      <c r="D29" s="123">
+      <c r="D29" s="122">
         <v>4</v>
       </c>
-      <c r="E29" s="123">
+      <c r="E29" s="122">
         <v>11</v>
       </c>
-      <c r="F29" s="124">
+      <c r="F29" s="123">
         <v>45335</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A30" s="122" t="s">
+      <c r="A30" s="121" t="s">
         <v>74</v>
       </c>
-      <c r="B30" s="123" t="s">
+      <c r="B30" s="122" t="s">
         <v>85</v>
       </c>
-      <c r="C30" s="123" t="s">
+      <c r="C30" s="122" t="s">
         <v>89</v>
       </c>
-      <c r="D30" s="123">
+      <c r="D30" s="122">
         <v>9</v>
       </c>
-      <c r="E30" s="123">
+      <c r="E30" s="122">
         <v>12</v>
       </c>
-      <c r="F30" s="124">
+      <c r="F30" s="123">
         <v>45336</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A31" s="122" t="s">
+      <c r="A31" s="121" t="s">
         <v>80</v>
       </c>
-      <c r="B31" s="123" t="s">
+      <c r="B31" s="122" t="s">
         <v>85</v>
       </c>
-      <c r="C31" s="123" t="s">
+      <c r="C31" s="122" t="s">
         <v>88</v>
       </c>
-      <c r="D31" s="123">
+      <c r="D31" s="122">
         <v>4</v>
       </c>
-      <c r="E31" s="123">
+      <c r="E31" s="122">
         <v>13</v>
       </c>
-      <c r="F31" s="124">
+      <c r="F31" s="123">
         <v>45352</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A32" s="122" t="s">
+      <c r="A32" s="121" t="s">
         <v>80</v>
       </c>
-      <c r="B32" s="123" t="s">
+      <c r="B32" s="122" t="s">
         <v>85</v>
       </c>
-      <c r="C32" s="123" t="s">
+      <c r="C32" s="122" t="s">
         <v>88</v>
       </c>
-      <c r="D32" s="123">
+      <c r="D32" s="122">
         <v>1</v>
       </c>
-      <c r="E32" s="123">
+      <c r="E32" s="122">
         <v>14</v>
       </c>
-      <c r="F32" s="124">
+      <c r="F32" s="123">
         <v>45353</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A33" s="122" t="s">
+      <c r="A33" s="121" t="s">
         <v>78</v>
       </c>
-      <c r="B33" s="123" t="s">
+      <c r="B33" s="122" t="s">
         <v>86</v>
       </c>
-      <c r="C33" s="123" t="s">
+      <c r="C33" s="122" t="s">
         <v>89</v>
       </c>
-      <c r="D33" s="123">
+      <c r="D33" s="122">
         <v>1</v>
       </c>
-      <c r="E33" s="123">
+      <c r="E33" s="122">
         <v>15</v>
       </c>
-      <c r="F33" s="124">
+      <c r="F33" s="123">
         <v>45354</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A34" s="122" t="s">
+      <c r="A34" s="121" t="s">
         <v>74</v>
       </c>
-      <c r="B34" s="123" t="s">
+      <c r="B34" s="122" t="s">
         <v>86</v>
       </c>
-      <c r="C34" s="123" t="s">
+      <c r="C34" s="122" t="s">
         <v>89</v>
       </c>
-      <c r="D34" s="123">
+      <c r="D34" s="122">
         <v>2</v>
       </c>
-      <c r="E34" s="123">
+      <c r="E34" s="122">
         <v>16</v>
       </c>
-      <c r="F34" s="124">
+      <c r="F34" s="123">
         <v>45355</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A35" s="122" t="s">
+      <c r="A35" s="121" t="s">
         <v>79</v>
       </c>
-      <c r="B35" s="123" t="s">
+      <c r="B35" s="122" t="s">
         <v>86</v>
       </c>
-      <c r="C35" s="123" t="s">
+      <c r="C35" s="122" t="s">
         <v>88</v>
       </c>
-      <c r="D35" s="123">
+      <c r="D35" s="122">
         <v>7</v>
       </c>
-      <c r="E35" s="123">
+      <c r="E35" s="122">
         <v>16</v>
       </c>
-      <c r="F35" s="124">
+      <c r="F35" s="123">
         <v>45356</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A36" s="122" t="s">
+      <c r="A36" s="121" t="s">
         <v>73</v>
       </c>
-      <c r="B36" s="123" t="s">
+      <c r="B36" s="122" t="s">
         <v>86</v>
       </c>
-      <c r="C36" s="123" t="s">
+      <c r="C36" s="122" t="s">
         <v>88</v>
       </c>
-      <c r="D36" s="123">
+      <c r="D36" s="122">
         <v>8</v>
       </c>
-      <c r="E36" s="123">
+      <c r="E36" s="122">
         <v>16</v>
       </c>
-      <c r="F36" s="124">
+      <c r="F36" s="123">
         <v>45357</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A37" s="122" t="s">
+      <c r="A37" s="121" t="s">
         <v>77</v>
       </c>
-      <c r="B37" s="123" t="s">
+      <c r="B37" s="122" t="s">
         <v>86</v>
       </c>
-      <c r="C37" s="123" t="s">
+      <c r="C37" s="122" t="s">
         <v>89</v>
       </c>
-      <c r="D37" s="123">
+      <c r="D37" s="122">
         <v>2</v>
       </c>
-      <c r="E37" s="123">
+      <c r="E37" s="122">
         <v>17</v>
       </c>
-      <c r="F37" s="124">
+      <c r="F37" s="123">
         <v>45358</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A38" s="122" t="s">
+      <c r="A38" s="121" t="s">
         <v>77</v>
       </c>
-      <c r="B38" s="123" t="s">
+      <c r="B38" s="122" t="s">
         <v>86</v>
       </c>
-      <c r="C38" s="123" t="s">
+      <c r="C38" s="122" t="s">
         <v>89</v>
       </c>
-      <c r="D38" s="123">
+      <c r="D38" s="122">
         <v>6</v>
       </c>
-      <c r="E38" s="123">
+      <c r="E38" s="122">
         <v>18</v>
       </c>
-      <c r="F38" s="124">
+      <c r="F38" s="123">
         <v>45359</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A39" s="122" t="s">
+      <c r="A39" s="121" t="s">
         <v>75</v>
       </c>
-      <c r="B39" s="123" t="s">
+      <c r="B39" s="122" t="s">
         <v>86</v>
       </c>
-      <c r="C39" s="123" t="s">
+      <c r="C39" s="122" t="s">
         <v>88</v>
       </c>
-      <c r="D39" s="123">
+      <c r="D39" s="122">
         <v>2</v>
       </c>
-      <c r="E39" s="123">
+      <c r="E39" s="122">
         <v>18</v>
       </c>
-      <c r="F39" s="124">
+      <c r="F39" s="123">
         <v>45360</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A40" s="125" t="s">
+      <c r="A40" s="124" t="s">
         <v>76</v>
       </c>
-      <c r="B40" s="126" t="s">
+      <c r="B40" s="125" t="s">
         <v>86</v>
       </c>
-      <c r="C40" s="126" t="s">
+      <c r="C40" s="125" t="s">
         <v>88</v>
       </c>
-      <c r="D40" s="126">
+      <c r="D40" s="125">
         <v>9</v>
       </c>
-      <c r="E40" s="126">
+      <c r="E40" s="125">
         <v>20</v>
       </c>
-      <c r="F40" s="127">
+      <c r="F40" s="126">
         <v>45361</v>
       </c>
     </row>
@@ -8776,317 +8965,317 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B4" s="145">
+      <c r="B4" s="144">
         <v>45383</v>
       </c>
-      <c r="C4" s="146">
+      <c r="C4" s="145">
         <v>1340</v>
       </c>
-      <c r="D4" s="147">
+      <c r="D4" s="146">
         <v>1340</v>
       </c>
-      <c r="E4" s="148">
+      <c r="E4" s="147">
         <v>1340</v>
       </c>
-      <c r="F4" s="148">
+      <c r="F4" s="147">
         <v>1340</v>
       </c>
-      <c r="G4" s="148">
+      <c r="G4" s="147">
         <v>1340</v>
       </c>
-      <c r="H4" s="148">
+      <c r="H4" s="147">
         <v>1340</v>
       </c>
-      <c r="I4" s="149">
+      <c r="I4" s="148">
         <v>-44.813790300506582</v>
       </c>
-      <c r="J4" s="145">
+      <c r="J4" s="144">
         <v>45326</v>
       </c>
-      <c r="K4" s="151">
+      <c r="K4" s="150">
         <v>0.38541666666666669</v>
       </c>
-      <c r="L4" s="150">
+      <c r="L4" s="149">
         <v>-0.44813790300506584</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B5" s="145">
+      <c r="B5" s="144">
         <v>45386</v>
       </c>
-      <c r="C5" s="146">
+      <c r="C5" s="145">
         <v>4500</v>
       </c>
-      <c r="D5" s="147">
+      <c r="D5" s="146">
         <v>4500</v>
       </c>
-      <c r="E5" s="148">
+      <c r="E5" s="147">
         <v>4500</v>
       </c>
-      <c r="F5" s="148">
+      <c r="F5" s="147">
         <v>4500</v>
       </c>
-      <c r="G5" s="148">
+      <c r="G5" s="147">
         <v>4500</v>
       </c>
-      <c r="H5" s="148">
+      <c r="H5" s="147">
         <v>4500</v>
       </c>
-      <c r="I5" s="149">
+      <c r="I5" s="148">
         <v>-10.850232214210999</v>
       </c>
-      <c r="J5" s="145">
+      <c r="J5" s="144">
         <v>45326</v>
       </c>
-      <c r="K5" s="151">
+      <c r="K5" s="150">
         <v>0.38541666666666669</v>
       </c>
-      <c r="L5" s="150">
+      <c r="L5" s="149">
         <v>-0.10850232214210999</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B6" s="145">
+      <c r="B6" s="144">
         <v>45391</v>
       </c>
-      <c r="C6" s="146">
+      <c r="C6" s="145">
         <v>8200</v>
       </c>
-      <c r="D6" s="147">
+      <c r="D6" s="146">
         <v>8200</v>
       </c>
-      <c r="E6" s="148">
+      <c r="E6" s="147">
         <v>8200</v>
       </c>
-      <c r="F6" s="148">
+      <c r="F6" s="147">
         <v>8200</v>
       </c>
-      <c r="G6" s="148">
+      <c r="G6" s="147">
         <v>8200</v>
       </c>
-      <c r="H6" s="148">
+      <c r="H6" s="147">
         <v>8200</v>
       </c>
-      <c r="I6" s="149">
+      <c r="I6" s="148">
         <v>-13.772233433191696</v>
       </c>
-      <c r="J6" s="145">
+      <c r="J6" s="144">
         <v>45370</v>
       </c>
-      <c r="K6" s="151">
+      <c r="K6" s="150">
         <v>0.70833333333333337</v>
       </c>
-      <c r="L6" s="150">
+      <c r="L6" s="149">
         <v>-0.13772233433191697</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B7" s="145">
+      <c r="B7" s="144">
         <v>45393</v>
       </c>
-      <c r="C7" s="146">
+      <c r="C7" s="145">
         <v>2530</v>
       </c>
-      <c r="D7" s="147">
+      <c r="D7" s="146">
         <v>2530</v>
       </c>
-      <c r="E7" s="148">
+      <c r="E7" s="147">
         <v>2530</v>
       </c>
-      <c r="F7" s="148">
+      <c r="F7" s="147">
         <v>2530</v>
       </c>
-      <c r="G7" s="148">
+      <c r="G7" s="147">
         <v>2530</v>
       </c>
-      <c r="H7" s="148">
+      <c r="H7" s="147">
         <v>2530</v>
       </c>
-      <c r="I7" s="149">
+      <c r="I7" s="148">
         <v>-10.264651962190525</v>
       </c>
-      <c r="J7" s="145">
+      <c r="J7" s="144">
         <v>45355</v>
       </c>
-      <c r="K7" s="151">
+      <c r="K7" s="150">
         <v>0.5</v>
       </c>
-      <c r="L7" s="150">
+      <c r="L7" s="149">
         <v>-0.10264651962190526</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B8" s="145">
+      <c r="B8" s="144">
         <v>45399</v>
       </c>
-      <c r="C8" s="146">
+      <c r="C8" s="145">
         <v>2300</v>
       </c>
-      <c r="D8" s="147">
+      <c r="D8" s="146">
         <v>2300</v>
       </c>
-      <c r="E8" s="148">
+      <c r="E8" s="147">
         <v>2300</v>
       </c>
-      <c r="F8" s="148">
+      <c r="F8" s="147">
         <v>2300</v>
       </c>
-      <c r="G8" s="148">
+      <c r="G8" s="147">
         <v>2300</v>
       </c>
-      <c r="H8" s="148">
+      <c r="H8" s="147">
         <v>2300</v>
       </c>
-      <c r="I8" s="149">
+      <c r="I8" s="148">
         <v>-9.7146032923612324</v>
       </c>
-      <c r="J8" s="145">
+      <c r="J8" s="144">
         <v>45358</v>
       </c>
-      <c r="K8" s="151">
+      <c r="K8" s="150">
         <v>0.5</v>
       </c>
-      <c r="L8" s="150">
+      <c r="L8" s="149">
         <v>-9.7146032923612319E-2</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B9" s="145">
+      <c r="B9" s="144">
         <v>45400</v>
       </c>
-      <c r="C9" s="146">
+      <c r="C9" s="145">
         <v>4210</v>
       </c>
-      <c r="D9" s="147">
+      <c r="D9" s="146">
         <v>4210</v>
       </c>
-      <c r="E9" s="148">
+      <c r="E9" s="147">
         <v>4210</v>
       </c>
-      <c r="F9" s="148">
+      <c r="F9" s="147">
         <v>4210</v>
       </c>
-      <c r="G9" s="148">
+      <c r="G9" s="147">
         <v>4210</v>
       </c>
-      <c r="H9" s="148">
+      <c r="H9" s="147">
         <v>4210</v>
       </c>
-      <c r="I9" s="149">
+      <c r="I9" s="148">
         <v>-11.733451140784947</v>
       </c>
-      <c r="J9" s="145">
+      <c r="J9" s="144">
         <v>45359</v>
       </c>
-      <c r="K9" s="151">
+      <c r="K9" s="150">
         <v>0.38541666666666669</v>
       </c>
-      <c r="L9" s="150">
+      <c r="L9" s="149">
         <v>-0.11733451140784946</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B10" s="145">
+      <c r="B10" s="144">
         <v>45400</v>
       </c>
-      <c r="C10" s="146">
+      <c r="C10" s="145">
         <v>1200</v>
       </c>
-      <c r="D10" s="147">
+      <c r="D10" s="146">
         <v>1200</v>
       </c>
-      <c r="E10" s="148">
+      <c r="E10" s="147">
         <v>1200</v>
       </c>
-      <c r="F10" s="148">
+      <c r="F10" s="147">
         <v>1200</v>
       </c>
-      <c r="G10" s="148">
+      <c r="G10" s="147">
         <v>1200</v>
       </c>
-      <c r="H10" s="148">
+      <c r="H10" s="147">
         <v>1200</v>
       </c>
-      <c r="I10" s="149">
+      <c r="I10" s="148">
         <v>-19</v>
       </c>
-      <c r="J10" s="145">
+      <c r="J10" s="144">
         <v>45359</v>
       </c>
-      <c r="K10" s="151">
+      <c r="K10" s="150">
         <v>0.38541666666666669</v>
       </c>
-      <c r="L10" s="150">
+      <c r="L10" s="149">
         <v>-0.19</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B11" s="145">
+      <c r="B11" s="144">
         <v>45400</v>
       </c>
-      <c r="C11" s="146">
+      <c r="C11" s="145">
         <v>1203</v>
       </c>
-      <c r="D11" s="147">
+      <c r="D11" s="146">
         <v>1203</v>
       </c>
-      <c r="E11" s="148">
+      <c r="E11" s="147">
         <v>1203</v>
       </c>
-      <c r="F11" s="148">
+      <c r="F11" s="147">
         <v>1203</v>
       </c>
-      <c r="G11" s="148">
+      <c r="G11" s="147">
         <v>1203</v>
       </c>
-      <c r="H11" s="148">
+      <c r="H11" s="147">
         <v>1203</v>
       </c>
-      <c r="I11" s="149">
+      <c r="I11" s="148">
         <v>55</v>
       </c>
-      <c r="J11" s="145">
+      <c r="J11" s="144">
         <v>45369</v>
       </c>
-      <c r="K11" s="151">
+      <c r="K11" s="150">
         <v>0.38541666666666669</v>
       </c>
-      <c r="L11" s="150">
+      <c r="L11" s="149">
         <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B12" s="145">
+      <c r="B12" s="144">
         <v>45391</v>
       </c>
-      <c r="C12" s="146">
+      <c r="C12" s="145">
         <v>8200</v>
       </c>
-      <c r="D12" s="147">
+      <c r="D12" s="146">
         <v>8200</v>
       </c>
-      <c r="E12" s="148">
+      <c r="E12" s="147">
         <v>8200</v>
       </c>
-      <c r="F12" s="148">
+      <c r="F12" s="147">
         <v>8200</v>
       </c>
-      <c r="G12" s="148">
+      <c r="G12" s="147">
         <v>8200</v>
       </c>
-      <c r="H12" s="148">
+      <c r="H12" s="147">
         <v>8200</v>
       </c>
-      <c r="I12" s="149">
+      <c r="I12" s="148">
         <v>-13.772233433191696</v>
       </c>
-      <c r="J12" s="145">
+      <c r="J12" s="144">
         <v>45370</v>
       </c>
-      <c r="K12" s="151">
+      <c r="K12" s="150">
         <v>0.70833333333333337</v>
       </c>
-      <c r="L12" s="150">
+      <c r="L12" s="149">
         <v>-0.13772233433191697</v>
       </c>
     </row>
@@ -9129,32 +9318,32 @@
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B3" s="152" t="s">
+      <c r="B3" s="151" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="152"/>
-      <c r="D3" s="152"/>
-      <c r="E3" s="152"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
+      <c r="C3" s="151"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="151"/>
+      <c r="F3" s="151"/>
+      <c r="G3" s="151"/>
     </row>
     <row r="4" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B4" s="152" t="s">
+      <c r="B4" s="151" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="152" t="s">
+      <c r="C4" s="151" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="152" t="s">
+      <c r="D4" s="151" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="152" t="s">
+      <c r="E4" s="151" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="152" t="s">
+      <c r="F4" s="151" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="152" t="s">
+      <c r="G4" s="151" t="s">
         <v>11</v>
       </c>
     </row>
@@ -9162,19 +9351,19 @@
       <c r="B5" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="153">
+      <c r="C5" s="152">
         <v>60.4</v>
       </c>
-      <c r="D5" s="154">
+      <c r="D5" s="153">
         <v>0.20799999999999999</v>
       </c>
-      <c r="E5" s="153">
+      <c r="E5" s="152">
         <v>60.5</v>
       </c>
-      <c r="F5" s="154">
+      <c r="F5" s="153">
         <v>0.22500000000000001</v>
       </c>
-      <c r="G5" s="154">
+      <c r="G5" s="153">
         <v>-7.0000000000000001E-3</v>
       </c>
     </row>
@@ -9182,19 +9371,19 @@
       <c r="B6" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="153">
+      <c r="C6" s="152">
         <v>50.1</v>
       </c>
-      <c r="D6" s="154">
+      <c r="D6" s="153">
         <v>0.17299999999999999</v>
       </c>
-      <c r="E6" s="153">
+      <c r="E6" s="152">
         <v>55.4</v>
       </c>
-      <c r="F6" s="154">
+      <c r="F6" s="153">
         <v>0.20699999999999999</v>
       </c>
-      <c r="G6" s="154">
+      <c r="G6" s="153">
         <v>-9.6000000000000002E-2</v>
       </c>
     </row>
@@ -9202,19 +9391,19 @@
       <c r="B7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="153">
+      <c r="C7" s="152">
         <v>40.799999999999997</v>
       </c>
-      <c r="D7" s="154">
+      <c r="D7" s="153">
         <v>0.14099999999999999</v>
       </c>
-      <c r="E7" s="153">
+      <c r="E7" s="152">
         <v>30.5</v>
       </c>
-      <c r="F7" s="154">
+      <c r="F7" s="153">
         <v>0.114</v>
       </c>
-      <c r="G7" s="154">
+      <c r="G7" s="153">
         <v>0.33800000000000002</v>
       </c>
     </row>
@@ -9222,19 +9411,19 @@
       <c r="B8" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="153">
+      <c r="C8" s="152">
         <v>28.5</v>
       </c>
-      <c r="D8" s="154">
+      <c r="D8" s="153">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="E8" s="153">
+      <c r="E8" s="152">
         <v>15.4</v>
       </c>
-      <c r="F8" s="154">
+      <c r="F8" s="153">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="G8" s="154">
+      <c r="G8" s="153">
         <v>0.84899999999999998</v>
       </c>
     </row>
@@ -9242,19 +9431,19 @@
       <c r="B9" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="153">
+      <c r="C9" s="152">
         <v>25.2</v>
       </c>
-      <c r="D9" s="154">
+      <c r="D9" s="153">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="E9" s="153">
+      <c r="E9" s="152">
         <v>27.6</v>
       </c>
-      <c r="F9" s="154">
+      <c r="F9" s="153">
         <v>0.10299999999999999</v>
       </c>
-      <c r="G9" s="154">
+      <c r="G9" s="153">
         <v>-8.5000000000000006E-2</v>
       </c>
     </row>
@@ -9262,19 +9451,19 @@
       <c r="B10" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="153">
+      <c r="C10" s="152">
         <v>84.7</v>
       </c>
-      <c r="D10" s="154">
+      <c r="D10" s="153">
         <v>0.29299999999999998</v>
       </c>
-      <c r="E10" s="153">
+      <c r="E10" s="152">
         <v>79</v>
       </c>
-      <c r="F10" s="154">
+      <c r="F10" s="153">
         <v>0.29399999999999998</v>
       </c>
-      <c r="G10" s="154">
+      <c r="G10" s="153">
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
@@ -9282,19 +9471,19 @@
       <c r="B11" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="153">
+      <c r="C11" s="152">
         <v>289.39999999999998</v>
       </c>
-      <c r="D11" s="154">
+      <c r="D11" s="153">
         <v>1</v>
       </c>
-      <c r="E11" s="153">
+      <c r="E11" s="152">
         <v>268.5</v>
       </c>
-      <c r="F11" s="154">
+      <c r="F11" s="153">
         <v>1</v>
       </c>
-      <c r="G11" s="154">
+      <c r="G11" s="153">
         <v>7.8E-2</v>
       </c>
     </row>
@@ -9389,16 +9578,16 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="159" t="s">
+      <c r="A8" s="158" t="s">
         <v>112</v>
       </c>
-      <c r="B8" s="159"/>
-      <c r="C8" s="159"/>
-      <c r="D8" s="159"/>
-      <c r="E8" s="159"/>
-      <c r="F8" s="159"/>
-      <c r="G8" s="159"/>
-      <c r="H8" s="159"/>
+      <c r="B8" s="158"/>
+      <c r="C8" s="158"/>
+      <c r="D8" s="158"/>
+      <c r="E8" s="158"/>
+      <c r="F8" s="158"/>
+      <c r="G8" s="158"/>
+      <c r="H8" s="158"/>
     </row>
     <row r="9" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A9" s="53" t="s">
@@ -9552,12 +9741,12 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="160" t="s">
+      <c r="A7" s="159" t="s">
         <v>228</v>
       </c>
-      <c r="B7" s="160"/>
-      <c r="C7" s="160"/>
-      <c r="D7" s="160"/>
+      <c r="B7" s="159"/>
+      <c r="C7" s="159"/>
+      <c r="D7" s="159"/>
     </row>
     <row r="8" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A8" s="55" t="s">
@@ -9690,7 +9879,7 @@
     <row r="4" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
-      <c r="C4" s="93" t="s">
+      <c r="C4" s="92" t="s">
         <v>230</v>
       </c>
       <c r="D4" s="60"/>
@@ -9698,7 +9887,7 @@
     <row r="5" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
-      <c r="C5" s="93" t="s">
+      <c r="C5" s="92" t="s">
         <v>231</v>
       </c>
       <c r="D5" s="60"/>
@@ -10031,12 +10220,12 @@
       <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="161" t="s">
+      <c r="A7" s="160" t="s">
         <v>171</v>
       </c>
-      <c r="B7" s="161"/>
-      <c r="C7" s="161"/>
-      <c r="D7" s="161"/>
+      <c r="B7" s="160"/>
+      <c r="C7" s="160"/>
+      <c r="D7" s="160"/>
     </row>
     <row r="8" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
@@ -10108,7 +10297,7 @@
       <c r="A14" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="B14" s="95">
+      <c r="B14" s="94">
         <v>0.17399999999999999</v>
       </c>
       <c r="C14" s="5"/>

--- a/ASLA_Pre-IGCSE_CS_Term_Test_2.... Part 2 of 2.xlsx
+++ b/ASLA_Pre-IGCSE_CS_Term_Test_2.... Part 2 of 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mykal\Documents\Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{396BE44B-E460-44AA-B71B-B886C34C2A40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69FE65AA-2F58-4DF1-934D-B75F857864CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="797" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5028,7 +5028,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC34B952-030C-4621-A624-31A59D448B56}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5134,9 +5136,18 @@
       <c r="B11" s="79">
         <v>1500</v>
       </c>
-      <c r="C11" s="80"/>
-      <c r="D11" s="74"/>
-      <c r="E11" s="75"/>
+      <c r="C11" s="80">
+        <f>B11*B18</f>
+        <v>33510</v>
+      </c>
+      <c r="D11" s="74">
+        <f>IF(B11 &gt;= $B$19, C11 * $B$20, C11 * $B$21)</f>
+        <v>1340.4</v>
+      </c>
+      <c r="E11" s="75">
+        <f>C11 - D11</f>
+        <v>32169.599999999999</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
@@ -5145,9 +5156,18 @@
       <c r="B12" s="79">
         <v>450</v>
       </c>
-      <c r="C12" s="80"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="75"/>
+      <c r="C12" s="80">
+        <f t="shared" ref="C12:C16" si="0">B12*B19</f>
+        <v>900000</v>
+      </c>
+      <c r="D12" s="74">
+        <f t="shared" ref="D12:D16" si="1">IF(B12 &gt;= $B$19, C12 * $B$20, C12 * $B$21)</f>
+        <v>36000</v>
+      </c>
+      <c r="E12" s="75">
+        <f t="shared" ref="E12:E16" si="2">C12 - D12</f>
+        <v>864000</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
@@ -5156,9 +5176,18 @@
       <c r="B13" s="79">
         <v>900</v>
       </c>
-      <c r="C13" s="80"/>
-      <c r="D13" s="74"/>
-      <c r="E13" s="75"/>
+      <c r="C13" s="80">
+        <f t="shared" si="0"/>
+        <v>126.00000000000001</v>
+      </c>
+      <c r="D13" s="74">
+        <f t="shared" si="1"/>
+        <v>5.0400000000000009</v>
+      </c>
+      <c r="E13" s="75">
+        <f t="shared" si="2"/>
+        <v>120.96000000000001</v>
+      </c>
     </row>
     <row r="14" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
@@ -5167,9 +5196,18 @@
       <c r="B14" s="79">
         <v>1300</v>
       </c>
-      <c r="C14" s="80"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="75"/>
+      <c r="C14" s="80">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="D14" s="74">
+        <f t="shared" si="1"/>
+        <v>2.08</v>
+      </c>
+      <c r="E14" s="75">
+        <f t="shared" si="2"/>
+        <v>49.92</v>
+      </c>
     </row>
     <row r="15" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
@@ -5178,9 +5216,18 @@
       <c r="B15" s="79">
         <v>800</v>
       </c>
-      <c r="C15" s="80"/>
-      <c r="D15" s="74"/>
-      <c r="E15" s="75"/>
+      <c r="C15" s="80">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D15" s="74">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="75">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
@@ -5189,9 +5236,18 @@
       <c r="B16" s="79">
         <v>350</v>
       </c>
-      <c r="C16" s="80"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="75"/>
+      <c r="C16" s="80">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D16" s="74">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="75">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
@@ -5268,7 +5324,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="A1:XFD1048576"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6608,7 +6664,7 @@
         <v>319</v>
       </c>
       <c r="G21" s="141">
-        <f t="shared" ref="G21:G25" si="0">COUNTIF(A4:G19, "A")</f>
+        <f t="shared" ref="G21:G24" si="0">COUNTIF(A4:G19, "A")</f>
         <v>15</v>
       </c>
       <c r="I21" s="93"/>

--- a/ASLA_Pre-IGCSE_CS_Term_Test_2.... Part 2 of 2.xlsx
+++ b/ASLA_Pre-IGCSE_CS_Term_Test_2.... Part 2 of 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mykal\Documents\Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69FE65AA-2F58-4DF1-934D-B75F857864CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC9DBF26-A932-4899-ADE6-B71F7CBC179C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="797" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="797" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="5" r:id="rId1"/>
@@ -2083,7 +2083,7 @@
     <xf numFmtId="172" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="180">
+  <cellXfs count="179">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2254,7 +2254,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="7" applyFont="1"/>
     <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="11" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4367,7 +4366,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F703C4A-5C93-41E3-A7C0-7D3FF078B244}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4429,20 +4430,20 @@
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="70" t="s">
+      <c r="A7" s="69" t="s">
         <v>188</v>
       </c>
-      <c r="B7" s="71" t="s">
+      <c r="B7" s="70" t="s">
         <v>189</v>
       </c>
-      <c r="C7" s="71" t="s">
+      <c r="C7" s="70" t="s">
         <v>245</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="F7" s="76">
+      <c r="F7" s="75">
         <v>30000</v>
       </c>
     </row>
@@ -4450,15 +4451,18 @@
       <c r="A8" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="B8" s="73">
+      <c r="B8" s="72">
         <v>25000</v>
       </c>
-      <c r="C8" s="74"/>
+      <c r="C8" s="73">
+        <f>B8 * IF(B8 &gt;= $F$7, $F$8, $F$9)</f>
+        <v>1000</v>
+      </c>
       <c r="D8" s="5"/>
       <c r="E8" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="F8" s="72">
+      <c r="F8" s="71">
         <v>0.24</v>
       </c>
     </row>
@@ -4466,15 +4470,18 @@
       <c r="A9" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B9" s="73">
+      <c r="B9" s="72">
         <v>19000</v>
       </c>
-      <c r="C9" s="74"/>
+      <c r="C9" s="73">
+        <f t="shared" ref="C9:C15" si="0">B9 * IF(B9 &gt;= $F$7, $F$8, $F$9)</f>
+        <v>760</v>
+      </c>
       <c r="D9" s="5"/>
       <c r="E9" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="F9" s="72">
+      <c r="F9" s="71">
         <v>0.04</v>
       </c>
     </row>
@@ -4482,30 +4489,39 @@
       <c r="A10" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="B10" s="73">
+      <c r="B10" s="72">
         <v>27500</v>
       </c>
-      <c r="C10" s="74"/>
+      <c r="C10" s="73">
+        <f t="shared" si="0"/>
+        <v>1100</v>
+      </c>
       <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="B11" s="73">
+      <c r="B11" s="72">
         <v>14000</v>
       </c>
-      <c r="C11" s="74"/>
+      <c r="C11" s="73">
+        <f t="shared" si="0"/>
+        <v>560</v>
+      </c>
       <c r="D11" s="5"/>
     </row>
     <row r="12" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="B12" s="73">
+      <c r="B12" s="72">
         <v>33300</v>
       </c>
-      <c r="C12" s="74"/>
+      <c r="C12" s="73">
+        <f t="shared" si="0"/>
+        <v>7992</v>
+      </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -4514,10 +4530,13 @@
       <c r="A13" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="B13" s="73">
+      <c r="B13" s="72">
         <v>41800</v>
       </c>
-      <c r="C13" s="74"/>
+      <c r="C13" s="73">
+        <f t="shared" si="0"/>
+        <v>10032</v>
+      </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -4526,10 +4545,13 @@
       <c r="A14" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="B14" s="73">
+      <c r="B14" s="72">
         <v>17300</v>
       </c>
-      <c r="C14" s="74"/>
+      <c r="C14" s="73">
+        <f t="shared" si="0"/>
+        <v>692</v>
+      </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -4538,10 +4560,13 @@
       <c r="A15" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="B15" s="73">
+      <c r="B15" s="72">
         <v>23800</v>
       </c>
-      <c r="C15" s="74"/>
+      <c r="C15" s="73">
+        <f t="shared" si="0"/>
+        <v>952</v>
+      </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -4550,8 +4575,14 @@
       <c r="A16" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="B16" s="75"/>
-      <c r="C16" s="75"/>
+      <c r="B16" s="74">
+        <f>SUM(B8:B15)</f>
+        <v>201700</v>
+      </c>
+      <c r="C16" s="74">
+        <f>SUM(C8:C15)</f>
+        <v>23088</v>
+      </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -4573,7 +4604,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DF90914-49B4-426D-A48A-CC3FD0E5CB0D}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4612,13 +4645,13 @@
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A5" s="161" t="s">
+      <c r="A5" s="160" t="s">
         <v>251</v>
       </c>
-      <c r="B5" s="162"/>
-      <c r="C5" s="162"/>
-      <c r="D5" s="162"/>
-      <c r="E5" s="163"/>
+      <c r="B5" s="161"/>
+      <c r="C5" s="161"/>
+      <c r="D5" s="161"/>
+      <c r="E5" s="162"/>
     </row>
     <row r="6" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
@@ -4650,7 +4683,10 @@
       <c r="D7" s="22">
         <v>214</v>
       </c>
-      <c r="E7" s="77"/>
+      <c r="E7" s="76">
+        <f>D7 / C7</f>
+        <v>2.8918918918918921</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A8" s="22">
@@ -4665,7 +4701,10 @@
       <c r="D8" s="22">
         <v>212</v>
       </c>
-      <c r="E8" s="77"/>
+      <c r="E8" s="76">
+        <f t="shared" ref="E8:E16" si="0">D8 / C8</f>
+        <v>4.1568627450980395</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A9" s="22">
@@ -4680,7 +4719,10 @@
       <c r="D9" s="22">
         <v>213</v>
       </c>
-      <c r="E9" s="77"/>
+      <c r="E9" s="76">
+        <f t="shared" si="0"/>
+        <v>3.6101694915254239</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A10" s="22">
@@ -4695,7 +4737,10 @@
       <c r="D10" s="22">
         <v>214</v>
       </c>
-      <c r="E10" s="77"/>
+      <c r="E10" s="76">
+        <f t="shared" si="0"/>
+        <v>2.7435897435897436</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
@@ -4710,7 +4755,10 @@
       <c r="D11" s="22">
         <v>215</v>
       </c>
-      <c r="E11" s="77"/>
+      <c r="E11" s="76">
+        <f t="shared" si="0"/>
+        <v>2.3369565217391304</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A12" s="22">
@@ -4725,7 +4773,10 @@
       <c r="D12" s="22">
         <v>216</v>
       </c>
-      <c r="E12" s="77"/>
+      <c r="E12" s="76">
+        <f t="shared" si="0"/>
+        <v>3.2238805970149254</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A13" s="22">
@@ -4740,7 +4791,10 @@
       <c r="D13" s="22">
         <v>217</v>
       </c>
-      <c r="E13" s="77"/>
+      <c r="E13" s="76">
+        <f t="shared" si="0"/>
+        <v>2.6790123456790123</v>
+      </c>
     </row>
     <row r="14" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A14" s="22">
@@ -4755,7 +4809,10 @@
       <c r="D14" s="22">
         <v>218</v>
       </c>
-      <c r="E14" s="77"/>
+      <c r="E14" s="76">
+        <f t="shared" si="0"/>
+        <v>2.6265060240963853</v>
+      </c>
     </row>
     <row r="15" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A15" s="22">
@@ -4770,7 +4827,10 @@
       <c r="D15" s="22">
         <v>219</v>
       </c>
-      <c r="E15" s="77"/>
+      <c r="E15" s="76">
+        <f t="shared" si="0"/>
+        <v>3.3692307692307693</v>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A16" s="22">
@@ -4785,7 +4845,10 @@
       <c r="D16" s="22">
         <v>220</v>
       </c>
-      <c r="E16" s="77"/>
+      <c r="E16" s="76">
+        <f t="shared" si="0"/>
+        <v>3.283582089552239</v>
+      </c>
     </row>
     <row r="17" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
@@ -4801,25 +4864,34 @@
       <c r="D18" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="77"/>
+      <c r="E18" s="76">
+        <f>SUM(E7:E16)</f>
+        <v>30.921682219417562</v>
+      </c>
     </row>
     <row r="19" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
-      <c r="D19" s="78" t="s">
+      <c r="D19" s="77" t="s">
         <v>249</v>
       </c>
-      <c r="E19" s="77"/>
+      <c r="E19" s="76">
+        <f>MAX(E7:E16)</f>
+        <v>4.1568627450980395</v>
+      </c>
     </row>
     <row r="20" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
-      <c r="D20" s="78" t="s">
+      <c r="D20" s="77" t="s">
         <v>250</v>
       </c>
-      <c r="E20" s="77"/>
+      <c r="E20" s="76">
+        <f>MIN(E7:E16)</f>
+        <v>2.3369565217391304</v>
+      </c>
     </row>
     <row r="21" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
@@ -4828,7 +4900,10 @@
       <c r="D21" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="E21" s="77"/>
+      <c r="E21" s="76">
+        <f>AVERAGE(E7:E16)</f>
+        <v>3.0921682219417561</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4842,7 +4917,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFFB9827-1608-4B67-83E9-B536AE5FF916}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4883,11 +4960,11 @@
       <c r="D5" s="14"/>
     </row>
     <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="164" t="s">
+      <c r="A6" s="163" t="s">
         <v>104</v>
       </c>
-      <c r="B6" s="164"/>
-      <c r="C6" s="164"/>
+      <c r="B6" s="163"/>
+      <c r="C6" s="163"/>
       <c r="D6" s="14"/>
     </row>
     <row r="7" spans="1:4" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
@@ -4909,7 +4986,10 @@
       <c r="B8" s="48">
         <v>0.5</v>
       </c>
-      <c r="C8" s="44"/>
+      <c r="C8" s="44" t="str">
+        <f>IF(B8 &lt;= $B$16, "Free Parking", B8 * $B$17)</f>
+        <v>Free Parking</v>
+      </c>
       <c r="D8" s="14"/>
     </row>
     <row r="9" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
@@ -4919,7 +4999,10 @@
       <c r="B9" s="48">
         <v>4</v>
       </c>
-      <c r="C9" s="44"/>
+      <c r="C9" s="44">
+        <f t="shared" ref="C9:C14" si="0">IF(B9 &lt;= $B$16, "Free Parking", B9 * $B$17)</f>
+        <v>9.6</v>
+      </c>
       <c r="D9" s="14"/>
     </row>
     <row r="10" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
@@ -4929,7 +5012,10 @@
       <c r="B10" s="48">
         <v>1.5</v>
       </c>
-      <c r="C10" s="44"/>
+      <c r="C10" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>Free Parking</v>
+      </c>
       <c r="D10" s="14"/>
     </row>
     <row r="11" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
@@ -4939,7 +5025,10 @@
       <c r="B11" s="48">
         <v>2</v>
       </c>
-      <c r="C11" s="44"/>
+      <c r="C11" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>Free Parking</v>
+      </c>
       <c r="D11" s="14"/>
     </row>
     <row r="12" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
@@ -4949,7 +5038,10 @@
       <c r="B12" s="48">
         <v>5.5</v>
       </c>
-      <c r="C12" s="44"/>
+      <c r="C12" s="44">
+        <f t="shared" si="0"/>
+        <v>13.2</v>
+      </c>
       <c r="D12" s="14"/>
     </row>
     <row r="13" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
@@ -4959,7 +5051,10 @@
       <c r="B13" s="48">
         <v>3</v>
       </c>
-      <c r="C13" s="44"/>
+      <c r="C13" s="44">
+        <f t="shared" si="0"/>
+        <v>7.1999999999999993</v>
+      </c>
       <c r="D13" s="14"/>
     </row>
     <row r="14" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
@@ -4969,7 +5064,10 @@
       <c r="B14" s="48">
         <v>0.5</v>
       </c>
-      <c r="C14" s="44"/>
+      <c r="C14" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>Free Parking</v>
+      </c>
       <c r="D14" s="14"/>
     </row>
     <row r="15" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
@@ -4982,7 +5080,7 @@
       <c r="A16" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="B16" s="95">
+      <c r="B16" s="94">
         <v>2</v>
       </c>
       <c r="C16" s="14"/>
@@ -4992,7 +5090,7 @@
       <c r="A17" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="B17" s="96">
+      <c r="B17" s="95">
         <v>2.4</v>
       </c>
       <c r="C17" s="14"/>
@@ -5028,8 +5126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC34B952-030C-4621-A624-31A59D448B56}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5133,18 +5231,18 @@
       <c r="A11" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="B11" s="79">
+      <c r="B11" s="78">
         <v>1500</v>
       </c>
-      <c r="C11" s="80">
+      <c r="C11" s="79">
         <f>B11*B18</f>
         <v>33510</v>
       </c>
-      <c r="D11" s="74">
+      <c r="D11" s="73">
         <f>IF(B11 &gt;= $B$19, C11 * $B$20, C11 * $B$21)</f>
         <v>1340.4</v>
       </c>
-      <c r="E11" s="75">
+      <c r="E11" s="74">
         <f>C11 - D11</f>
         <v>32169.599999999999</v>
       </c>
@@ -5153,18 +5251,18 @@
       <c r="A12" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="B12" s="79">
+      <c r="B12" s="78">
         <v>450</v>
       </c>
-      <c r="C12" s="80">
+      <c r="C12" s="79">
         <f t="shared" ref="C12:C16" si="0">B12*B19</f>
         <v>900000</v>
       </c>
-      <c r="D12" s="74">
+      <c r="D12" s="73">
         <f t="shared" ref="D12:D16" si="1">IF(B12 &gt;= $B$19, C12 * $B$20, C12 * $B$21)</f>
         <v>36000</v>
       </c>
-      <c r="E12" s="75">
+      <c r="E12" s="74">
         <f t="shared" ref="E12:E16" si="2">C12 - D12</f>
         <v>864000</v>
       </c>
@@ -5173,18 +5271,18 @@
       <c r="A13" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="B13" s="79">
+      <c r="B13" s="78">
         <v>900</v>
       </c>
-      <c r="C13" s="80">
+      <c r="C13" s="79">
         <f t="shared" si="0"/>
         <v>126.00000000000001</v>
       </c>
-      <c r="D13" s="74">
+      <c r="D13" s="73">
         <f t="shared" si="1"/>
         <v>5.0400000000000009</v>
       </c>
-      <c r="E13" s="75">
+      <c r="E13" s="74">
         <f t="shared" si="2"/>
         <v>120.96000000000001</v>
       </c>
@@ -5193,18 +5291,18 @@
       <c r="A14" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="B14" s="79">
+      <c r="B14" s="78">
         <v>1300</v>
       </c>
-      <c r="C14" s="80">
+      <c r="C14" s="79">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="D14" s="74">
+      <c r="D14" s="73">
         <f t="shared" si="1"/>
         <v>2.08</v>
       </c>
-      <c r="E14" s="75">
+      <c r="E14" s="74">
         <f t="shared" si="2"/>
         <v>49.92</v>
       </c>
@@ -5213,18 +5311,18 @@
       <c r="A15" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="B15" s="79">
+      <c r="B15" s="78">
         <v>800</v>
       </c>
-      <c r="C15" s="80">
+      <c r="C15" s="79">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D15" s="74">
+      <c r="D15" s="73">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E15" s="75">
+      <c r="E15" s="74">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5233,18 +5331,18 @@
       <c r="A16" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="B16" s="79">
+      <c r="B16" s="78">
         <v>350</v>
       </c>
-      <c r="C16" s="80">
+      <c r="C16" s="79">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D16" s="74">
+      <c r="D16" s="73">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E16" s="75">
+      <c r="E16" s="74">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5260,7 +5358,7 @@
       <c r="A18" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="76">
+      <c r="B18" s="75">
         <v>22.34</v>
       </c>
       <c r="C18" s="5"/>
@@ -5340,10 +5438,10 @@
         <v>264</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="93" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="92" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="37"/>
     </row>
-    <row r="3" spans="1:7" s="93" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="92" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="37" t="s">
         <v>261</v>
       </c>
@@ -5352,34 +5450,34 @@
       <c r="A4" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
     </row>
     <row r="5" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
     </row>
     <row r="6" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="B6" s="89"/>
-      <c r="C6" s="89"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
     </row>
     <row r="7" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
@@ -5391,275 +5489,275 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="165" t="s">
+      <c r="A8" s="164" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="165"/>
-      <c r="C8" s="165"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="165" t="s">
+      <c r="B8" s="164"/>
+      <c r="C8" s="164"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="164" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="166"/>
-      <c r="G8" s="166"/>
+      <c r="F8" s="165"/>
+      <c r="G8" s="165"/>
     </row>
     <row r="9" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="91" t="s">
+      <c r="A9" s="90" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="91" t="s">
+      <c r="B9" s="90" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="91" t="s">
+      <c r="C9" s="90" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="90"/>
-      <c r="E9" s="91" t="s">
+      <c r="D9" s="89"/>
+      <c r="E9" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="91" t="s">
+      <c r="F9" s="90" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="91" t="s">
+      <c r="G9" s="90" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="81" t="s">
+      <c r="A10" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="82">
+      <c r="B10" s="81">
         <v>16</v>
       </c>
-      <c r="C10" s="87">
+      <c r="C10" s="86">
         <v>24</v>
       </c>
-      <c r="D10" s="88"/>
+      <c r="D10" s="87"/>
       <c r="E10">
         <f>B10*C10*$B$23</f>
         <v>360.96</v>
       </c>
-      <c r="F10" s="84">
+      <c r="F10" s="83">
         <f>B10*C10*$B$24</f>
         <v>560.64</v>
       </c>
-      <c r="G10" s="85">
+      <c r="G10" s="84">
         <f>B10*C10*$B$25</f>
         <v>14108.16</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="81" t="s">
+      <c r="A11" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="82">
+      <c r="B11" s="81">
         <v>15</v>
       </c>
-      <c r="C11" s="87">
+      <c r="C11" s="86">
         <v>12</v>
       </c>
-      <c r="D11" s="88"/>
+      <c r="D11" s="87"/>
       <c r="E11">
         <f t="shared" ref="E11:E19" si="0">B11*C11*$B$23</f>
         <v>169.2</v>
       </c>
-      <c r="F11" s="84">
+      <c r="F11" s="83">
         <f t="shared" ref="F11:F19" si="1">B11*C11*$B$24</f>
         <v>262.8</v>
       </c>
-      <c r="G11" s="85">
+      <c r="G11" s="84">
         <f t="shared" ref="G11:G19" si="2">B11*C11*$B$25</f>
         <v>6613.2000000000007</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="81" t="s">
+      <c r="A12" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="82">
+      <c r="B12" s="81">
         <v>13</v>
       </c>
-      <c r="C12" s="87">
+      <c r="C12" s="86">
         <v>12</v>
       </c>
-      <c r="D12" s="88"/>
+      <c r="D12" s="87"/>
       <c r="E12">
         <f t="shared" si="0"/>
         <v>146.63999999999999</v>
       </c>
-      <c r="F12" s="84">
+      <c r="F12" s="83">
         <f t="shared" si="1"/>
         <v>227.76</v>
       </c>
-      <c r="G12" s="85">
+      <c r="G12" s="84">
         <f t="shared" si="2"/>
         <v>5731.4400000000005</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="81" t="s">
+      <c r="A13" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="82">
+      <c r="B13" s="81">
         <v>6</v>
       </c>
-      <c r="C13" s="87">
+      <c r="C13" s="86">
         <v>26</v>
       </c>
-      <c r="D13" s="88"/>
+      <c r="D13" s="87"/>
       <c r="E13">
         <f t="shared" si="0"/>
         <v>146.63999999999999</v>
       </c>
-      <c r="F13" s="84">
+      <c r="F13" s="83">
         <f t="shared" si="1"/>
         <v>227.76</v>
       </c>
-      <c r="G13" s="85">
+      <c r="G13" s="84">
         <f t="shared" si="2"/>
         <v>5731.4400000000005</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="81" t="s">
+      <c r="A14" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="82">
+      <c r="B14" s="81">
         <v>8</v>
       </c>
-      <c r="C14" s="87">
+      <c r="C14" s="86">
         <v>28</v>
       </c>
-      <c r="D14" s="88"/>
+      <c r="D14" s="87"/>
       <c r="E14">
         <f t="shared" si="0"/>
         <v>210.56</v>
       </c>
-      <c r="F14" s="84">
+      <c r="F14" s="83">
         <f t="shared" si="1"/>
         <v>327.03999999999996</v>
       </c>
-      <c r="G14" s="85">
+      <c r="G14" s="84">
         <f t="shared" si="2"/>
         <v>8229.76</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="81" t="s">
+      <c r="A15" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="82">
+      <c r="B15" s="81">
         <v>15</v>
       </c>
-      <c r="C15" s="87">
+      <c r="C15" s="86">
         <v>11</v>
       </c>
-      <c r="D15" s="88"/>
+      <c r="D15" s="87"/>
       <c r="E15">
         <f t="shared" si="0"/>
         <v>155.1</v>
       </c>
-      <c r="F15" s="84">
+      <c r="F15" s="83">
         <f t="shared" si="1"/>
         <v>240.9</v>
       </c>
-      <c r="G15" s="85">
+      <c r="G15" s="84">
         <f t="shared" si="2"/>
         <v>6062.1</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="81" t="s">
+      <c r="A16" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="82">
+      <c r="B16" s="81">
         <v>2</v>
       </c>
-      <c r="C16" s="87">
+      <c r="C16" s="86">
         <v>29</v>
       </c>
-      <c r="D16" s="88"/>
+      <c r="D16" s="87"/>
       <c r="E16">
         <f t="shared" si="0"/>
         <v>54.519999999999996</v>
       </c>
-      <c r="F16" s="84">
+      <c r="F16" s="83">
         <f t="shared" si="1"/>
         <v>84.679999999999993</v>
       </c>
-      <c r="G16" s="85">
+      <c r="G16" s="84">
         <f t="shared" si="2"/>
         <v>2130.92</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="81" t="s">
+      <c r="A17" s="80" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="82">
+      <c r="B17" s="81">
         <v>6</v>
       </c>
-      <c r="C17" s="87">
+      <c r="C17" s="86">
         <v>13</v>
       </c>
-      <c r="D17" s="88"/>
+      <c r="D17" s="87"/>
       <c r="E17">
         <f t="shared" si="0"/>
         <v>73.319999999999993</v>
       </c>
-      <c r="F17" s="84">
+      <c r="F17" s="83">
         <f t="shared" si="1"/>
         <v>113.88</v>
       </c>
-      <c r="G17" s="85">
+      <c r="G17" s="84">
         <f t="shared" si="2"/>
         <v>2865.7200000000003</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="81" t="s">
+      <c r="A18" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="82">
+      <c r="B18" s="81">
         <v>7</v>
       </c>
-      <c r="C18" s="87">
+      <c r="C18" s="86">
         <v>11</v>
       </c>
-      <c r="D18" s="88"/>
+      <c r="D18" s="87"/>
       <c r="E18">
         <f t="shared" si="0"/>
         <v>72.38</v>
       </c>
-      <c r="F18" s="84">
+      <c r="F18" s="83">
         <f t="shared" si="1"/>
         <v>112.42</v>
       </c>
-      <c r="G18" s="85">
+      <c r="G18" s="84">
         <f t="shared" si="2"/>
         <v>2828.98</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="81" t="s">
+      <c r="A19" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="82">
+      <c r="B19" s="81">
         <v>20</v>
       </c>
-      <c r="C19" s="87">
+      <c r="C19" s="86">
         <v>26</v>
       </c>
-      <c r="D19" s="88"/>
+      <c r="D19" s="87"/>
       <c r="E19">
         <f t="shared" si="0"/>
         <v>488.79999999999995</v>
       </c>
-      <c r="F19" s="84">
+      <c r="F19" s="83">
         <f t="shared" si="1"/>
         <v>759.19999999999993</v>
       </c>
-      <c r="G19" s="85">
+      <c r="G19" s="84">
         <f t="shared" si="2"/>
         <v>19104.8</v>
       </c>
@@ -5674,7 +5772,7 @@
       <c r="G20" s="5"/>
     </row>
     <row r="21" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="83" t="s">
+      <c r="A21" s="82" t="s">
         <v>55</v>
       </c>
       <c r="B21" s="6"/>
@@ -5685,10 +5783,10 @@
       <c r="G21" s="5"/>
     </row>
     <row r="22" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A22" s="81" t="s">
+      <c r="A22" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="97">
+      <c r="B22" s="96">
         <v>1</v>
       </c>
       <c r="C22" s="5"/>
@@ -5698,10 +5796,10 @@
       <c r="G22" s="5"/>
     </row>
     <row r="23" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="81" t="s">
+      <c r="A23" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="98">
+      <c r="B23" s="97">
         <v>0.94</v>
       </c>
       <c r="C23" s="5"/>
@@ -5711,10 +5809,10 @@
       <c r="G23" s="5"/>
     </row>
     <row r="24" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A24" s="81" t="s">
+      <c r="A24" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="99">
+      <c r="B24" s="98">
         <v>1.46</v>
       </c>
       <c r="C24" s="5"/>
@@ -5724,10 +5822,10 @@
       <c r="G24" s="5"/>
     </row>
     <row r="25" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="81" t="s">
+      <c r="A25" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="100">
+      <c r="B25" s="99">
         <v>36.74</v>
       </c>
       <c r="C25" s="5"/>
@@ -5832,159 +5930,159 @@
       <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A10" s="104" t="s">
+      <c r="A10" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="104" t="s">
+      <c r="B10" s="103" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="104" t="s">
+      <c r="C10" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="104" t="s">
+      <c r="D10" s="103" t="s">
         <v>200</v>
       </c>
-      <c r="E10" s="104" t="s">
+      <c r="E10" s="103" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="104" t="s">
+      <c r="F10" s="103" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A11" s="101" t="s">
+      <c r="A11" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="102">
+      <c r="B11" s="101">
         <v>5</v>
       </c>
-      <c r="C11" s="102">
+      <c r="C11" s="101">
         <v>3</v>
       </c>
-      <c r="D11" s="103">
+      <c r="D11" s="102">
         <f>(B11*$B$18) + (C11*$B$19)</f>
         <v>92.2</v>
       </c>
-      <c r="E11" s="103">
+      <c r="E11" s="102">
         <f>D11*$B$20</f>
         <v>12.908000000000001</v>
       </c>
-      <c r="F11" s="103">
+      <c r="F11" s="102">
         <f>D11-E11+$B$21</f>
         <v>83.292000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A12" s="101" t="s">
+      <c r="A12" s="100" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="102">
+      <c r="B12" s="101">
         <v>3</v>
       </c>
-      <c r="C12" s="102">
+      <c r="C12" s="101">
         <v>2</v>
       </c>
-      <c r="D12" s="103">
+      <c r="D12" s="102">
         <f t="shared" ref="D12:D16" si="0">(B12*$B$18) + (C12*$B$19)</f>
         <v>56.8</v>
       </c>
-      <c r="E12" s="103">
+      <c r="E12" s="102">
         <f t="shared" ref="E12:E16" si="1">D12*$B$20</f>
         <v>7.952</v>
       </c>
-      <c r="F12" s="103">
+      <c r="F12" s="102">
         <f t="shared" ref="F12:F16" si="2">D12-E12+$B$21</f>
         <v>52.847999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A13" s="101" t="s">
+      <c r="A13" s="100" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="102">
+      <c r="B13" s="101">
         <v>6</v>
       </c>
-      <c r="C13" s="102">
+      <c r="C13" s="101">
         <v>5</v>
       </c>
-      <c r="D13" s="103">
+      <c r="D13" s="102">
         <f t="shared" si="0"/>
         <v>121</v>
       </c>
-      <c r="E13" s="103">
+      <c r="E13" s="102">
         <f t="shared" si="1"/>
         <v>16.940000000000001</v>
       </c>
-      <c r="F13" s="103">
+      <c r="F13" s="102">
         <f t="shared" si="2"/>
         <v>108.06</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A14" s="101" t="s">
+      <c r="A14" s="100" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="102">
+      <c r="B14" s="101">
         <v>7</v>
       </c>
-      <c r="C14" s="102">
+      <c r="C14" s="101">
         <v>3</v>
       </c>
-      <c r="D14" s="103">
+      <c r="D14" s="102">
         <f t="shared" si="0"/>
         <v>120.2</v>
       </c>
-      <c r="E14" s="103">
+      <c r="E14" s="102">
         <f t="shared" si="1"/>
         <v>16.828000000000003</v>
       </c>
-      <c r="F14" s="103">
+      <c r="F14" s="102">
         <f t="shared" si="2"/>
         <v>107.372</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A15" s="101" t="s">
+      <c r="A15" s="100" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="102">
+      <c r="B15" s="101">
         <v>9</v>
       </c>
-      <c r="C15" s="102">
+      <c r="C15" s="101">
         <v>4</v>
       </c>
-      <c r="D15" s="103">
+      <c r="D15" s="102">
         <f t="shared" si="0"/>
         <v>155.6</v>
       </c>
-      <c r="E15" s="103">
+      <c r="E15" s="102">
         <f t="shared" si="1"/>
         <v>21.784000000000002</v>
       </c>
-      <c r="F15" s="103">
+      <c r="F15" s="102">
         <f t="shared" si="2"/>
         <v>137.816</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A16" s="101" t="s">
+      <c r="A16" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="102">
+      <c r="B16" s="101">
         <v>6</v>
       </c>
-      <c r="C16" s="102">
+      <c r="C16" s="101">
         <v>5</v>
       </c>
-      <c r="D16" s="103">
+      <c r="D16" s="102">
         <f t="shared" si="0"/>
         <v>121</v>
       </c>
-      <c r="E16" s="103">
+      <c r="E16" s="102">
         <f t="shared" si="1"/>
         <v>16.940000000000001</v>
       </c>
-      <c r="F16" s="103">
+      <c r="F16" s="102">
         <f t="shared" si="2"/>
         <v>108.06</v>
       </c>
@@ -6000,7 +6098,7 @@
       <c r="A18" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="B18" s="105">
+      <c r="B18" s="104">
         <v>14</v>
       </c>
       <c r="C18" s="5"/>
@@ -6011,7 +6109,7 @@
       <c r="A19" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="B19" s="105">
+      <c r="B19" s="104">
         <v>7.4</v>
       </c>
       <c r="C19" s="5"/>
@@ -6022,7 +6120,7 @@
       <c r="A20" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="B20" s="106">
+      <c r="B20" s="105">
         <v>0.14000000000000001</v>
       </c>
       <c r="C20" s="5"/>
@@ -6030,10 +6128,10 @@
       <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="101" t="s">
+      <c r="A21" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="105">
+      <c r="B21" s="104">
         <v>4</v>
       </c>
       <c r="C21" s="5"/>
@@ -6090,117 +6188,117 @@
     </row>
     <row r="7" spans="1:10" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7"/>
-      <c r="B7" s="111"/>
-      <c r="C7" s="111"/>
-      <c r="D7" s="170" t="s">
+      <c r="B7" s="110"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="169" t="s">
         <v>277</v>
       </c>
-      <c r="E7" s="171"/>
-      <c r="F7" s="171"/>
-      <c r="G7" s="171"/>
-      <c r="H7" s="172"/>
-      <c r="I7" s="111"/>
-      <c r="J7" s="111"/>
+      <c r="E7" s="170"/>
+      <c r="F7" s="170"/>
+      <c r="G7" s="170"/>
+      <c r="H7" s="171"/>
+      <c r="I7" s="110"/>
+      <c r="J7" s="110"/>
     </row>
     <row r="8" spans="1:10" ht="42.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="111"/>
-      <c r="C8" s="109"/>
-      <c r="D8" s="107">
+      <c r="B8" s="110"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="106">
         <v>4</v>
       </c>
-      <c r="E8" s="107">
+      <c r="E8" s="106">
         <v>5</v>
       </c>
-      <c r="F8" s="107">
+      <c r="F8" s="106">
         <v>6</v>
       </c>
-      <c r="G8" s="107">
+      <c r="G8" s="106">
         <v>7</v>
       </c>
-      <c r="H8" s="107">
+      <c r="H8" s="106">
         <v>8</v>
       </c>
-      <c r="I8" s="110"/>
-      <c r="J8" s="111"/>
+      <c r="I8" s="109"/>
+      <c r="J8" s="110"/>
     </row>
     <row r="9" spans="1:10" ht="42.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="167" t="s">
+      <c r="B9" s="166" t="s">
         <v>276</v>
       </c>
-      <c r="C9" s="107">
+      <c r="C9" s="106">
         <v>1</v>
       </c>
-      <c r="D9" s="108"/>
-      <c r="E9" s="108"/>
-      <c r="F9" s="108"/>
-      <c r="G9" s="108"/>
-      <c r="H9" s="108"/>
-      <c r="I9" s="107">
+      <c r="D9" s="107"/>
+      <c r="E9" s="107"/>
+      <c r="F9" s="107"/>
+      <c r="G9" s="107"/>
+      <c r="H9" s="107"/>
+      <c r="I9" s="106">
         <v>1</v>
       </c>
-      <c r="J9" s="173" t="s">
+      <c r="J9" s="172" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="42.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="168"/>
-      <c r="C10" s="107">
+      <c r="B10" s="167"/>
+      <c r="C10" s="106">
         <v>2</v>
       </c>
-      <c r="D10" s="108"/>
-      <c r="E10" s="108"/>
-      <c r="F10" s="108"/>
-      <c r="G10" s="108"/>
-      <c r="H10" s="108"/>
-      <c r="I10" s="107">
+      <c r="D10" s="107"/>
+      <c r="E10" s="107"/>
+      <c r="F10" s="107"/>
+      <c r="G10" s="107"/>
+      <c r="H10" s="107"/>
+      <c r="I10" s="106">
         <v>2</v>
       </c>
-      <c r="J10" s="174"/>
+      <c r="J10" s="173"/>
     </row>
     <row r="11" spans="1:10" ht="42.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="168"/>
-      <c r="C11" s="107">
+      <c r="B11" s="167"/>
+      <c r="C11" s="106">
         <v>3</v>
       </c>
-      <c r="D11" s="108"/>
-      <c r="E11" s="108"/>
-      <c r="F11" s="108"/>
-      <c r="G11" s="108"/>
-      <c r="H11" s="108"/>
-      <c r="I11" s="107">
+      <c r="D11" s="107"/>
+      <c r="E11" s="107"/>
+      <c r="F11" s="107"/>
+      <c r="G11" s="107"/>
+      <c r="H11" s="107"/>
+      <c r="I11" s="106">
         <v>3</v>
       </c>
-      <c r="J11" s="174"/>
+      <c r="J11" s="173"/>
     </row>
     <row r="12" spans="1:10" ht="42.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="168"/>
-      <c r="C12" s="107">
+      <c r="B12" s="167"/>
+      <c r="C12" s="106">
         <v>4</v>
       </c>
-      <c r="D12" s="108"/>
-      <c r="E12" s="108"/>
-      <c r="F12" s="108"/>
-      <c r="G12" s="108"/>
-      <c r="H12" s="108"/>
-      <c r="I12" s="107">
+      <c r="D12" s="107"/>
+      <c r="E12" s="107"/>
+      <c r="F12" s="107"/>
+      <c r="G12" s="107"/>
+      <c r="H12" s="107"/>
+      <c r="I12" s="106">
         <v>4</v>
       </c>
-      <c r="J12" s="174"/>
+      <c r="J12" s="173"/>
     </row>
     <row r="13" spans="1:10" ht="42.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="169"/>
-      <c r="C13" s="107">
+      <c r="B13" s="168"/>
+      <c r="C13" s="106">
         <v>5</v>
       </c>
-      <c r="D13" s="108"/>
-      <c r="E13" s="108"/>
-      <c r="F13" s="108"/>
-      <c r="G13" s="108"/>
-      <c r="H13" s="108"/>
-      <c r="I13" s="107">
+      <c r="D13" s="107"/>
+      <c r="E13" s="107"/>
+      <c r="F13" s="107"/>
+      <c r="G13" s="107"/>
+      <c r="H13" s="107"/>
+      <c r="I13" s="106">
         <v>5</v>
       </c>
-      <c r="J13" s="175"/>
+      <c r="J13" s="174"/>
     </row>
     <row r="14" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
@@ -6234,7 +6332,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="93"/>
+      <c r="A2" s="92"/>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
@@ -6245,480 +6343,480 @@
       <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="142" t="s">
+      <c r="A3" s="141" t="s">
         <v>313</v>
       </c>
-      <c r="B3" s="142" t="s">
+      <c r="B3" s="141" t="s">
         <v>316</v>
       </c>
-      <c r="C3" s="142" t="s">
+      <c r="C3" s="141" t="s">
         <v>312</v>
       </c>
-      <c r="D3" s="142" t="s">
+      <c r="D3" s="141" t="s">
         <v>315</v>
       </c>
-      <c r="E3" s="142" t="s">
+      <c r="E3" s="141" t="s">
         <v>315</v>
       </c>
-      <c r="F3" s="142" t="s">
+      <c r="F3" s="141" t="s">
         <v>313</v>
       </c>
-      <c r="G3" s="142" t="s">
+      <c r="G3" s="141" t="s">
         <v>312</v>
       </c>
       <c r="H3" s="13"/>
     </row>
     <row r="4" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="142" t="s">
+      <c r="A4" s="141" t="s">
         <v>312</v>
       </c>
-      <c r="B4" s="142" t="s">
+      <c r="B4" s="141" t="s">
         <v>314</v>
       </c>
-      <c r="C4" s="142" t="s">
+      <c r="C4" s="141" t="s">
         <v>315</v>
       </c>
-      <c r="D4" s="142" t="s">
+      <c r="D4" s="141" t="s">
         <v>315</v>
       </c>
-      <c r="E4" s="142" t="s">
+      <c r="E4" s="141" t="s">
         <v>314</v>
       </c>
-      <c r="F4" s="142" t="s">
+      <c r="F4" s="141" t="s">
         <v>312</v>
       </c>
-      <c r="G4" s="142" t="s">
+      <c r="G4" s="141" t="s">
         <v>314</v>
       </c>
       <c r="H4" s="13"/>
     </row>
     <row r="5" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="142" t="s">
+      <c r="A5" s="141" t="s">
         <v>316</v>
       </c>
-      <c r="B5" s="142" t="s">
+      <c r="B5" s="141" t="s">
         <v>313</v>
       </c>
-      <c r="C5" s="142" t="s">
+      <c r="C5" s="141" t="s">
         <v>315</v>
       </c>
-      <c r="D5" s="142" t="s">
+      <c r="D5" s="141" t="s">
         <v>312</v>
       </c>
-      <c r="E5" s="142" t="s">
+      <c r="E5" s="141" t="s">
         <v>312</v>
       </c>
-      <c r="F5" s="142" t="s">
+      <c r="F5" s="141" t="s">
         <v>313</v>
       </c>
-      <c r="G5" s="142" t="s">
+      <c r="G5" s="141" t="s">
         <v>313</v>
       </c>
       <c r="H5" s="13"/>
     </row>
     <row r="6" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="142" t="s">
+      <c r="A6" s="141" t="s">
         <v>315</v>
       </c>
-      <c r="B6" s="142" t="s">
+      <c r="B6" s="141" t="s">
         <v>316</v>
       </c>
-      <c r="C6" s="142" t="s">
+      <c r="C6" s="141" t="s">
         <v>314</v>
       </c>
-      <c r="D6" s="142" t="s">
+      <c r="D6" s="141" t="s">
         <v>316</v>
       </c>
-      <c r="E6" s="142" t="s">
+      <c r="E6" s="141" t="s">
         <v>314</v>
       </c>
-      <c r="F6" s="142" t="s">
+      <c r="F6" s="141" t="s">
         <v>312</v>
       </c>
-      <c r="G6" s="142" t="s">
+      <c r="G6" s="141" t="s">
         <v>314</v>
       </c>
       <c r="H6" s="13"/>
     </row>
     <row r="7" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="142" t="s">
+      <c r="A7" s="141" t="s">
         <v>312</v>
       </c>
-      <c r="B7" s="142" t="s">
+      <c r="B7" s="141" t="s">
         <v>315</v>
       </c>
-      <c r="C7" s="142" t="s">
+      <c r="C7" s="141" t="s">
         <v>314</v>
       </c>
-      <c r="D7" s="142" t="s">
+      <c r="D7" s="141" t="s">
         <v>313</v>
       </c>
-      <c r="E7" s="142" t="s">
+      <c r="E7" s="141" t="s">
         <v>313</v>
       </c>
-      <c r="F7" s="142" t="s">
+      <c r="F7" s="141" t="s">
         <v>316</v>
       </c>
-      <c r="G7" s="142" t="s">
+      <c r="G7" s="141" t="s">
         <v>314</v>
       </c>
       <c r="H7" s="13"/>
     </row>
     <row r="8" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="142" t="s">
+      <c r="A8" s="141" t="s">
         <v>314</v>
       </c>
-      <c r="B8" s="142" t="s">
+      <c r="B8" s="141" t="s">
         <v>314</v>
       </c>
-      <c r="C8" s="142" t="s">
+      <c r="C8" s="141" t="s">
         <v>312</v>
       </c>
-      <c r="D8" s="142" t="s">
+      <c r="D8" s="141" t="s">
         <v>316</v>
       </c>
-      <c r="E8" s="142" t="s">
+      <c r="E8" s="141" t="s">
         <v>314</v>
       </c>
-      <c r="F8" s="142" t="s">
+      <c r="F8" s="141" t="s">
         <v>314</v>
       </c>
-      <c r="G8" s="142" t="s">
+      <c r="G8" s="141" t="s">
         <v>316</v>
       </c>
       <c r="H8" s="13"/>
     </row>
     <row r="9" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="142" t="s">
+      <c r="A9" s="141" t="s">
         <v>316</v>
       </c>
-      <c r="B9" s="142" t="s">
+      <c r="B9" s="141" t="s">
         <v>315</v>
       </c>
-      <c r="C9" s="142" t="s">
+      <c r="C9" s="141" t="s">
         <v>313</v>
       </c>
-      <c r="D9" s="142" t="s">
+      <c r="D9" s="141" t="s">
         <v>312</v>
       </c>
-      <c r="E9" s="142" t="s">
+      <c r="E9" s="141" t="s">
         <v>313</v>
       </c>
-      <c r="F9" s="142" t="s">
+      <c r="F9" s="141" t="s">
         <v>313</v>
       </c>
-      <c r="G9" s="142" t="s">
+      <c r="G9" s="141" t="s">
         <v>314</v>
       </c>
       <c r="H9" s="13"/>
     </row>
     <row r="10" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="142" t="s">
+      <c r="A10" s="141" t="s">
         <v>312</v>
       </c>
-      <c r="B10" s="142" t="s">
+      <c r="B10" s="141" t="s">
         <v>316</v>
       </c>
-      <c r="C10" s="142" t="s">
+      <c r="C10" s="141" t="s">
         <v>316</v>
       </c>
-      <c r="D10" s="142" t="s">
+      <c r="D10" s="141" t="s">
         <v>312</v>
       </c>
-      <c r="E10" s="142" t="s">
+      <c r="E10" s="141" t="s">
         <v>312</v>
       </c>
-      <c r="F10" s="142" t="s">
+      <c r="F10" s="141" t="s">
         <v>316</v>
       </c>
-      <c r="G10" s="142" t="s">
+      <c r="G10" s="141" t="s">
         <v>315</v>
       </c>
       <c r="H10" s="13"/>
     </row>
     <row r="11" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="142" t="s">
+      <c r="A11" s="141" t="s">
         <v>312</v>
       </c>
-      <c r="B11" s="142" t="s">
+      <c r="B11" s="141" t="s">
         <v>312</v>
       </c>
-      <c r="C11" s="142" t="s">
+      <c r="C11" s="141" t="s">
         <v>316</v>
       </c>
-      <c r="D11" s="142" t="s">
+      <c r="D11" s="141" t="s">
         <v>315</v>
       </c>
-      <c r="E11" s="142" t="s">
+      <c r="E11" s="141" t="s">
         <v>314</v>
       </c>
-      <c r="F11" s="142" t="s">
+      <c r="F11" s="141" t="s">
         <v>314</v>
       </c>
-      <c r="G11" s="142" t="s">
+      <c r="G11" s="141" t="s">
         <v>314</v>
       </c>
       <c r="H11" s="13"/>
     </row>
     <row r="12" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="142" t="s">
+      <c r="A12" s="141" t="s">
         <v>313</v>
       </c>
-      <c r="B12" s="142" t="s">
+      <c r="B12" s="141" t="s">
         <v>314</v>
       </c>
-      <c r="C12" s="142" t="s">
+      <c r="C12" s="141" t="s">
         <v>316</v>
       </c>
-      <c r="D12" s="142" t="s">
+      <c r="D12" s="141" t="s">
         <v>312</v>
       </c>
-      <c r="E12" s="142" t="s">
+      <c r="E12" s="141" t="s">
         <v>316</v>
       </c>
-      <c r="F12" s="142" t="s">
+      <c r="F12" s="141" t="s">
         <v>314</v>
       </c>
-      <c r="G12" s="142" t="s">
+      <c r="G12" s="141" t="s">
         <v>315</v>
       </c>
       <c r="H12" s="13"/>
     </row>
     <row r="13" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="142" t="s">
+      <c r="A13" s="141" t="s">
         <v>316</v>
       </c>
-      <c r="B13" s="142" t="s">
+      <c r="B13" s="141" t="s">
         <v>316</v>
       </c>
-      <c r="C13" s="142" t="s">
+      <c r="C13" s="141" t="s">
         <v>315</v>
       </c>
-      <c r="D13" s="142" t="s">
+      <c r="D13" s="141" t="s">
         <v>315</v>
       </c>
-      <c r="E13" s="142" t="s">
+      <c r="E13" s="141" t="s">
         <v>313</v>
       </c>
-      <c r="F13" s="142" t="s">
+      <c r="F13" s="141" t="s">
         <v>314</v>
       </c>
-      <c r="G13" s="142" t="s">
+      <c r="G13" s="141" t="s">
         <v>316</v>
       </c>
       <c r="H13" s="13"/>
     </row>
     <row r="14" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="142" t="s">
+      <c r="A14" s="141" t="s">
         <v>315</v>
       </c>
-      <c r="B14" s="142" t="s">
+      <c r="B14" s="141" t="s">
         <v>313</v>
       </c>
-      <c r="C14" s="142" t="s">
+      <c r="C14" s="141" t="s">
         <v>316</v>
       </c>
-      <c r="D14" s="142" t="s">
+      <c r="D14" s="141" t="s">
         <v>315</v>
       </c>
-      <c r="E14" s="142" t="s">
+      <c r="E14" s="141" t="s">
         <v>316</v>
       </c>
-      <c r="F14" s="142" t="s">
+      <c r="F14" s="141" t="s">
         <v>315</v>
       </c>
-      <c r="G14" s="142" t="s">
+      <c r="G14" s="141" t="s">
         <v>315</v>
       </c>
       <c r="H14" s="13"/>
     </row>
     <row r="15" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="142" t="s">
+      <c r="A15" s="141" t="s">
         <v>316</v>
       </c>
-      <c r="B15" s="142" t="s">
+      <c r="B15" s="141" t="s">
         <v>315</v>
       </c>
-      <c r="C15" s="142" t="s">
+      <c r="C15" s="141" t="s">
         <v>315</v>
       </c>
-      <c r="D15" s="142" t="s">
+      <c r="D15" s="141" t="s">
         <v>314</v>
       </c>
-      <c r="E15" s="142" t="s">
+      <c r="E15" s="141" t="s">
         <v>312</v>
       </c>
-      <c r="F15" s="142" t="s">
+      <c r="F15" s="141" t="s">
         <v>316</v>
       </c>
-      <c r="G15" s="142" t="s">
+      <c r="G15" s="141" t="s">
         <v>315</v>
       </c>
       <c r="H15" s="13"/>
     </row>
     <row r="16" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="142" t="s">
+      <c r="A16" s="141" t="s">
         <v>315</v>
       </c>
-      <c r="B16" s="142" t="s">
+      <c r="B16" s="141" t="s">
         <v>313</v>
       </c>
-      <c r="C16" s="142" t="s">
+      <c r="C16" s="141" t="s">
         <v>313</v>
       </c>
-      <c r="D16" s="142" t="s">
+      <c r="D16" s="141" t="s">
         <v>316</v>
       </c>
-      <c r="E16" s="142" t="s">
+      <c r="E16" s="141" t="s">
         <v>314</v>
       </c>
-      <c r="F16" s="142" t="s">
+      <c r="F16" s="141" t="s">
         <v>315</v>
       </c>
-      <c r="G16" s="142" t="s">
+      <c r="G16" s="141" t="s">
         <v>314</v>
       </c>
       <c r="H16" s="14"/>
     </row>
     <row r="17" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="142" t="s">
+      <c r="A17" s="141" t="s">
         <v>316</v>
       </c>
-      <c r="B17" s="142" t="s">
+      <c r="B17" s="141" t="s">
         <v>315</v>
       </c>
-      <c r="C17" s="142" t="s">
+      <c r="C17" s="141" t="s">
         <v>313</v>
       </c>
-      <c r="D17" s="142" t="s">
+      <c r="D17" s="141" t="s">
         <v>314</v>
       </c>
-      <c r="E17" s="142" t="s">
+      <c r="E17" s="141" t="s">
         <v>316</v>
       </c>
-      <c r="F17" s="142" t="s">
+      <c r="F17" s="141" t="s">
         <v>316</v>
       </c>
-      <c r="G17" s="142" t="s">
+      <c r="G17" s="141" t="s">
         <v>316</v>
       </c>
       <c r="H17" s="14"/>
     </row>
     <row r="18" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="142" t="s">
+      <c r="A18" s="141" t="s">
         <v>316</v>
       </c>
-      <c r="B18" s="142" t="s">
+      <c r="B18" s="141" t="s">
         <v>313</v>
       </c>
-      <c r="C18" s="142" t="s">
+      <c r="C18" s="141" t="s">
         <v>314</v>
       </c>
-      <c r="D18" s="142" t="s">
+      <c r="D18" s="141" t="s">
         <v>316</v>
       </c>
-      <c r="E18" s="142" t="s">
+      <c r="E18" s="141" t="s">
         <v>314</v>
       </c>
-      <c r="F18" s="142" t="s">
+      <c r="F18" s="141" t="s">
         <v>316</v>
       </c>
-      <c r="G18" s="142" t="s">
+      <c r="G18" s="141" t="s">
         <v>315</v>
       </c>
       <c r="H18" s="14"/>
     </row>
     <row r="19" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A19" s="93"/>
-      <c r="B19" s="93"/>
-      <c r="C19" s="93"/>
-      <c r="D19" s="93"/>
-      <c r="E19" s="93"/>
-      <c r="F19" s="93"/>
-      <c r="G19" s="93"/>
-      <c r="H19" s="93"/>
-      <c r="I19" s="93"/>
+      <c r="A19" s="92"/>
+      <c r="B19" s="92"/>
+      <c r="C19" s="92"/>
+      <c r="D19" s="92"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="92"/>
+      <c r="G19" s="92"/>
+      <c r="H19" s="92"/>
+      <c r="I19" s="92"/>
     </row>
     <row r="20" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A20" s="93"/>
-      <c r="B20" s="93"/>
-      <c r="C20" s="93"/>
-      <c r="D20" s="93"/>
-      <c r="E20" s="93"/>
-      <c r="F20" s="140" t="s">
+      <c r="A20" s="92"/>
+      <c r="B20" s="92"/>
+      <c r="C20" s="92"/>
+      <c r="D20" s="92"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="139" t="s">
         <v>318</v>
       </c>
-      <c r="G20" s="141">
+      <c r="G20" s="140">
         <f>COUNTIF(A3:G18, "A")</f>
         <v>17</v>
       </c>
-      <c r="I20" s="93"/>
+      <c r="I20" s="92"/>
     </row>
     <row r="21" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A21" s="93"/>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="140" t="s">
+      <c r="A21" s="92"/>
+      <c r="B21" s="92"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="139" t="s">
         <v>319</v>
       </c>
-      <c r="G21" s="141">
+      <c r="G21" s="140">
         <f t="shared" ref="G21:G24" si="0">COUNTIF(A4:G19, "A")</f>
         <v>15</v>
       </c>
-      <c r="I21" s="93"/>
+      <c r="I21" s="92"/>
     </row>
     <row r="22" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A22" s="93"/>
-      <c r="B22" s="93"/>
-      <c r="C22" s="93"/>
-      <c r="D22" s="93"/>
-      <c r="E22" s="93"/>
-      <c r="F22" s="140" t="s">
+      <c r="A22" s="92"/>
+      <c r="B22" s="92"/>
+      <c r="C22" s="92"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="139" t="s">
         <v>320</v>
       </c>
-      <c r="G22" s="141">
+      <c r="G22" s="140">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="I22" s="93"/>
+      <c r="I22" s="92"/>
     </row>
     <row r="23" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A23" s="93"/>
-      <c r="B23" s="93"/>
-      <c r="C23" s="93"/>
-      <c r="D23" s="93"/>
-      <c r="E23" s="93"/>
-      <c r="F23" s="140" t="s">
+      <c r="A23" s="92"/>
+      <c r="B23" s="92"/>
+      <c r="C23" s="92"/>
+      <c r="D23" s="92"/>
+      <c r="E23" s="92"/>
+      <c r="F23" s="139" t="s">
         <v>321</v>
       </c>
-      <c r="G23" s="141">
+      <c r="G23" s="140">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="I23" s="93"/>
+      <c r="I23" s="92"/>
     </row>
     <row r="24" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A24" s="93"/>
-      <c r="B24" s="93"/>
-      <c r="C24" s="93"/>
-      <c r="D24" s="93"/>
-      <c r="E24" s="93"/>
-      <c r="F24" s="140" t="s">
+      <c r="A24" s="92"/>
+      <c r="B24" s="92"/>
+      <c r="C24" s="92"/>
+      <c r="D24" s="92"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="139" t="s">
         <v>322</v>
       </c>
-      <c r="G24" s="141">
+      <c r="G24" s="140">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I24" s="93"/>
+      <c r="I24" s="92"/>
     </row>
     <row r="25" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="F25" s="140" t="s">
+      <c r="F25" s="139" t="s">
         <v>323</v>
       </c>
-      <c r="G25" s="141">
+      <c r="G25" s="140">
         <f>ROWS(A3:G18) * COLUMNS(A3:G18)</f>
         <v>112</v>
       </c>
@@ -6811,20 +6909,20 @@
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="177" t="s">
+      <c r="A6" s="176" t="s">
         <v>310</v>
       </c>
-      <c r="B6" s="177"/>
-      <c r="C6" s="177"/>
-      <c r="D6" s="139"/>
-      <c r="E6" s="176" t="s">
+      <c r="B6" s="176"/>
+      <c r="C6" s="176"/>
+      <c r="D6" s="138"/>
+      <c r="E6" s="175" t="s">
         <v>311</v>
       </c>
-      <c r="F6" s="176"/>
-      <c r="G6" s="176"/>
-      <c r="H6" s="176"/>
-      <c r="I6" s="176"/>
-      <c r="J6" s="176"/>
+      <c r="F6" s="175"/>
+      <c r="G6" s="175"/>
+      <c r="H6" s="175"/>
+      <c r="I6" s="175"/>
+      <c r="J6" s="175"/>
     </row>
     <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
@@ -6837,245 +6935,245 @@
         <v>287</v>
       </c>
       <c r="D7" s="14"/>
-      <c r="E7" s="136" t="s">
+      <c r="E7" s="135" t="s">
         <v>283</v>
       </c>
-      <c r="F7" s="137" t="s">
+      <c r="F7" s="136" t="s">
         <v>284</v>
       </c>
-      <c r="G7" s="138" t="s">
+      <c r="G7" s="137" t="s">
         <v>285</v>
       </c>
-      <c r="H7" s="138" t="s">
+      <c r="H7" s="137" t="s">
         <v>286</v>
       </c>
-      <c r="I7" s="138" t="s">
+      <c r="I7" s="137" t="s">
         <v>287</v>
       </c>
-      <c r="J7" s="137" t="s">
+      <c r="J7" s="136" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="132">
+      <c r="A8" s="131">
         <v>45636</v>
       </c>
-      <c r="B8" s="114" t="s">
+      <c r="B8" s="113" t="s">
         <v>289</v>
       </c>
-      <c r="C8" s="154">
+      <c r="C8" s="153">
         <f>VLOOKUP(B8, $E$8:$J$19, 5, FALSE)</f>
         <v>52637</v>
       </c>
       <c r="D8" s="14"/>
-      <c r="E8" s="114" t="s">
+      <c r="E8" s="113" t="s">
         <v>289</v>
       </c>
-      <c r="F8" s="133" t="s">
+      <c r="F8" s="132" t="s">
         <v>290</v>
       </c>
-      <c r="G8" s="135">
+      <c r="G8" s="134">
         <v>25.99</v>
       </c>
-      <c r="H8" s="134">
+      <c r="H8" s="133">
         <v>45334</v>
       </c>
-      <c r="I8" s="134">
+      <c r="I8" s="133">
         <v>52637</v>
       </c>
-      <c r="J8" s="133">
+      <c r="J8" s="132">
         <f>I8-$E$1</f>
         <v>52637</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="132">
+      <c r="A9" s="131">
         <v>45637</v>
       </c>
-      <c r="B9" s="114" t="s">
+      <c r="B9" s="113" t="s">
         <v>294</v>
       </c>
-      <c r="C9" s="154">
+      <c r="C9" s="153">
         <f t="shared" ref="C9:C14" si="0">VLOOKUP(B9, $E$8:$J$19, 5, FALSE)</f>
         <v>50348</v>
       </c>
       <c r="D9" s="14"/>
-      <c r="E9" s="114" t="s">
+      <c r="E9" s="113" t="s">
         <v>306</v>
       </c>
-      <c r="F9" s="133" t="s">
+      <c r="F9" s="132" t="s">
         <v>291</v>
       </c>
-      <c r="G9" s="135">
+      <c r="G9" s="134">
         <v>12.99</v>
       </c>
-      <c r="H9" s="134">
+      <c r="H9" s="133">
         <v>44427</v>
       </c>
-      <c r="I9" s="134">
+      <c r="I9" s="133">
         <v>51730</v>
       </c>
-      <c r="J9" s="133">
+      <c r="J9" s="132">
         <f t="shared" ref="J9:J19" si="1">I9-$E$1</f>
         <v>51730</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="132">
+      <c r="A10" s="131">
         <v>45638</v>
       </c>
-      <c r="B10" s="114" t="s">
+      <c r="B10" s="113" t="s">
         <v>296</v>
       </c>
-      <c r="C10" s="154">
+      <c r="C10" s="153">
         <f t="shared" si="0"/>
         <v>53177</v>
       </c>
       <c r="D10" s="14"/>
-      <c r="E10" s="114" t="s">
+      <c r="E10" s="113" t="s">
         <v>292</v>
       </c>
-      <c r="F10" s="133" t="s">
+      <c r="F10" s="132" t="s">
         <v>293</v>
       </c>
-      <c r="G10" s="135">
+      <c r="G10" s="134">
         <v>14</v>
       </c>
-      <c r="H10" s="134">
+      <c r="H10" s="133">
         <v>43930</v>
       </c>
-      <c r="I10" s="134">
+      <c r="I10" s="133">
         <v>51233</v>
       </c>
-      <c r="J10" s="133">
+      <c r="J10" s="132">
         <f t="shared" si="1"/>
         <v>51233</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="132">
+      <c r="A11" s="131">
         <v>45639</v>
       </c>
-      <c r="B11" s="114" t="s">
+      <c r="B11" s="113" t="s">
         <v>297</v>
       </c>
-      <c r="C11" s="154">
+      <c r="C11" s="153">
         <f t="shared" si="0"/>
         <v>52319</v>
       </c>
       <c r="D11" s="14"/>
-      <c r="E11" s="114" t="s">
+      <c r="E11" s="113" t="s">
         <v>294</v>
       </c>
-      <c r="F11" s="133" t="s">
+      <c r="F11" s="132" t="s">
         <v>295</v>
       </c>
-      <c r="G11" s="135">
+      <c r="G11" s="134">
         <v>18.989999999999998</v>
       </c>
-      <c r="H11" s="134">
+      <c r="H11" s="133">
         <v>43045</v>
       </c>
-      <c r="I11" s="134">
+      <c r="I11" s="133">
         <v>50348</v>
       </c>
-      <c r="J11" s="133">
+      <c r="J11" s="132">
         <f t="shared" si="1"/>
         <v>50348</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="132">
+      <c r="A12" s="131">
         <v>45640</v>
       </c>
-      <c r="B12" s="114" t="s">
+      <c r="B12" s="113" t="s">
         <v>299</v>
       </c>
-      <c r="C12" s="154">
+      <c r="C12" s="153">
         <f t="shared" si="0"/>
         <v>53186</v>
       </c>
       <c r="D12" s="14"/>
-      <c r="E12" s="114" t="s">
+      <c r="E12" s="113" t="s">
         <v>296</v>
       </c>
-      <c r="F12" s="133" t="s">
+      <c r="F12" s="132" t="s">
         <v>290</v>
       </c>
-      <c r="G12" s="135">
+      <c r="G12" s="134">
         <v>11.99</v>
       </c>
-      <c r="H12" s="134">
+      <c r="H12" s="133">
         <v>45874</v>
       </c>
-      <c r="I12" s="134">
+      <c r="I12" s="133">
         <v>53177</v>
       </c>
-      <c r="J12" s="133">
+      <c r="J12" s="132">
         <f t="shared" si="1"/>
         <v>53177</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="132">
+      <c r="A13" s="131">
         <v>45641</v>
       </c>
-      <c r="B13" s="114" t="s">
+      <c r="B13" s="113" t="s">
         <v>303</v>
       </c>
-      <c r="C13" s="154">
+      <c r="C13" s="153">
         <f t="shared" si="0"/>
         <v>49861</v>
       </c>
       <c r="D13" s="14"/>
-      <c r="E13" s="114" t="s">
+      <c r="E13" s="113" t="s">
         <v>297</v>
       </c>
-      <c r="F13" s="133" t="s">
+      <c r="F13" s="132" t="s">
         <v>298</v>
       </c>
-      <c r="G13" s="135">
+      <c r="G13" s="134">
         <v>35</v>
       </c>
-      <c r="H13" s="134">
+      <c r="H13" s="133">
         <v>45016</v>
       </c>
-      <c r="I13" s="134">
+      <c r="I13" s="133">
         <v>52319</v>
       </c>
-      <c r="J13" s="133">
+      <c r="J13" s="132">
         <f t="shared" si="1"/>
         <v>52319</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="132">
+      <c r="A14" s="131">
         <v>45642</v>
       </c>
-      <c r="B14" s="114" t="s">
+      <c r="B14" s="113" t="s">
         <v>304</v>
       </c>
-      <c r="C14" s="154">
+      <c r="C14" s="153">
         <f t="shared" si="0"/>
         <v>52379</v>
       </c>
       <c r="D14" s="14"/>
-      <c r="E14" s="114" t="s">
+      <c r="E14" s="113" t="s">
         <v>307</v>
       </c>
-      <c r="F14" s="133" t="s">
+      <c r="F14" s="132" t="s">
         <v>293</v>
       </c>
-      <c r="G14" s="135">
+      <c r="G14" s="134">
         <v>17</v>
       </c>
-      <c r="H14" s="134">
+      <c r="H14" s="133">
         <v>43642</v>
       </c>
-      <c r="I14" s="134">
+      <c r="I14" s="133">
         <v>50945</v>
       </c>
-      <c r="J14" s="133">
+      <c r="J14" s="132">
         <f t="shared" si="1"/>
         <v>50945</v>
       </c>
@@ -7085,22 +7183,22 @@
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="14"/>
-      <c r="E15" s="114" t="s">
+      <c r="E15" s="113" t="s">
         <v>299</v>
       </c>
-      <c r="F15" s="133" t="s">
+      <c r="F15" s="132" t="s">
         <v>293</v>
       </c>
-      <c r="G15" s="135">
+      <c r="G15" s="134">
         <v>9.99</v>
       </c>
-      <c r="H15" s="134">
+      <c r="H15" s="133">
         <v>44787</v>
       </c>
-      <c r="I15" s="134">
+      <c r="I15" s="133">
         <v>53186</v>
       </c>
-      <c r="J15" s="133">
+      <c r="J15" s="132">
         <f t="shared" si="1"/>
         <v>53186</v>
       </c>
@@ -7110,22 +7208,22 @@
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="14"/>
-      <c r="E16" s="114" t="s">
+      <c r="E16" s="113" t="s">
         <v>300</v>
       </c>
-      <c r="F16" s="133" t="s">
+      <c r="F16" s="132" t="s">
         <v>301</v>
       </c>
-      <c r="G16" s="135">
+      <c r="G16" s="134">
         <v>12.5</v>
       </c>
-      <c r="H16" s="134">
+      <c r="H16" s="133">
         <v>44863</v>
       </c>
-      <c r="I16" s="134">
+      <c r="I16" s="133">
         <v>52166</v>
       </c>
-      <c r="J16" s="133">
+      <c r="J16" s="132">
         <f t="shared" si="1"/>
         <v>52166</v>
       </c>
@@ -7135,22 +7233,22 @@
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="14"/>
-      <c r="E17" s="114" t="s">
+      <c r="E17" s="113" t="s">
         <v>302</v>
       </c>
-      <c r="F17" s="133" t="s">
+      <c r="F17" s="132" t="s">
         <v>295</v>
       </c>
-      <c r="G17" s="135">
+      <c r="G17" s="134">
         <v>17.5</v>
       </c>
-      <c r="H17" s="134">
+      <c r="H17" s="133">
         <v>44929</v>
       </c>
-      <c r="I17" s="134">
+      <c r="I17" s="133">
         <v>53328</v>
       </c>
-      <c r="J17" s="133">
+      <c r="J17" s="132">
         <f t="shared" si="1"/>
         <v>53328</v>
       </c>
@@ -7160,22 +7258,22 @@
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="14"/>
-      <c r="E18" s="114" t="s">
+      <c r="E18" s="113" t="s">
         <v>303</v>
       </c>
-      <c r="F18" s="133" t="s">
+      <c r="F18" s="132" t="s">
         <v>301</v>
       </c>
-      <c r="G18" s="135">
+      <c r="G18" s="134">
         <v>13.5</v>
       </c>
-      <c r="H18" s="134">
+      <c r="H18" s="133">
         <v>42558</v>
       </c>
-      <c r="I18" s="134">
+      <c r="I18" s="133">
         <v>49861</v>
       </c>
-      <c r="J18" s="133">
+      <c r="J18" s="132">
         <f t="shared" si="1"/>
         <v>49861</v>
       </c>
@@ -7185,22 +7283,22 @@
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="14"/>
-      <c r="E19" s="114" t="s">
+      <c r="E19" s="113" t="s">
         <v>304</v>
       </c>
-      <c r="F19" s="133" t="s">
+      <c r="F19" s="132" t="s">
         <v>305</v>
       </c>
-      <c r="G19" s="135">
+      <c r="G19" s="134">
         <v>24.5</v>
       </c>
-      <c r="H19" s="134">
+      <c r="H19" s="133">
         <v>45076</v>
       </c>
-      <c r="I19" s="134">
+      <c r="I19" s="133">
         <v>52379</v>
       </c>
-      <c r="J19" s="133">
+      <c r="J19" s="132">
         <f t="shared" si="1"/>
         <v>52379</v>
       </c>
@@ -7295,48 +7393,48 @@
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="179" t="s">
+      <c r="A6" s="178" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="179"/>
-      <c r="C6" s="179"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
       <c r="D6" s="14"/>
-      <c r="E6" s="178" t="s">
+      <c r="E6" s="177" t="s">
         <v>281</v>
       </c>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
+      <c r="F6" s="177"/>
+      <c r="G6" s="177"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:9" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="115" t="s">
+      <c r="A7" s="114" t="s">
         <v>92</v>
       </c>
-      <c r="B7" s="115" t="s">
+      <c r="B7" s="114" t="s">
         <v>98</v>
       </c>
-      <c r="C7" s="115" t="s">
+      <c r="C7" s="114" t="s">
         <v>59</v>
       </c>
       <c r="D7" s="14"/>
-      <c r="E7" s="116" t="s">
+      <c r="E7" s="115" t="s">
         <v>56</v>
       </c>
-      <c r="F7" s="116" t="s">
+      <c r="F7" s="115" t="s">
         <v>57</v>
       </c>
-      <c r="G7" s="116" t="s">
+      <c r="G7" s="115" t="s">
         <v>59</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:9" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="117">
+      <c r="A8" s="116">
         <v>25000</v>
       </c>
-      <c r="B8" s="117" t="s">
+      <c r="B8" s="116" t="s">
         <v>93</v>
       </c>
       <c r="C8" s="12" t="s">
@@ -7346,18 +7444,18 @@
       <c r="E8" s="12">
         <v>990678</v>
       </c>
-      <c r="F8" s="112">
+      <c r="F8" s="111">
         <v>84289</v>
       </c>
-      <c r="G8" s="113"/>
+      <c r="G8" s="112"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
     </row>
     <row r="9" spans="1:9" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="117">
+      <c r="A9" s="116">
         <v>50000</v>
       </c>
-      <c r="B9" s="117" t="s">
+      <c r="B9" s="116" t="s">
         <v>94</v>
       </c>
       <c r="C9" s="12" t="s">
@@ -7367,18 +7465,18 @@
       <c r="E9" s="12">
         <v>830385</v>
       </c>
-      <c r="F9" s="112">
+      <c r="F9" s="111">
         <v>190024</v>
       </c>
-      <c r="G9" s="113"/>
+      <c r="G9" s="112"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
     </row>
     <row r="10" spans="1:9" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="117">
+      <c r="A10" s="116">
         <v>75000</v>
       </c>
-      <c r="B10" s="117" t="s">
+      <c r="B10" s="116" t="s">
         <v>95</v>
       </c>
       <c r="C10" s="12" t="s">
@@ -7388,18 +7486,18 @@
       <c r="E10" s="12">
         <v>795574</v>
       </c>
-      <c r="F10" s="112">
+      <c r="F10" s="111">
         <v>64757</v>
       </c>
-      <c r="G10" s="113"/>
+      <c r="G10" s="112"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
     </row>
     <row r="11" spans="1:9" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="117">
+      <c r="A11" s="116">
         <v>100000</v>
       </c>
-      <c r="B11" s="117" t="s">
+      <c r="B11" s="116" t="s">
         <v>96</v>
       </c>
       <c r="C11" s="12" t="s">
@@ -7409,18 +7507,18 @@
       <c r="E11" s="12">
         <v>580622</v>
       </c>
-      <c r="F11" s="112">
+      <c r="F11" s="111">
         <v>71478</v>
       </c>
-      <c r="G11" s="113"/>
+      <c r="G11" s="112"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:9" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="117">
+      <c r="A12" s="116">
         <v>150000</v>
       </c>
-      <c r="B12" s="117" t="s">
+      <c r="B12" s="116" t="s">
         <v>97</v>
       </c>
       <c r="C12" s="12" t="s">
@@ -7430,10 +7528,10 @@
       <c r="E12" s="12">
         <v>549457</v>
       </c>
-      <c r="F12" s="112">
+      <c r="F12" s="111">
         <v>111709</v>
       </c>
-      <c r="G12" s="113"/>
+      <c r="G12" s="112"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
     </row>
@@ -7445,10 +7543,10 @@
       <c r="E13" s="12">
         <v>392128</v>
       </c>
-      <c r="F13" s="112">
+      <c r="F13" s="111">
         <v>85931</v>
       </c>
-      <c r="G13" s="113"/>
+      <c r="G13" s="112"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
     </row>
@@ -7460,10 +7558,10 @@
       <c r="E14" s="12">
         <v>391006</v>
       </c>
-      <c r="F14" s="112">
+      <c r="F14" s="111">
         <v>168114</v>
       </c>
-      <c r="G14" s="113"/>
+      <c r="G14" s="112"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
     </row>
@@ -7475,10 +7573,10 @@
       <c r="E15" s="12">
         <v>352711</v>
       </c>
-      <c r="F15" s="112">
+      <c r="F15" s="111">
         <v>89627</v>
       </c>
-      <c r="G15" s="113"/>
+      <c r="G15" s="112"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
     </row>
@@ -7490,10 +7588,10 @@
       <c r="E16" s="12">
         <v>253072</v>
       </c>
-      <c r="F16" s="112">
+      <c r="F16" s="111">
         <v>149946</v>
       </c>
-      <c r="G16" s="113"/>
+      <c r="G16" s="112"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
     </row>
@@ -7505,10 +7603,10 @@
       <c r="E17" s="12">
         <v>612235</v>
       </c>
-      <c r="F17" s="112">
+      <c r="F17" s="111">
         <v>145893</v>
       </c>
-      <c r="G17" s="113"/>
+      <c r="G17" s="112"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
     </row>
@@ -7520,10 +7618,10 @@
       <c r="E18" s="12">
         <v>611810</v>
       </c>
-      <c r="F18" s="112">
+      <c r="F18" s="111">
         <v>122604</v>
       </c>
-      <c r="G18" s="113"/>
+      <c r="G18" s="112"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
     </row>
@@ -7535,10 +7633,10 @@
       <c r="E19" s="12">
         <v>602693</v>
       </c>
-      <c r="F19" s="112">
+      <c r="F19" s="111">
         <v>137670</v>
       </c>
-      <c r="G19" s="113"/>
+      <c r="G19" s="112"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
     </row>
@@ -7550,10 +7648,10 @@
       <c r="E20" s="12">
         <v>110608</v>
       </c>
-      <c r="F20" s="112">
+      <c r="F20" s="111">
         <v>131505</v>
       </c>
-      <c r="G20" s="113"/>
+      <c r="G20" s="112"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
     </row>
@@ -7641,190 +7739,190 @@
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="66"/>
-      <c r="B3" s="155" t="s">
+      <c r="B3" s="154" t="s">
         <v>212</v>
       </c>
-      <c r="C3" s="156"/>
-      <c r="D3" s="156"/>
-      <c r="E3" s="157"/>
+      <c r="C3" s="155"/>
+      <c r="D3" s="155"/>
+      <c r="E3" s="156"/>
     </row>
     <row r="4" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="66"/>
-      <c r="B4" s="143">
+      <c r="B4" s="142">
         <v>45292</v>
       </c>
-      <c r="C4" s="143">
+      <c r="C4" s="142">
         <v>45415</v>
       </c>
-      <c r="D4" s="143">
+      <c r="D4" s="142">
         <v>45383</v>
       </c>
-      <c r="E4" s="143">
+      <c r="E4" s="142">
         <v>45295</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="66"/>
-      <c r="B5" s="143">
+      <c r="B5" s="142">
         <v>45383</v>
       </c>
-      <c r="C5" s="143">
+      <c r="C5" s="142">
         <v>45439</v>
       </c>
-      <c r="D5" s="143">
+      <c r="D5" s="142">
         <v>45748</v>
       </c>
-      <c r="E5" s="143">
+      <c r="E5" s="142">
         <v>45322</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="66"/>
-      <c r="B6" s="143">
+      <c r="B6" s="142">
         <v>45474</v>
       </c>
-      <c r="C6" s="143">
+      <c r="C6" s="142">
         <v>45463</v>
       </c>
-      <c r="D6" s="143">
+      <c r="D6" s="142">
         <v>46113</v>
       </c>
-      <c r="E6" s="143">
+      <c r="E6" s="142">
         <v>45352</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="66"/>
-      <c r="B7" s="143">
+      <c r="B7" s="142">
         <v>45566</v>
       </c>
-      <c r="C7" s="143">
+      <c r="C7" s="142">
         <v>45487</v>
       </c>
-      <c r="D7" s="143">
+      <c r="D7" s="142">
         <v>46478</v>
       </c>
-      <c r="E7" s="143">
+      <c r="E7" s="142">
         <v>45382</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="66"/>
-      <c r="B8" s="143">
+      <c r="B8" s="142">
         <v>45658</v>
       </c>
-      <c r="C8" s="143">
+      <c r="C8" s="142">
         <v>45511</v>
       </c>
-      <c r="D8" s="143">
+      <c r="D8" s="142">
         <v>46844</v>
       </c>
-      <c r="E8" s="143">
+      <c r="E8" s="142">
         <v>45412</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="66"/>
-      <c r="B9" s="143">
+      <c r="B9" s="142">
         <v>45748</v>
       </c>
-      <c r="C9" s="143">
+      <c r="C9" s="142">
         <v>45535</v>
       </c>
-      <c r="D9" s="143">
+      <c r="D9" s="142">
         <v>47209</v>
       </c>
-      <c r="E9" s="143">
+      <c r="E9" s="142">
         <v>45442</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="66"/>
-      <c r="B10" s="143">
+      <c r="B10" s="142">
         <v>45839</v>
       </c>
-      <c r="C10" s="143">
+      <c r="C10" s="142">
         <v>45559</v>
       </c>
-      <c r="D10" s="143">
+      <c r="D10" s="142">
         <v>47574</v>
       </c>
-      <c r="E10" s="143">
+      <c r="E10" s="142">
         <v>45472</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="66"/>
-      <c r="B11" s="143">
+      <c r="B11" s="142">
         <v>45931</v>
       </c>
-      <c r="C11" s="143">
+      <c r="C11" s="142">
         <v>45583</v>
       </c>
-      <c r="D11" s="143">
+      <c r="D11" s="142">
         <v>47939</v>
       </c>
-      <c r="E11" s="143">
+      <c r="E11" s="142">
         <v>45502</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="66"/>
-      <c r="B12" s="143">
+      <c r="B12" s="142">
         <v>46023</v>
       </c>
-      <c r="C12" s="143">
+      <c r="C12" s="142">
         <v>45607</v>
       </c>
-      <c r="D12" s="143">
+      <c r="D12" s="142">
         <v>48305</v>
       </c>
-      <c r="E12" s="143">
+      <c r="E12" s="142">
         <v>45532</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="66"/>
-      <c r="B13" s="143">
+      <c r="B13" s="142">
         <v>46204</v>
       </c>
-      <c r="C13" s="143">
+      <c r="C13" s="142">
         <v>45655</v>
       </c>
-      <c r="D13" s="143">
+      <c r="D13" s="142">
         <v>49035</v>
       </c>
-      <c r="E13" s="143">
+      <c r="E13" s="142">
         <v>45592</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="66"/>
-      <c r="B14" s="143">
+      <c r="B14" s="142">
         <v>46296</v>
       </c>
-      <c r="C14" s="143">
+      <c r="C14" s="142">
         <v>45679</v>
       </c>
-      <c r="D14" s="143">
+      <c r="D14" s="142">
         <v>49400</v>
       </c>
-      <c r="E14" s="143">
+      <c r="E14" s="142">
         <v>45622</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="66"/>
-      <c r="B15" s="143">
+      <c r="B15" s="142">
         <v>46478</v>
       </c>
-      <c r="C15" s="143">
+      <c r="C15" s="142">
         <v>45727</v>
       </c>
-      <c r="D15" s="143">
+      <c r="D15" s="142">
         <v>50131</v>
       </c>
-      <c r="E15" s="143">
+      <c r="E15" s="142">
         <v>45683</v>
       </c>
     </row>
@@ -7860,22 +7958,22 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A3" s="127" t="s">
+      <c r="A3" s="126" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="128" t="s">
+      <c r="B3" s="127" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="128" t="s">
+      <c r="C3" s="127" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="128" t="s">
+      <c r="D3" s="127" t="s">
         <v>69</v>
       </c>
-      <c r="E3" s="128" t="s">
+      <c r="E3" s="127" t="s">
         <v>66</v>
       </c>
-      <c r="F3" s="128" t="s">
+      <c r="F3" s="127" t="s">
         <v>65</v>
       </c>
     </row>
@@ -7883,19 +7981,19 @@
       <c r="A4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="129">
+      <c r="B4" s="128">
         <v>18580</v>
       </c>
-      <c r="C4" s="129">
+      <c r="C4" s="128">
         <v>49225</v>
       </c>
-      <c r="D4" s="129">
+      <c r="D4" s="128">
         <v>16326</v>
       </c>
-      <c r="E4" s="129">
+      <c r="E4" s="128">
         <v>10017</v>
       </c>
-      <c r="F4" s="129">
+      <c r="F4" s="128">
         <v>26134</v>
       </c>
     </row>
@@ -7903,19 +8001,19 @@
       <c r="A5" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="129">
+      <c r="B5" s="128">
         <v>78970</v>
       </c>
-      <c r="C5" s="129">
+      <c r="C5" s="128">
         <v>82262</v>
       </c>
-      <c r="D5" s="129">
+      <c r="D5" s="128">
         <v>48640</v>
       </c>
-      <c r="E5" s="129">
+      <c r="E5" s="128">
         <v>49985</v>
       </c>
-      <c r="F5" s="129">
+      <c r="F5" s="128">
         <v>73428</v>
       </c>
     </row>
@@ -7923,19 +8021,19 @@
       <c r="A6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="129">
+      <c r="B6" s="128">
         <v>24236</v>
       </c>
-      <c r="C6" s="129">
+      <c r="C6" s="128">
         <v>131390</v>
       </c>
-      <c r="D6" s="129">
+      <c r="D6" s="128">
         <v>79022</v>
       </c>
-      <c r="E6" s="129">
+      <c r="E6" s="128">
         <v>71009</v>
       </c>
-      <c r="F6" s="129">
+      <c r="F6" s="128">
         <v>81474</v>
       </c>
     </row>
@@ -7943,185 +8041,185 @@
       <c r="A7" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="129">
+      <c r="B7" s="128">
         <v>16730</v>
       </c>
-      <c r="C7" s="129">
+      <c r="C7" s="128">
         <v>19730</v>
       </c>
-      <c r="D7" s="129">
+      <c r="D7" s="128">
         <v>12109</v>
       </c>
-      <c r="E7" s="129">
+      <c r="E7" s="128">
         <v>11355</v>
       </c>
-      <c r="F7" s="129">
+      <c r="F7" s="128">
         <v>17686</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="130" t="s">
+      <c r="A8" s="129" t="s">
         <v>71</v>
       </c>
-      <c r="B8" s="129">
+      <c r="B8" s="128">
         <v>35358</v>
       </c>
-      <c r="C8" s="129">
+      <c r="C8" s="128">
         <v>42685</v>
       </c>
-      <c r="D8" s="129">
+      <c r="D8" s="128">
         <v>20893</v>
       </c>
-      <c r="E8" s="129">
+      <c r="E8" s="128">
         <v>16065</v>
       </c>
-      <c r="F8" s="129">
+      <c r="F8" s="128">
         <v>21388</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="131"/>
-      <c r="B10" s="131"/>
-      <c r="C10" s="131"/>
-      <c r="D10" s="131"/>
-      <c r="E10" s="131"/>
-      <c r="F10" s="131"/>
+      <c r="A10" s="130"/>
+      <c r="B10" s="130"/>
+      <c r="C10" s="130"/>
+      <c r="D10" s="130"/>
+      <c r="E10" s="130"/>
+      <c r="F10" s="130"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="131"/>
-      <c r="B11" s="131"/>
-      <c r="C11" s="131"/>
-      <c r="D11" s="131"/>
-      <c r="E11" s="131"/>
-      <c r="F11" s="131"/>
+      <c r="A11" s="130"/>
+      <c r="B11" s="130"/>
+      <c r="C11" s="130"/>
+      <c r="D11" s="130"/>
+      <c r="E11" s="130"/>
+      <c r="F11" s="130"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="131"/>
-      <c r="B12" s="131"/>
-      <c r="C12" s="131"/>
-      <c r="D12" s="131"/>
-      <c r="E12" s="131"/>
-      <c r="F12" s="131"/>
+      <c r="A12" s="130"/>
+      <c r="B12" s="130"/>
+      <c r="C12" s="130"/>
+      <c r="D12" s="130"/>
+      <c r="E12" s="130"/>
+      <c r="F12" s="130"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="131"/>
-      <c r="B13" s="131"/>
-      <c r="C13" s="131"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="131"/>
-      <c r="F13" s="131"/>
+      <c r="A13" s="130"/>
+      <c r="B13" s="130"/>
+      <c r="C13" s="130"/>
+      <c r="D13" s="130"/>
+      <c r="E13" s="130"/>
+      <c r="F13" s="130"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="131"/>
-      <c r="B14" s="131"/>
-      <c r="C14" s="131"/>
-      <c r="D14" s="131"/>
-      <c r="E14" s="131"/>
-      <c r="F14" s="131"/>
+      <c r="A14" s="130"/>
+      <c r="B14" s="130"/>
+      <c r="C14" s="130"/>
+      <c r="D14" s="130"/>
+      <c r="E14" s="130"/>
+      <c r="F14" s="130"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="131"/>
-      <c r="B15" s="131"/>
-      <c r="C15" s="131"/>
-      <c r="D15" s="131"/>
-      <c r="E15" s="131"/>
-      <c r="F15" s="131"/>
+      <c r="A15" s="130"/>
+      <c r="B15" s="130"/>
+      <c r="C15" s="130"/>
+      <c r="D15" s="130"/>
+      <c r="E15" s="130"/>
+      <c r="F15" s="130"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="131"/>
-      <c r="B16" s="131"/>
-      <c r="C16" s="131"/>
-      <c r="D16" s="131"/>
-      <c r="E16" s="131"/>
-      <c r="F16" s="131"/>
+      <c r="A16" s="130"/>
+      <c r="B16" s="130"/>
+      <c r="C16" s="130"/>
+      <c r="D16" s="130"/>
+      <c r="E16" s="130"/>
+      <c r="F16" s="130"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="131"/>
-      <c r="B17" s="131"/>
-      <c r="C17" s="131"/>
-      <c r="D17" s="131"/>
-      <c r="E17" s="131"/>
-      <c r="F17" s="131"/>
+      <c r="A17" s="130"/>
+      <c r="B17" s="130"/>
+      <c r="C17" s="130"/>
+      <c r="D17" s="130"/>
+      <c r="E17" s="130"/>
+      <c r="F17" s="130"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="131"/>
-      <c r="B18" s="131"/>
-      <c r="C18" s="131"/>
-      <c r="D18" s="131"/>
-      <c r="E18" s="131"/>
-      <c r="F18" s="131"/>
+      <c r="A18" s="130"/>
+      <c r="B18" s="130"/>
+      <c r="C18" s="130"/>
+      <c r="D18" s="130"/>
+      <c r="E18" s="130"/>
+      <c r="F18" s="130"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="131"/>
-      <c r="B19" s="131"/>
-      <c r="C19" s="131"/>
-      <c r="D19" s="131"/>
-      <c r="E19" s="131"/>
-      <c r="F19" s="131"/>
+      <c r="A19" s="130"/>
+      <c r="B19" s="130"/>
+      <c r="C19" s="130"/>
+      <c r="D19" s="130"/>
+      <c r="E19" s="130"/>
+      <c r="F19" s="130"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="131"/>
-      <c r="B20" s="131"/>
-      <c r="C20" s="131"/>
-      <c r="D20" s="131"/>
-      <c r="E20" s="131"/>
-      <c r="F20" s="131"/>
+      <c r="A20" s="130"/>
+      <c r="B20" s="130"/>
+      <c r="C20" s="130"/>
+      <c r="D20" s="130"/>
+      <c r="E20" s="130"/>
+      <c r="F20" s="130"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="131"/>
-      <c r="B21" s="131"/>
-      <c r="C21" s="131"/>
-      <c r="D21" s="131"/>
-      <c r="E21" s="131"/>
-      <c r="F21" s="131"/>
+      <c r="A21" s="130"/>
+      <c r="B21" s="130"/>
+      <c r="C21" s="130"/>
+      <c r="D21" s="130"/>
+      <c r="E21" s="130"/>
+      <c r="F21" s="130"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="131"/>
-      <c r="B22" s="131"/>
-      <c r="C22" s="131"/>
-      <c r="D22" s="131"/>
-      <c r="E22" s="131"/>
-      <c r="F22" s="131"/>
+      <c r="A22" s="130"/>
+      <c r="B22" s="130"/>
+      <c r="C22" s="130"/>
+      <c r="D22" s="130"/>
+      <c r="E22" s="130"/>
+      <c r="F22" s="130"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="131"/>
-      <c r="B23" s="131"/>
-      <c r="C23" s="131"/>
-      <c r="D23" s="131"/>
-      <c r="E23" s="131"/>
-      <c r="F23" s="131"/>
+      <c r="A23" s="130"/>
+      <c r="B23" s="130"/>
+      <c r="C23" s="130"/>
+      <c r="D23" s="130"/>
+      <c r="E23" s="130"/>
+      <c r="F23" s="130"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="131"/>
-      <c r="B24" s="131"/>
-      <c r="C24" s="131"/>
-      <c r="D24" s="131"/>
-      <c r="E24" s="131"/>
-      <c r="F24" s="131"/>
+      <c r="A24" s="130"/>
+      <c r="B24" s="130"/>
+      <c r="C24" s="130"/>
+      <c r="D24" s="130"/>
+      <c r="E24" s="130"/>
+      <c r="F24" s="130"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="131"/>
-      <c r="B25" s="131"/>
-      <c r="C25" s="131"/>
-      <c r="D25" s="131"/>
-      <c r="E25" s="131"/>
-      <c r="F25" s="131"/>
+      <c r="A25" s="130"/>
+      <c r="B25" s="130"/>
+      <c r="C25" s="130"/>
+      <c r="D25" s="130"/>
+      <c r="E25" s="130"/>
+      <c r="F25" s="130"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="131"/>
-      <c r="B26" s="131"/>
-      <c r="C26" s="131"/>
-      <c r="D26" s="131"/>
-      <c r="E26" s="131"/>
-      <c r="F26" s="131"/>
+      <c r="A26" s="130"/>
+      <c r="B26" s="130"/>
+      <c r="C26" s="130"/>
+      <c r="D26" s="130"/>
+      <c r="E26" s="130"/>
+      <c r="F26" s="130"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="131"/>
-      <c r="B27" s="131"/>
-      <c r="C27" s="131"/>
-      <c r="D27" s="131"/>
-      <c r="E27" s="131"/>
-      <c r="F27" s="131"/>
+      <c r="A27" s="130"/>
+      <c r="B27" s="130"/>
+      <c r="C27" s="130"/>
+      <c r="D27" s="130"/>
+      <c r="E27" s="130"/>
+      <c r="F27" s="130"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -8134,7 +8232,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{702458FE-1D97-4497-9515-7CC80DCCAB60}">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A72" workbookViewId="0">
       <selection activeCell="E4" sqref="E4:E40"/>
     </sheetView>
   </sheetViews>
@@ -8168,762 +8266,762 @@
       <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A3" s="118" t="s">
+      <c r="A3" s="117" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="119" t="s">
+      <c r="B3" s="118" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="119" t="s">
+      <c r="C3" s="118" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="119" t="s">
+      <c r="D3" s="118" t="s">
         <v>91</v>
       </c>
-      <c r="E3" s="119" t="s">
+      <c r="E3" s="118" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="120" t="s">
+      <c r="F3" s="119" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A4" s="121" t="s">
+      <c r="A4" s="120" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="122" t="s">
+      <c r="B4" s="121" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="122" t="s">
+      <c r="C4" s="121" t="s">
         <v>88</v>
       </c>
-      <c r="D4" s="122">
+      <c r="D4" s="121">
         <v>5</v>
       </c>
-      <c r="E4" s="122">
+      <c r="E4" s="121">
         <v>1</v>
       </c>
-      <c r="F4" s="123">
+      <c r="F4" s="122">
         <v>45292</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A5" s="121" t="s">
+      <c r="A5" s="120" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="122" t="s">
+      <c r="B5" s="121" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="122" t="s">
+      <c r="C5" s="121" t="s">
         <v>88</v>
       </c>
-      <c r="D5" s="122">
+      <c r="D5" s="121">
         <v>3</v>
       </c>
-      <c r="E5" s="122">
+      <c r="E5" s="121">
         <v>2</v>
       </c>
-      <c r="F5" s="123">
+      <c r="F5" s="122">
         <v>45293</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A6" s="121" t="s">
+      <c r="A6" s="120" t="s">
         <v>80</v>
       </c>
-      <c r="B6" s="122" t="s">
+      <c r="B6" s="121" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="122" t="s">
+      <c r="C6" s="121" t="s">
         <v>88</v>
       </c>
-      <c r="D6" s="122">
+      <c r="D6" s="121">
         <v>1</v>
       </c>
-      <c r="E6" s="122">
+      <c r="E6" s="121">
         <v>3</v>
       </c>
-      <c r="F6" s="123">
+      <c r="F6" s="122">
         <v>45294</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="121" t="s">
+      <c r="A7" s="120" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="122" t="s">
+      <c r="B7" s="121" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="122" t="s">
+      <c r="C7" s="121" t="s">
         <v>88</v>
       </c>
-      <c r="D7" s="122">
+      <c r="D7" s="121">
         <v>6</v>
       </c>
-      <c r="E7" s="122">
+      <c r="E7" s="121">
         <v>3</v>
       </c>
-      <c r="F7" s="123">
+      <c r="F7" s="122">
         <v>45295</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="121" t="s">
+      <c r="A8" s="120" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="122" t="s">
+      <c r="B8" s="121" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="122" t="s">
+      <c r="C8" s="121" t="s">
         <v>89</v>
       </c>
-      <c r="D8" s="122">
+      <c r="D8" s="121">
         <v>1</v>
       </c>
-      <c r="E8" s="122">
+      <c r="E8" s="121">
         <v>3</v>
       </c>
-      <c r="F8" s="123">
+      <c r="F8" s="122">
         <v>45296</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A9" s="121" t="s">
+      <c r="A9" s="120" t="s">
         <v>76</v>
       </c>
-      <c r="B9" s="122" t="s">
+      <c r="B9" s="121" t="s">
         <v>83</v>
       </c>
-      <c r="C9" s="122" t="s">
+      <c r="C9" s="121" t="s">
         <v>88</v>
       </c>
-      <c r="D9" s="122">
+      <c r="D9" s="121">
         <v>3</v>
       </c>
-      <c r="E9" s="122">
+      <c r="E9" s="121">
         <v>4</v>
       </c>
-      <c r="F9" s="123">
+      <c r="F9" s="122">
         <v>45297</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A10" s="121" t="s">
+      <c r="A10" s="120" t="s">
         <v>74</v>
       </c>
-      <c r="B10" s="122" t="s">
+      <c r="B10" s="121" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="122" t="s">
+      <c r="C10" s="121" t="s">
         <v>89</v>
       </c>
-      <c r="D10" s="122">
+      <c r="D10" s="121">
         <v>1</v>
       </c>
-      <c r="E10" s="122">
+      <c r="E10" s="121">
         <v>4</v>
       </c>
-      <c r="F10" s="123">
+      <c r="F10" s="122">
         <v>45298</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A11" s="121" t="s">
+      <c r="A11" s="120" t="s">
         <v>77</v>
       </c>
-      <c r="B11" s="122" t="s">
+      <c r="B11" s="121" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="122" t="s">
+      <c r="C11" s="121" t="s">
         <v>89</v>
       </c>
-      <c r="D11" s="122">
+      <c r="D11" s="121">
         <v>7</v>
       </c>
-      <c r="E11" s="122">
+      <c r="E11" s="121">
         <v>4</v>
       </c>
-      <c r="F11" s="123">
+      <c r="F11" s="122">
         <v>45299</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A12" s="121" t="s">
+      <c r="A12" s="120" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="122" t="s">
+      <c r="B12" s="121" t="s">
         <v>84</v>
       </c>
-      <c r="C12" s="122" t="s">
+      <c r="C12" s="121" t="s">
         <v>89</v>
       </c>
-      <c r="D12" s="122">
+      <c r="D12" s="121">
         <v>7</v>
       </c>
-      <c r="E12" s="122">
+      <c r="E12" s="121">
         <v>4</v>
       </c>
-      <c r="F12" s="123">
+      <c r="F12" s="122">
         <v>45300</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A13" s="121" t="s">
+      <c r="A13" s="120" t="s">
         <v>73</v>
       </c>
-      <c r="B13" s="122" t="s">
+      <c r="B13" s="121" t="s">
         <v>84</v>
       </c>
-      <c r="C13" s="122" t="s">
+      <c r="C13" s="121" t="s">
         <v>88</v>
       </c>
-      <c r="D13" s="122">
+      <c r="D13" s="121">
         <v>8</v>
       </c>
-      <c r="E13" s="122">
+      <c r="E13" s="121">
         <v>5</v>
       </c>
-      <c r="F13" s="123">
+      <c r="F13" s="122">
         <v>45301</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A14" s="121" t="s">
+      <c r="A14" s="120" t="s">
         <v>79</v>
       </c>
-      <c r="B14" s="122" t="s">
+      <c r="B14" s="121" t="s">
         <v>84</v>
       </c>
-      <c r="C14" s="122" t="s">
+      <c r="C14" s="121" t="s">
         <v>88</v>
       </c>
-      <c r="D14" s="122">
+      <c r="D14" s="121">
         <v>2</v>
       </c>
-      <c r="E14" s="122">
+      <c r="E14" s="121">
         <v>6</v>
       </c>
-      <c r="F14" s="123">
+      <c r="F14" s="122">
         <v>45302</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A15" s="121" t="s">
+      <c r="A15" s="120" t="s">
         <v>75</v>
       </c>
-      <c r="B15" s="122" t="s">
+      <c r="B15" s="121" t="s">
         <v>84</v>
       </c>
-      <c r="C15" s="122" t="s">
+      <c r="C15" s="121" t="s">
         <v>88</v>
       </c>
-      <c r="D15" s="122">
+      <c r="D15" s="121">
         <v>1</v>
       </c>
-      <c r="E15" s="122">
+      <c r="E15" s="121">
         <v>6</v>
       </c>
-      <c r="F15" s="123">
+      <c r="F15" s="122">
         <v>45303</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A16" s="121" t="s">
+      <c r="A16" s="120" t="s">
         <v>78</v>
       </c>
-      <c r="B16" s="122" t="s">
+      <c r="B16" s="121" t="s">
         <v>84</v>
       </c>
-      <c r="C16" s="122" t="s">
+      <c r="C16" s="121" t="s">
         <v>89</v>
       </c>
-      <c r="D16" s="122">
+      <c r="D16" s="121">
         <v>8</v>
       </c>
-      <c r="E16" s="122">
+      <c r="E16" s="121">
         <v>6</v>
       </c>
-      <c r="F16" s="123">
+      <c r="F16" s="122">
         <v>45304</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A17" s="121" t="s">
+      <c r="A17" s="120" t="s">
         <v>73</v>
       </c>
-      <c r="B17" s="122" t="s">
+      <c r="B17" s="121" t="s">
         <v>85</v>
       </c>
-      <c r="C17" s="122" t="s">
+      <c r="C17" s="121" t="s">
         <v>88</v>
       </c>
-      <c r="D17" s="122">
+      <c r="D17" s="121">
         <v>3</v>
       </c>
-      <c r="E17" s="122">
+      <c r="E17" s="121">
         <v>6</v>
       </c>
-      <c r="F17" s="123">
+      <c r="F17" s="122">
         <v>45323</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A18" s="121" t="s">
+      <c r="A18" s="120" t="s">
         <v>79</v>
       </c>
-      <c r="B18" s="122" t="s">
+      <c r="B18" s="121" t="s">
         <v>85</v>
       </c>
-      <c r="C18" s="122" t="s">
+      <c r="C18" s="121" t="s">
         <v>88</v>
       </c>
-      <c r="D18" s="122">
+      <c r="D18" s="121">
         <v>6</v>
       </c>
-      <c r="E18" s="122">
+      <c r="E18" s="121">
         <v>6</v>
       </c>
-      <c r="F18" s="123">
+      <c r="F18" s="122">
         <v>45324</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A19" s="121" t="s">
+      <c r="A19" s="120" t="s">
         <v>80</v>
       </c>
-      <c r="B19" s="122" t="s">
+      <c r="B19" s="121" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="122" t="s">
+      <c r="C19" s="121" t="s">
         <v>88</v>
       </c>
-      <c r="D19" s="122">
+      <c r="D19" s="121">
         <v>8</v>
       </c>
-      <c r="E19" s="122">
+      <c r="E19" s="121">
         <v>6</v>
       </c>
-      <c r="F19" s="123">
+      <c r="F19" s="122">
         <v>45325</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A20" s="121" t="s">
+      <c r="A20" s="120" t="s">
         <v>78</v>
       </c>
-      <c r="B20" s="122" t="s">
+      <c r="B20" s="121" t="s">
         <v>85</v>
       </c>
-      <c r="C20" s="122" t="s">
+      <c r="C20" s="121" t="s">
         <v>89</v>
       </c>
-      <c r="D20" s="122">
+      <c r="D20" s="121">
         <v>3</v>
       </c>
-      <c r="E20" s="122">
+      <c r="E20" s="121">
         <v>8</v>
       </c>
-      <c r="F20" s="123">
+      <c r="F20" s="122">
         <v>45326</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A21" s="121" t="s">
+      <c r="A21" s="120" t="s">
         <v>73</v>
       </c>
-      <c r="B21" s="122" t="s">
+      <c r="B21" s="121" t="s">
         <v>85</v>
       </c>
-      <c r="C21" s="122" t="s">
+      <c r="C21" s="121" t="s">
         <v>88</v>
       </c>
-      <c r="D21" s="122">
+      <c r="D21" s="121">
         <v>1</v>
       </c>
-      <c r="E21" s="122">
+      <c r="E21" s="121">
         <v>8</v>
       </c>
-      <c r="F21" s="123">
+      <c r="F21" s="122">
         <v>45327</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A22" s="121" t="s">
+      <c r="A22" s="120" t="s">
         <v>78</v>
       </c>
-      <c r="B22" s="122" t="s">
+      <c r="B22" s="121" t="s">
         <v>85</v>
       </c>
-      <c r="C22" s="122" t="s">
+      <c r="C22" s="121" t="s">
         <v>89</v>
       </c>
-      <c r="D22" s="122">
+      <c r="D22" s="121">
         <v>5</v>
       </c>
-      <c r="E22" s="122">
+      <c r="E22" s="121">
         <v>9</v>
       </c>
-      <c r="F22" s="123">
+      <c r="F22" s="122">
         <v>45328</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A23" s="121" t="s">
+      <c r="A23" s="120" t="s">
         <v>80</v>
       </c>
-      <c r="B23" s="122" t="s">
+      <c r="B23" s="121" t="s">
         <v>85</v>
       </c>
-      <c r="C23" s="122" t="s">
+      <c r="C23" s="121" t="s">
         <v>88</v>
       </c>
-      <c r="D23" s="122">
+      <c r="D23" s="121">
         <v>3</v>
       </c>
-      <c r="E23" s="122">
+      <c r="E23" s="121">
         <v>10</v>
       </c>
-      <c r="F23" s="123">
+      <c r="F23" s="122">
         <v>45329</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A24" s="121" t="s">
+      <c r="A24" s="120" t="s">
         <v>75</v>
       </c>
-      <c r="B24" s="122" t="s">
+      <c r="B24" s="121" t="s">
         <v>85</v>
       </c>
-      <c r="C24" s="122" t="s">
+      <c r="C24" s="121" t="s">
         <v>88</v>
       </c>
-      <c r="D24" s="122">
+      <c r="D24" s="121">
         <v>5</v>
       </c>
-      <c r="E24" s="122">
+      <c r="E24" s="121">
         <v>10</v>
       </c>
-      <c r="F24" s="123">
+      <c r="F24" s="122">
         <v>45330</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A25" s="121" t="s">
+      <c r="A25" s="120" t="s">
         <v>77</v>
       </c>
-      <c r="B25" s="122" t="s">
+      <c r="B25" s="121" t="s">
         <v>85</v>
       </c>
-      <c r="C25" s="122" t="s">
+      <c r="C25" s="121" t="s">
         <v>89</v>
       </c>
-      <c r="D25" s="122">
+      <c r="D25" s="121">
         <v>8</v>
       </c>
-      <c r="E25" s="122">
+      <c r="E25" s="121">
         <v>10</v>
       </c>
-      <c r="F25" s="123">
+      <c r="F25" s="122">
         <v>45331</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A26" s="121" t="s">
+      <c r="A26" s="120" t="s">
         <v>77</v>
       </c>
-      <c r="B26" s="122" t="s">
+      <c r="B26" s="121" t="s">
         <v>85</v>
       </c>
-      <c r="C26" s="122" t="s">
+      <c r="C26" s="121" t="s">
         <v>89</v>
       </c>
-      <c r="D26" s="122">
+      <c r="D26" s="121">
         <v>3</v>
       </c>
-      <c r="E26" s="122">
+      <c r="E26" s="121">
         <v>10</v>
       </c>
-      <c r="F26" s="123">
+      <c r="F26" s="122">
         <v>45332</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A27" s="121" t="s">
+      <c r="A27" s="120" t="s">
         <v>79</v>
       </c>
-      <c r="B27" s="122" t="s">
+      <c r="B27" s="121" t="s">
         <v>85</v>
       </c>
-      <c r="C27" s="122" t="s">
+      <c r="C27" s="121" t="s">
         <v>88</v>
       </c>
-      <c r="D27" s="122">
+      <c r="D27" s="121">
         <v>2</v>
       </c>
-      <c r="E27" s="122">
+      <c r="E27" s="121">
         <v>11</v>
       </c>
-      <c r="F27" s="123">
+      <c r="F27" s="122">
         <v>45333</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A28" s="121" t="s">
+      <c r="A28" s="120" t="s">
         <v>76</v>
       </c>
-      <c r="B28" s="122" t="s">
+      <c r="B28" s="121" t="s">
         <v>85</v>
       </c>
-      <c r="C28" s="122" t="s">
+      <c r="C28" s="121" t="s">
         <v>88</v>
       </c>
-      <c r="D28" s="122">
+      <c r="D28" s="121">
         <v>4</v>
       </c>
-      <c r="E28" s="122">
+      <c r="E28" s="121">
         <v>11</v>
       </c>
-      <c r="F28" s="123">
+      <c r="F28" s="122">
         <v>45334</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A29" s="121" t="s">
+      <c r="A29" s="120" t="s">
         <v>74</v>
       </c>
-      <c r="B29" s="122" t="s">
+      <c r="B29" s="121" t="s">
         <v>85</v>
       </c>
-      <c r="C29" s="122" t="s">
+      <c r="C29" s="121" t="s">
         <v>89</v>
       </c>
-      <c r="D29" s="122">
+      <c r="D29" s="121">
         <v>4</v>
       </c>
-      <c r="E29" s="122">
+      <c r="E29" s="121">
         <v>11</v>
       </c>
-      <c r="F29" s="123">
+      <c r="F29" s="122">
         <v>45335</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A30" s="121" t="s">
+      <c r="A30" s="120" t="s">
         <v>74</v>
       </c>
-      <c r="B30" s="122" t="s">
+      <c r="B30" s="121" t="s">
         <v>85</v>
       </c>
-      <c r="C30" s="122" t="s">
+      <c r="C30" s="121" t="s">
         <v>89</v>
       </c>
-      <c r="D30" s="122">
+      <c r="D30" s="121">
         <v>9</v>
       </c>
-      <c r="E30" s="122">
+      <c r="E30" s="121">
         <v>12</v>
       </c>
-      <c r="F30" s="123">
+      <c r="F30" s="122">
         <v>45336</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A31" s="121" t="s">
+      <c r="A31" s="120" t="s">
         <v>80</v>
       </c>
-      <c r="B31" s="122" t="s">
+      <c r="B31" s="121" t="s">
         <v>85</v>
       </c>
-      <c r="C31" s="122" t="s">
+      <c r="C31" s="121" t="s">
         <v>88</v>
       </c>
-      <c r="D31" s="122">
+      <c r="D31" s="121">
         <v>4</v>
       </c>
-      <c r="E31" s="122">
+      <c r="E31" s="121">
         <v>13</v>
       </c>
-      <c r="F31" s="123">
+      <c r="F31" s="122">
         <v>45352</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A32" s="121" t="s">
+      <c r="A32" s="120" t="s">
         <v>80</v>
       </c>
-      <c r="B32" s="122" t="s">
+      <c r="B32" s="121" t="s">
         <v>85</v>
       </c>
-      <c r="C32" s="122" t="s">
+      <c r="C32" s="121" t="s">
         <v>88</v>
       </c>
-      <c r="D32" s="122">
+      <c r="D32" s="121">
         <v>1</v>
       </c>
-      <c r="E32" s="122">
+      <c r="E32" s="121">
         <v>14</v>
       </c>
-      <c r="F32" s="123">
+      <c r="F32" s="122">
         <v>45353</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A33" s="121" t="s">
+      <c r="A33" s="120" t="s">
         <v>78</v>
       </c>
-      <c r="B33" s="122" t="s">
+      <c r="B33" s="121" t="s">
         <v>86</v>
       </c>
-      <c r="C33" s="122" t="s">
+      <c r="C33" s="121" t="s">
         <v>89</v>
       </c>
-      <c r="D33" s="122">
+      <c r="D33" s="121">
         <v>1</v>
       </c>
-      <c r="E33" s="122">
+      <c r="E33" s="121">
         <v>15</v>
       </c>
-      <c r="F33" s="123">
+      <c r="F33" s="122">
         <v>45354</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A34" s="121" t="s">
+      <c r="A34" s="120" t="s">
         <v>74</v>
       </c>
-      <c r="B34" s="122" t="s">
+      <c r="B34" s="121" t="s">
         <v>86</v>
       </c>
-      <c r="C34" s="122" t="s">
+      <c r="C34" s="121" t="s">
         <v>89</v>
       </c>
-      <c r="D34" s="122">
+      <c r="D34" s="121">
         <v>2</v>
       </c>
-      <c r="E34" s="122">
+      <c r="E34" s="121">
         <v>16</v>
       </c>
-      <c r="F34" s="123">
+      <c r="F34" s="122">
         <v>45355</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A35" s="121" t="s">
+      <c r="A35" s="120" t="s">
         <v>79</v>
       </c>
-      <c r="B35" s="122" t="s">
+      <c r="B35" s="121" t="s">
         <v>86</v>
       </c>
-      <c r="C35" s="122" t="s">
+      <c r="C35" s="121" t="s">
         <v>88</v>
       </c>
-      <c r="D35" s="122">
+      <c r="D35" s="121">
         <v>7</v>
       </c>
-      <c r="E35" s="122">
+      <c r="E35" s="121">
         <v>16</v>
       </c>
-      <c r="F35" s="123">
+      <c r="F35" s="122">
         <v>45356</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A36" s="121" t="s">
+      <c r="A36" s="120" t="s">
         <v>73</v>
       </c>
-      <c r="B36" s="122" t="s">
+      <c r="B36" s="121" t="s">
         <v>86</v>
       </c>
-      <c r="C36" s="122" t="s">
+      <c r="C36" s="121" t="s">
         <v>88</v>
       </c>
-      <c r="D36" s="122">
+      <c r="D36" s="121">
         <v>8</v>
       </c>
-      <c r="E36" s="122">
+      <c r="E36" s="121">
         <v>16</v>
       </c>
-      <c r="F36" s="123">
+      <c r="F36" s="122">
         <v>45357</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A37" s="121" t="s">
+      <c r="A37" s="120" t="s">
         <v>77</v>
       </c>
-      <c r="B37" s="122" t="s">
+      <c r="B37" s="121" t="s">
         <v>86</v>
       </c>
-      <c r="C37" s="122" t="s">
+      <c r="C37" s="121" t="s">
         <v>89</v>
       </c>
-      <c r="D37" s="122">
+      <c r="D37" s="121">
         <v>2</v>
       </c>
-      <c r="E37" s="122">
+      <c r="E37" s="121">
         <v>17</v>
       </c>
-      <c r="F37" s="123">
+      <c r="F37" s="122">
         <v>45358</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A38" s="121" t="s">
+      <c r="A38" s="120" t="s">
         <v>77</v>
       </c>
-      <c r="B38" s="122" t="s">
+      <c r="B38" s="121" t="s">
         <v>86</v>
       </c>
-      <c r="C38" s="122" t="s">
+      <c r="C38" s="121" t="s">
         <v>89</v>
       </c>
-      <c r="D38" s="122">
+      <c r="D38" s="121">
         <v>6</v>
       </c>
-      <c r="E38" s="122">
+      <c r="E38" s="121">
         <v>18</v>
       </c>
-      <c r="F38" s="123">
+      <c r="F38" s="122">
         <v>45359</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A39" s="121" t="s">
+      <c r="A39" s="120" t="s">
         <v>75</v>
       </c>
-      <c r="B39" s="122" t="s">
+      <c r="B39" s="121" t="s">
         <v>86</v>
       </c>
-      <c r="C39" s="122" t="s">
+      <c r="C39" s="121" t="s">
         <v>88</v>
       </c>
-      <c r="D39" s="122">
+      <c r="D39" s="121">
         <v>2</v>
       </c>
-      <c r="E39" s="122">
+      <c r="E39" s="121">
         <v>18</v>
       </c>
-      <c r="F39" s="123">
+      <c r="F39" s="122">
         <v>45360</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A40" s="124" t="s">
+      <c r="A40" s="123" t="s">
         <v>76</v>
       </c>
-      <c r="B40" s="125" t="s">
+      <c r="B40" s="124" t="s">
         <v>86</v>
       </c>
-      <c r="C40" s="125" t="s">
+      <c r="C40" s="124" t="s">
         <v>88</v>
       </c>
-      <c r="D40" s="125">
+      <c r="D40" s="124">
         <v>9</v>
       </c>
-      <c r="E40" s="125">
+      <c r="E40" s="124">
         <v>20</v>
       </c>
-      <c r="F40" s="126">
+      <c r="F40" s="125">
         <v>45361</v>
       </c>
     </row>
@@ -9021,317 +9119,317 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B4" s="144">
+      <c r="B4" s="143">
         <v>45383</v>
       </c>
-      <c r="C4" s="145">
+      <c r="C4" s="144">
         <v>1340</v>
       </c>
-      <c r="D4" s="146">
+      <c r="D4" s="145">
         <v>1340</v>
       </c>
-      <c r="E4" s="147">
+      <c r="E4" s="146">
         <v>1340</v>
       </c>
-      <c r="F4" s="147">
+      <c r="F4" s="146">
         <v>1340</v>
       </c>
-      <c r="G4" s="147">
+      <c r="G4" s="146">
         <v>1340</v>
       </c>
-      <c r="H4" s="147">
+      <c r="H4" s="146">
         <v>1340</v>
       </c>
-      <c r="I4" s="148">
+      <c r="I4" s="147">
         <v>-44.813790300506582</v>
       </c>
-      <c r="J4" s="144">
+      <c r="J4" s="143">
         <v>45326</v>
       </c>
-      <c r="K4" s="150">
+      <c r="K4" s="149">
         <v>0.38541666666666669</v>
       </c>
-      <c r="L4" s="149">
+      <c r="L4" s="148">
         <v>-0.44813790300506584</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B5" s="144">
+      <c r="B5" s="143">
         <v>45386</v>
       </c>
-      <c r="C5" s="145">
+      <c r="C5" s="144">
         <v>4500</v>
       </c>
-      <c r="D5" s="146">
+      <c r="D5" s="145">
         <v>4500</v>
       </c>
-      <c r="E5" s="147">
+      <c r="E5" s="146">
         <v>4500</v>
       </c>
-      <c r="F5" s="147">
+      <c r="F5" s="146">
         <v>4500</v>
       </c>
-      <c r="G5" s="147">
+      <c r="G5" s="146">
         <v>4500</v>
       </c>
-      <c r="H5" s="147">
+      <c r="H5" s="146">
         <v>4500</v>
       </c>
-      <c r="I5" s="148">
+      <c r="I5" s="147">
         <v>-10.850232214210999</v>
       </c>
-      <c r="J5" s="144">
+      <c r="J5" s="143">
         <v>45326</v>
       </c>
-      <c r="K5" s="150">
+      <c r="K5" s="149">
         <v>0.38541666666666669</v>
       </c>
-      <c r="L5" s="149">
+      <c r="L5" s="148">
         <v>-0.10850232214210999</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B6" s="144">
+      <c r="B6" s="143">
         <v>45391</v>
       </c>
-      <c r="C6" s="145">
+      <c r="C6" s="144">
         <v>8200</v>
       </c>
-      <c r="D6" s="146">
+      <c r="D6" s="145">
         <v>8200</v>
       </c>
-      <c r="E6" s="147">
+      <c r="E6" s="146">
         <v>8200</v>
       </c>
-      <c r="F6" s="147">
+      <c r="F6" s="146">
         <v>8200</v>
       </c>
-      <c r="G6" s="147">
+      <c r="G6" s="146">
         <v>8200</v>
       </c>
-      <c r="H6" s="147">
+      <c r="H6" s="146">
         <v>8200</v>
       </c>
-      <c r="I6" s="148">
+      <c r="I6" s="147">
         <v>-13.772233433191696</v>
       </c>
-      <c r="J6" s="144">
+      <c r="J6" s="143">
         <v>45370</v>
       </c>
-      <c r="K6" s="150">
+      <c r="K6" s="149">
         <v>0.70833333333333337</v>
       </c>
-      <c r="L6" s="149">
+      <c r="L6" s="148">
         <v>-0.13772233433191697</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B7" s="144">
+      <c r="B7" s="143">
         <v>45393</v>
       </c>
-      <c r="C7" s="145">
+      <c r="C7" s="144">
         <v>2530</v>
       </c>
-      <c r="D7" s="146">
+      <c r="D7" s="145">
         <v>2530</v>
       </c>
-      <c r="E7" s="147">
+      <c r="E7" s="146">
         <v>2530</v>
       </c>
-      <c r="F7" s="147">
+      <c r="F7" s="146">
         <v>2530</v>
       </c>
-      <c r="G7" s="147">
+      <c r="G7" s="146">
         <v>2530</v>
       </c>
-      <c r="H7" s="147">
+      <c r="H7" s="146">
         <v>2530</v>
       </c>
-      <c r="I7" s="148">
+      <c r="I7" s="147">
         <v>-10.264651962190525</v>
       </c>
-      <c r="J7" s="144">
+      <c r="J7" s="143">
         <v>45355</v>
       </c>
-      <c r="K7" s="150">
+      <c r="K7" s="149">
         <v>0.5</v>
       </c>
-      <c r="L7" s="149">
+      <c r="L7" s="148">
         <v>-0.10264651962190526</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B8" s="144">
+      <c r="B8" s="143">
         <v>45399</v>
       </c>
-      <c r="C8" s="145">
+      <c r="C8" s="144">
         <v>2300</v>
       </c>
-      <c r="D8" s="146">
+      <c r="D8" s="145">
         <v>2300</v>
       </c>
-      <c r="E8" s="147">
+      <c r="E8" s="146">
         <v>2300</v>
       </c>
-      <c r="F8" s="147">
+      <c r="F8" s="146">
         <v>2300</v>
       </c>
-      <c r="G8" s="147">
+      <c r="G8" s="146">
         <v>2300</v>
       </c>
-      <c r="H8" s="147">
+      <c r="H8" s="146">
         <v>2300</v>
       </c>
-      <c r="I8" s="148">
+      <c r="I8" s="147">
         <v>-9.7146032923612324</v>
       </c>
-      <c r="J8" s="144">
+      <c r="J8" s="143">
         <v>45358</v>
       </c>
-      <c r="K8" s="150">
+      <c r="K8" s="149">
         <v>0.5</v>
       </c>
-      <c r="L8" s="149">
+      <c r="L8" s="148">
         <v>-9.7146032923612319E-2</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B9" s="144">
+      <c r="B9" s="143">
         <v>45400</v>
       </c>
-      <c r="C9" s="145">
+      <c r="C9" s="144">
         <v>4210</v>
       </c>
-      <c r="D9" s="146">
+      <c r="D9" s="145">
         <v>4210</v>
       </c>
-      <c r="E9" s="147">
+      <c r="E9" s="146">
         <v>4210</v>
       </c>
-      <c r="F9" s="147">
+      <c r="F9" s="146">
         <v>4210</v>
       </c>
-      <c r="G9" s="147">
+      <c r="G9" s="146">
         <v>4210</v>
       </c>
-      <c r="H9" s="147">
+      <c r="H9" s="146">
         <v>4210</v>
       </c>
-      <c r="I9" s="148">
+      <c r="I9" s="147">
         <v>-11.733451140784947</v>
       </c>
-      <c r="J9" s="144">
+      <c r="J9" s="143">
         <v>45359</v>
       </c>
-      <c r="K9" s="150">
+      <c r="K9" s="149">
         <v>0.38541666666666669</v>
       </c>
-      <c r="L9" s="149">
+      <c r="L9" s="148">
         <v>-0.11733451140784946</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B10" s="144">
+      <c r="B10" s="143">
         <v>45400</v>
       </c>
-      <c r="C10" s="145">
+      <c r="C10" s="144">
         <v>1200</v>
       </c>
-      <c r="D10" s="146">
+      <c r="D10" s="145">
         <v>1200</v>
       </c>
-      <c r="E10" s="147">
+      <c r="E10" s="146">
         <v>1200</v>
       </c>
-      <c r="F10" s="147">
+      <c r="F10" s="146">
         <v>1200</v>
       </c>
-      <c r="G10" s="147">
+      <c r="G10" s="146">
         <v>1200</v>
       </c>
-      <c r="H10" s="147">
+      <c r="H10" s="146">
         <v>1200</v>
       </c>
-      <c r="I10" s="148">
+      <c r="I10" s="147">
         <v>-19</v>
       </c>
-      <c r="J10" s="144">
+      <c r="J10" s="143">
         <v>45359</v>
       </c>
-      <c r="K10" s="150">
+      <c r="K10" s="149">
         <v>0.38541666666666669</v>
       </c>
-      <c r="L10" s="149">
+      <c r="L10" s="148">
         <v>-0.19</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B11" s="144">
+      <c r="B11" s="143">
         <v>45400</v>
       </c>
-      <c r="C11" s="145">
+      <c r="C11" s="144">
         <v>1203</v>
       </c>
-      <c r="D11" s="146">
+      <c r="D11" s="145">
         <v>1203</v>
       </c>
-      <c r="E11" s="147">
+      <c r="E11" s="146">
         <v>1203</v>
       </c>
-      <c r="F11" s="147">
+      <c r="F11" s="146">
         <v>1203</v>
       </c>
-      <c r="G11" s="147">
+      <c r="G11" s="146">
         <v>1203</v>
       </c>
-      <c r="H11" s="147">
+      <c r="H11" s="146">
         <v>1203</v>
       </c>
-      <c r="I11" s="148">
+      <c r="I11" s="147">
         <v>55</v>
       </c>
-      <c r="J11" s="144">
+      <c r="J11" s="143">
         <v>45369</v>
       </c>
-      <c r="K11" s="150">
+      <c r="K11" s="149">
         <v>0.38541666666666669</v>
       </c>
-      <c r="L11" s="149">
+      <c r="L11" s="148">
         <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B12" s="144">
+      <c r="B12" s="143">
         <v>45391</v>
       </c>
-      <c r="C12" s="145">
+      <c r="C12" s="144">
         <v>8200</v>
       </c>
-      <c r="D12" s="146">
+      <c r="D12" s="145">
         <v>8200</v>
       </c>
-      <c r="E12" s="147">
+      <c r="E12" s="146">
         <v>8200</v>
       </c>
-      <c r="F12" s="147">
+      <c r="F12" s="146">
         <v>8200</v>
       </c>
-      <c r="G12" s="147">
+      <c r="G12" s="146">
         <v>8200</v>
       </c>
-      <c r="H12" s="147">
+      <c r="H12" s="146">
         <v>8200</v>
       </c>
-      <c r="I12" s="148">
+      <c r="I12" s="147">
         <v>-13.772233433191696</v>
       </c>
-      <c r="J12" s="144">
+      <c r="J12" s="143">
         <v>45370</v>
       </c>
-      <c r="K12" s="150">
+      <c r="K12" s="149">
         <v>0.70833333333333337</v>
       </c>
-      <c r="L12" s="149">
+      <c r="L12" s="148">
         <v>-0.13772233433191697</v>
       </c>
     </row>
@@ -9374,32 +9472,32 @@
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B3" s="151" t="s">
+      <c r="B3" s="150" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="151"/>
-      <c r="D3" s="151"/>
-      <c r="E3" s="151"/>
-      <c r="F3" s="151"/>
-      <c r="G3" s="151"/>
+      <c r="C3" s="150"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="150"/>
+      <c r="G3" s="150"/>
     </row>
     <row r="4" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B4" s="151" t="s">
+      <c r="B4" s="150" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="151" t="s">
+      <c r="C4" s="150" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="151" t="s">
+      <c r="D4" s="150" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="151" t="s">
+      <c r="E4" s="150" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="151" t="s">
+      <c r="F4" s="150" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="151" t="s">
+      <c r="G4" s="150" t="s">
         <v>11</v>
       </c>
     </row>
@@ -9407,19 +9505,19 @@
       <c r="B5" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="152">
+      <c r="C5" s="151">
         <v>60.4</v>
       </c>
-      <c r="D5" s="153">
+      <c r="D5" s="152">
         <v>0.20799999999999999</v>
       </c>
-      <c r="E5" s="152">
+      <c r="E5" s="151">
         <v>60.5</v>
       </c>
-      <c r="F5" s="153">
+      <c r="F5" s="152">
         <v>0.22500000000000001</v>
       </c>
-      <c r="G5" s="153">
+      <c r="G5" s="152">
         <v>-7.0000000000000001E-3</v>
       </c>
     </row>
@@ -9427,19 +9525,19 @@
       <c r="B6" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="152">
+      <c r="C6" s="151">
         <v>50.1</v>
       </c>
-      <c r="D6" s="153">
+      <c r="D6" s="152">
         <v>0.17299999999999999</v>
       </c>
-      <c r="E6" s="152">
+      <c r="E6" s="151">
         <v>55.4</v>
       </c>
-      <c r="F6" s="153">
+      <c r="F6" s="152">
         <v>0.20699999999999999</v>
       </c>
-      <c r="G6" s="153">
+      <c r="G6" s="152">
         <v>-9.6000000000000002E-2</v>
       </c>
     </row>
@@ -9447,19 +9545,19 @@
       <c r="B7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="152">
+      <c r="C7" s="151">
         <v>40.799999999999997</v>
       </c>
-      <c r="D7" s="153">
+      <c r="D7" s="152">
         <v>0.14099999999999999</v>
       </c>
-      <c r="E7" s="152">
+      <c r="E7" s="151">
         <v>30.5</v>
       </c>
-      <c r="F7" s="153">
+      <c r="F7" s="152">
         <v>0.114</v>
       </c>
-      <c r="G7" s="153">
+      <c r="G7" s="152">
         <v>0.33800000000000002</v>
       </c>
     </row>
@@ -9467,19 +9565,19 @@
       <c r="B8" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="152">
+      <c r="C8" s="151">
         <v>28.5</v>
       </c>
-      <c r="D8" s="153">
+      <c r="D8" s="152">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="E8" s="152">
+      <c r="E8" s="151">
         <v>15.4</v>
       </c>
-      <c r="F8" s="153">
+      <c r="F8" s="152">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="G8" s="153">
+      <c r="G8" s="152">
         <v>0.84899999999999998</v>
       </c>
     </row>
@@ -9487,19 +9585,19 @@
       <c r="B9" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="152">
+      <c r="C9" s="151">
         <v>25.2</v>
       </c>
-      <c r="D9" s="153">
+      <c r="D9" s="152">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="E9" s="152">
+      <c r="E9" s="151">
         <v>27.6</v>
       </c>
-      <c r="F9" s="153">
+      <c r="F9" s="152">
         <v>0.10299999999999999</v>
       </c>
-      <c r="G9" s="153">
+      <c r="G9" s="152">
         <v>-8.5000000000000006E-2</v>
       </c>
     </row>
@@ -9507,19 +9605,19 @@
       <c r="B10" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="152">
+      <c r="C10" s="151">
         <v>84.7</v>
       </c>
-      <c r="D10" s="153">
+      <c r="D10" s="152">
         <v>0.29299999999999998</v>
       </c>
-      <c r="E10" s="152">
+      <c r="E10" s="151">
         <v>79</v>
       </c>
-      <c r="F10" s="153">
+      <c r="F10" s="152">
         <v>0.29399999999999998</v>
       </c>
-      <c r="G10" s="153">
+      <c r="G10" s="152">
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
@@ -9527,19 +9625,19 @@
       <c r="B11" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="152">
+      <c r="C11" s="151">
         <v>289.39999999999998</v>
       </c>
-      <c r="D11" s="153">
+      <c r="D11" s="152">
         <v>1</v>
       </c>
-      <c r="E11" s="152">
+      <c r="E11" s="151">
         <v>268.5</v>
       </c>
-      <c r="F11" s="153">
+      <c r="F11" s="152">
         <v>1</v>
       </c>
-      <c r="G11" s="153">
+      <c r="G11" s="152">
         <v>7.8E-2</v>
       </c>
     </row>
@@ -9634,16 +9732,16 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="158" t="s">
+      <c r="A8" s="157" t="s">
         <v>112</v>
       </c>
-      <c r="B8" s="158"/>
-      <c r="C8" s="158"/>
-      <c r="D8" s="158"/>
-      <c r="E8" s="158"/>
-      <c r="F8" s="158"/>
-      <c r="G8" s="158"/>
-      <c r="H8" s="158"/>
+      <c r="B8" s="157"/>
+      <c r="C8" s="157"/>
+      <c r="D8" s="157"/>
+      <c r="E8" s="157"/>
+      <c r="F8" s="157"/>
+      <c r="G8" s="157"/>
+      <c r="H8" s="157"/>
     </row>
     <row r="9" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A9" s="53" t="s">
@@ -9797,12 +9895,12 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="159" t="s">
+      <c r="A7" s="158" t="s">
         <v>228</v>
       </c>
-      <c r="B7" s="159"/>
-      <c r="C7" s="159"/>
-      <c r="D7" s="159"/>
+      <c r="B7" s="158"/>
+      <c r="C7" s="158"/>
+      <c r="D7" s="158"/>
     </row>
     <row r="8" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A8" s="55" t="s">
@@ -9905,7 +10003,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75CB5D7E-25B3-4C15-AA63-0FF54A50799C}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9935,18 +10035,24 @@
     <row r="4" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
-      <c r="C4" s="92" t="s">
+      <c r="C4" s="91" t="s">
         <v>230</v>
       </c>
-      <c r="D4" s="60"/>
+      <c r="D4" s="60">
+        <f>MAX(D8:D26)</f>
+        <v>1635400000</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
-      <c r="C5" s="92" t="s">
+      <c r="C5" s="91" t="s">
         <v>231</v>
       </c>
-      <c r="D5" s="60"/>
+      <c r="D5" s="60">
+        <f>MIN(D8:D26)</f>
+        <v>10297191</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
@@ -9978,7 +10084,10 @@
       <c r="C8" s="63">
         <v>887436184</v>
       </c>
-      <c r="D8" s="60"/>
+      <c r="D8" s="60">
+        <f>C8-B8</f>
+        <v>629436184</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
@@ -9990,7 +10099,10 @@
       <c r="C9" s="63">
         <v>553080025</v>
       </c>
-      <c r="D9" s="60"/>
+      <c r="D9" s="60">
+        <f t="shared" ref="D9:D26" si="0">C9-B9</f>
+        <v>346080025</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
@@ -10002,7 +10114,10 @@
       <c r="C10" s="63">
         <v>391081192</v>
       </c>
-      <c r="D10" s="60"/>
+      <c r="D10" s="60">
+        <f t="shared" si="0"/>
+        <v>187081192</v>
+      </c>
     </row>
     <row r="11" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
@@ -10014,7 +10129,10 @@
       <c r="C11" s="63">
         <v>784024485</v>
       </c>
-      <c r="D11" s="60"/>
+      <c r="D11" s="60">
+        <f t="shared" si="0"/>
+        <v>584024485</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
@@ -10026,7 +10144,10 @@
       <c r="C12" s="63">
         <v>1835400000</v>
       </c>
-      <c r="D12" s="60"/>
+      <c r="D12" s="60">
+        <f t="shared" si="0"/>
+        <v>1635400000</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
@@ -10038,7 +10159,10 @@
       <c r="C13" s="63">
         <v>748806957</v>
       </c>
-      <c r="D13" s="60"/>
+      <c r="D13" s="60">
+        <f t="shared" si="0"/>
+        <v>568806957</v>
+      </c>
     </row>
     <row r="14" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
@@ -10050,7 +10174,10 @@
       <c r="C14" s="63">
         <v>217700000</v>
       </c>
-      <c r="D14" s="60"/>
+      <c r="D14" s="60">
+        <f t="shared" si="0"/>
+        <v>42700000</v>
+      </c>
     </row>
     <row r="15" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
@@ -10062,7 +10189,10 @@
       <c r="C15" s="63">
         <v>264246220</v>
       </c>
-      <c r="D15" s="60"/>
+      <c r="D15" s="60">
+        <f t="shared" si="0"/>
+        <v>89246220</v>
+      </c>
     </row>
     <row r="16" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
@@ -10074,7 +10204,10 @@
       <c r="C16" s="63">
         <v>433058296</v>
       </c>
-      <c r="D16" s="60"/>
+      <c r="D16" s="60">
+        <f t="shared" si="0"/>
+        <v>263058296</v>
+      </c>
     </row>
     <row r="17" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
@@ -10086,7 +10219,10 @@
       <c r="C17" s="63">
         <v>296596043</v>
       </c>
-      <c r="D17" s="60"/>
+      <c r="D17" s="60">
+        <f t="shared" si="0"/>
+        <v>126596043</v>
+      </c>
     </row>
     <row r="18" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
@@ -10098,7 +10234,10 @@
       <c r="C18" s="63">
         <v>300150546</v>
       </c>
-      <c r="D18" s="60"/>
+      <c r="D18" s="60">
+        <f t="shared" si="0"/>
+        <v>130150546</v>
+      </c>
     </row>
     <row r="19" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="s">
@@ -10110,7 +10249,10 @@
       <c r="C19" s="63">
         <v>733012359</v>
       </c>
-      <c r="D19" s="60"/>
+      <c r="D19" s="60">
+        <f t="shared" si="0"/>
+        <v>573012359</v>
+      </c>
     </row>
     <row r="20" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
@@ -10122,7 +10264,10 @@
       <c r="C20" s="63">
         <v>181674817</v>
       </c>
-      <c r="D20" s="60"/>
+      <c r="D20" s="60">
+        <f t="shared" si="0"/>
+        <v>21674817</v>
+      </c>
     </row>
     <row r="21" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
@@ -10134,7 +10279,10 @@
       <c r="C21" s="63">
         <v>165297191</v>
       </c>
-      <c r="D21" s="60"/>
+      <c r="D21" s="60">
+        <f t="shared" si="0"/>
+        <v>10297191</v>
+      </c>
     </row>
     <row r="22" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A22" s="21" t="s">
@@ -10146,7 +10294,10 @@
       <c r="C22" s="63">
         <v>450500000</v>
       </c>
-      <c r="D22" s="60"/>
+      <c r="D22" s="60">
+        <f t="shared" si="0"/>
+        <v>299000000</v>
+      </c>
     </row>
     <row r="23" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A23" s="21" t="s">
@@ -10158,7 +10309,10 @@
       <c r="C23" s="63">
         <v>892213036</v>
       </c>
-      <c r="D23" s="60"/>
+      <c r="D23" s="60">
+        <f t="shared" si="0"/>
+        <v>742213036</v>
+      </c>
     </row>
     <row r="24" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
@@ -10170,7 +10324,10 @@
       <c r="C24" s="63">
         <v>822828538</v>
       </c>
-      <c r="D24" s="60"/>
+      <c r="D24" s="60">
+        <f t="shared" si="0"/>
+        <v>672828538</v>
+      </c>
     </row>
     <row r="25" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A25" s="21" t="s">
@@ -10182,7 +10339,10 @@
       <c r="C25" s="63">
         <v>397501348</v>
       </c>
-      <c r="D25" s="60"/>
+      <c r="D25" s="60">
+        <f t="shared" si="0"/>
+        <v>247501348</v>
+      </c>
     </row>
     <row r="26" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A26" s="21" t="s">
@@ -10194,7 +10354,10 @@
       <c r="C26" s="63">
         <v>497298577</v>
       </c>
-      <c r="D26" s="60"/>
+      <c r="D26" s="60">
+        <f t="shared" si="0"/>
+        <v>347298577</v>
+      </c>
     </row>
     <row r="27" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
@@ -10223,7 +10386,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C629B0A-A721-4EBA-B25C-AED4AE9D3D51}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10276,12 +10441,12 @@
       <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="160" t="s">
+      <c r="A7" s="159" t="s">
         <v>171</v>
       </c>
-      <c r="B7" s="160"/>
-      <c r="C7" s="160"/>
-      <c r="D7" s="160"/>
+      <c r="B7" s="159"/>
+      <c r="C7" s="159"/>
+      <c r="D7" s="159"/>
     </row>
     <row r="8" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
@@ -10305,7 +10470,10 @@
       <c r="C9" s="26">
         <v>0.36</v>
       </c>
-      <c r="D9" s="27"/>
+      <c r="D9" s="27">
+        <f xml:space="preserve"> (B9 * C9) + ((B9 * C9) * $B$14)</f>
+        <v>0.42263999999999996</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
@@ -10317,7 +10485,10 @@
       <c r="C10" s="26">
         <v>0.2</v>
       </c>
-      <c r="D10" s="27"/>
+      <c r="D10" s="27">
+        <f t="shared" ref="D10:D12" si="0" xml:space="preserve"> (B10 * C10) + ((B10 * C10) * $B$14)</f>
+        <v>0.70440000000000014</v>
+      </c>
     </row>
     <row r="11" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
@@ -10329,7 +10500,10 @@
       <c r="C11" s="26">
         <v>0.42</v>
       </c>
-      <c r="D11" s="27"/>
+      <c r="D11" s="27">
+        <f t="shared" si="0"/>
+        <v>0.98615999999999993</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
@@ -10341,7 +10515,10 @@
       <c r="C12" s="26">
         <v>0.39</v>
       </c>
-      <c r="D12" s="27"/>
+      <c r="D12" s="27">
+        <f t="shared" si="0"/>
+        <v>2.74716</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
@@ -10353,7 +10530,7 @@
       <c r="A14" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="B14" s="94">
+      <c r="B14" s="93">
         <v>0.17399999999999999</v>
       </c>
       <c r="C14" s="5"/>
@@ -10377,7 +10554,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{965DD3B2-EBBE-4CE2-B1D4-641CA60BA388}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E29" sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10447,25 +10626,25 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="68" t="s">
         <v>177</v>
       </c>
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="68" t="s">
         <v>178</v>
       </c>
-      <c r="C7" s="69" t="s">
+      <c r="C7" s="68" t="s">
         <v>179</v>
       </c>
-      <c r="D7" s="69" t="s">
+      <c r="D7" s="68" t="s">
         <v>180</v>
       </c>
-      <c r="E7" s="69" t="s">
+      <c r="E7" s="68" t="s">
         <v>181</v>
       </c>
-      <c r="F7" s="69" t="s">
+      <c r="F7" s="68" t="s">
         <v>182</v>
       </c>
-      <c r="G7" s="69" t="s">
+      <c r="G7" s="68" t="s">
         <v>183</v>
       </c>
     </row>
@@ -10479,12 +10658,21 @@
       <c r="C8" s="6">
         <v>128</v>
       </c>
-      <c r="D8" s="67"/>
+      <c r="D8" s="67">
+        <f>C8 * 8.74</f>
+        <v>1118.72</v>
+      </c>
       <c r="E8" s="43">
         <v>6800</v>
       </c>
-      <c r="F8" s="67"/>
-      <c r="G8" s="68"/>
+      <c r="F8" s="67">
+        <f>B8 * 1000</f>
+        <v>13000</v>
+      </c>
+      <c r="G8" s="67">
+        <f xml:space="preserve"> F8 - (D8 + E8)</f>
+        <v>5081.28</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
@@ -10496,12 +10684,21 @@
       <c r="C9" s="6">
         <v>97</v>
       </c>
-      <c r="D9" s="67"/>
+      <c r="D9" s="67">
+        <f t="shared" ref="D9:D11" si="0">C9 * 8.74</f>
+        <v>847.78</v>
+      </c>
       <c r="E9" s="43">
         <v>12000</v>
       </c>
-      <c r="F9" s="67"/>
-      <c r="G9" s="68"/>
+      <c r="F9" s="67">
+        <f t="shared" ref="F9:F11" si="1">B9 * 1000</f>
+        <v>11000</v>
+      </c>
+      <c r="G9" s="67">
+        <f t="shared" ref="G9:G11" si="2" xml:space="preserve"> F9 - (D9 + E9)</f>
+        <v>-1847.7800000000007</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
@@ -10513,12 +10710,21 @@
       <c r="C10" s="6">
         <v>130</v>
       </c>
-      <c r="D10" s="67"/>
+      <c r="D10" s="67">
+        <f t="shared" si="0"/>
+        <v>1136.2</v>
+      </c>
       <c r="E10" s="43">
         <v>9500</v>
       </c>
-      <c r="F10" s="67"/>
-      <c r="G10" s="68"/>
+      <c r="F10" s="67">
+        <f t="shared" si="1"/>
+        <v>15000</v>
+      </c>
+      <c r="G10" s="67">
+        <f t="shared" si="2"/>
+        <v>4363.7999999999993</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
@@ -10530,12 +10736,21 @@
       <c r="C11" s="6">
         <v>88</v>
       </c>
-      <c r="D11" s="67"/>
+      <c r="D11" s="67">
+        <f t="shared" si="0"/>
+        <v>769.12</v>
+      </c>
       <c r="E11" s="43">
         <v>7500</v>
       </c>
-      <c r="F11" s="67"/>
-      <c r="G11" s="68"/>
+      <c r="F11" s="67">
+        <f t="shared" si="1"/>
+        <v>8000</v>
+      </c>
+      <c r="G11" s="67">
+        <f t="shared" si="2"/>
+        <v>-269.1200000000008</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>

--- a/ASLA_Pre-IGCSE_CS_Term_Test_2.... Part 2 of 2.xlsx
+++ b/ASLA_Pre-IGCSE_CS_Term_Test_2.... Part 2 of 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mykal\Documents\Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC9DBF26-A932-4899-ADE6-B71F7CBC179C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E9DE3FA-193A-45A9-982C-44AF01D147D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="797" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="797" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="5" r:id="rId1"/>
@@ -6228,11 +6228,26 @@
       <c r="C9" s="106">
         <v>1</v>
       </c>
-      <c r="D9" s="107"/>
-      <c r="E9" s="107"/>
-      <c r="F9" s="107"/>
-      <c r="G9" s="107"/>
-      <c r="H9" s="107"/>
+      <c r="D9" s="107">
+        <f>$C9*D$8*$I$9</f>
+        <v>4</v>
+      </c>
+      <c r="E9" s="107">
+        <f t="shared" ref="E9:H13" si="0">$C9*E$8*$I$9</f>
+        <v>5</v>
+      </c>
+      <c r="F9" s="107">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G9" s="107">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="H9" s="107">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
       <c r="I9" s="106">
         <v>1</v>
       </c>
@@ -6245,11 +6260,26 @@
       <c r="C10" s="106">
         <v>2</v>
       </c>
-      <c r="D10" s="107"/>
-      <c r="E10" s="107"/>
-      <c r="F10" s="107"/>
-      <c r="G10" s="107"/>
-      <c r="H10" s="107"/>
+      <c r="D10" s="107">
+        <f t="shared" ref="D10:D13" si="1">$C10*D$8*$I$9</f>
+        <v>8</v>
+      </c>
+      <c r="E10" s="107">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F10" s="107">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="G10" s="107">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="H10" s="107">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
       <c r="I10" s="106">
         <v>2</v>
       </c>
@@ -6260,11 +6290,26 @@
       <c r="C11" s="106">
         <v>3</v>
       </c>
-      <c r="D11" s="107"/>
-      <c r="E11" s="107"/>
-      <c r="F11" s="107"/>
-      <c r="G11" s="107"/>
-      <c r="H11" s="107"/>
+      <c r="D11" s="107">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="E11" s="107">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="F11" s="107">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="G11" s="107">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="H11" s="107">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
       <c r="I11" s="106">
         <v>3</v>
       </c>
@@ -6275,11 +6320,26 @@
       <c r="C12" s="106">
         <v>4</v>
       </c>
-      <c r="D12" s="107"/>
-      <c r="E12" s="107"/>
-      <c r="F12" s="107"/>
-      <c r="G12" s="107"/>
-      <c r="H12" s="107"/>
+      <c r="D12" s="107">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="E12" s="107">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F12" s="107">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="G12" s="107">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="H12" s="107">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
       <c r="I12" s="106">
         <v>4</v>
       </c>
@@ -6290,11 +6350,26 @@
       <c r="C13" s="106">
         <v>5</v>
       </c>
-      <c r="D13" s="107"/>
-      <c r="E13" s="107"/>
-      <c r="F13" s="107"/>
-      <c r="G13" s="107"/>
-      <c r="H13" s="107"/>
+      <c r="D13" s="107">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="E13" s="107">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="F13" s="107">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="G13" s="107">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="H13" s="107">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
       <c r="I13" s="106">
         <v>5</v>
       </c>
@@ -7316,8 +7391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB6DFA84-132B-4AF3-B398-40B8694C0CD2}">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8:G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -7447,7 +7522,10 @@
       <c r="F8" s="111">
         <v>84289</v>
       </c>
-      <c r="G8" s="112"/>
+      <c r="G8" s="112" t="str">
+        <f>VLOOKUP(F8, $A$7:$C$12, 3, TRUE)</f>
+        <v>Level C</v>
+      </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
     </row>
@@ -7468,7 +7546,10 @@
       <c r="F9" s="111">
         <v>190024</v>
       </c>
-      <c r="G9" s="112"/>
+      <c r="G9" s="112" t="str">
+        <f t="shared" ref="G9:G20" si="0">VLOOKUP(F9, $A$7:$C$12, 3, TRUE)</f>
+        <v>Level E</v>
+      </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
     </row>
@@ -7489,7 +7570,10 @@
       <c r="F10" s="111">
         <v>64757</v>
       </c>
-      <c r="G10" s="112"/>
+      <c r="G10" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v>Level B</v>
+      </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
     </row>
@@ -7510,7 +7594,10 @@
       <c r="F11" s="111">
         <v>71478</v>
       </c>
-      <c r="G11" s="112"/>
+      <c r="G11" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v>Level B</v>
+      </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
     </row>
@@ -7531,7 +7618,10 @@
       <c r="F12" s="111">
         <v>111709</v>
       </c>
-      <c r="G12" s="112"/>
+      <c r="G12" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v>Level D</v>
+      </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
     </row>
@@ -7546,7 +7636,10 @@
       <c r="F13" s="111">
         <v>85931</v>
       </c>
-      <c r="G13" s="112"/>
+      <c r="G13" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v>Level C</v>
+      </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
     </row>
@@ -7561,7 +7654,10 @@
       <c r="F14" s="111">
         <v>168114</v>
       </c>
-      <c r="G14" s="112"/>
+      <c r="G14" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v>Level E</v>
+      </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
     </row>
@@ -7576,7 +7672,10 @@
       <c r="F15" s="111">
         <v>89627</v>
       </c>
-      <c r="G15" s="112"/>
+      <c r="G15" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v>Level C</v>
+      </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
     </row>
@@ -7591,7 +7690,10 @@
       <c r="F16" s="111">
         <v>149946</v>
       </c>
-      <c r="G16" s="112"/>
+      <c r="G16" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v>Level D</v>
+      </c>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
     </row>
@@ -7606,7 +7708,10 @@
       <c r="F17" s="111">
         <v>145893</v>
       </c>
-      <c r="G17" s="112"/>
+      <c r="G17" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v>Level D</v>
+      </c>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
     </row>
@@ -7621,7 +7726,10 @@
       <c r="F18" s="111">
         <v>122604</v>
       </c>
-      <c r="G18" s="112"/>
+      <c r="G18" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v>Level D</v>
+      </c>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
     </row>
@@ -7636,7 +7744,10 @@
       <c r="F19" s="111">
         <v>137670</v>
       </c>
-      <c r="G19" s="112"/>
+      <c r="G19" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v>Level D</v>
+      </c>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
     </row>
@@ -7651,7 +7762,10 @@
       <c r="F20" s="111">
         <v>131505</v>
       </c>
-      <c r="G20" s="112"/>
+      <c r="G20" s="112" t="str">
+        <f t="shared" si="0"/>
+        <v>Level D</v>
+      </c>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
     </row>
@@ -8232,7 +8346,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{702458FE-1D97-4497-9515-7CC80DCCAB60}">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView topLeftCell="A72" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4:E40"/>
     </sheetView>
   </sheetViews>
@@ -9675,7 +9789,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1659F29C-C4A0-461F-8D89-E6E0DA204D51}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9782,8 +9898,14 @@
       <c r="D10" s="50">
         <v>24</v>
       </c>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
+      <c r="E10" s="52">
+        <f>(B10 - C10) / D10</f>
+        <v>10.416666666666666</v>
+      </c>
+      <c r="F10" s="52">
+        <f>E10 * 2.24</f>
+        <v>23.333333333333336</v>
+      </c>
       <c r="G10" s="52"/>
       <c r="H10" s="52"/>
     </row>
@@ -9800,8 +9922,14 @@
       <c r="D11" s="50">
         <v>20</v>
       </c>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
+      <c r="E11" s="52">
+        <f t="shared" ref="E11:E13" si="0">(B11 - C11) / D11</f>
+        <v>7.5</v>
+      </c>
+      <c r="F11" s="52">
+        <f t="shared" ref="F11:F13" si="1">E11 * 2.24</f>
+        <v>16.8</v>
+      </c>
       <c r="G11" s="52"/>
       <c r="H11" s="52"/>
     </row>
@@ -9818,8 +9946,14 @@
       <c r="D12" s="50">
         <v>5</v>
       </c>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
+      <c r="E12" s="52">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F12" s="52">
+        <f t="shared" si="1"/>
+        <v>13.440000000000001</v>
+      </c>
       <c r="G12" s="52"/>
       <c r="H12" s="52"/>
     </row>
@@ -9836,8 +9970,14 @@
       <c r="D13" s="50">
         <v>5</v>
       </c>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
+      <c r="E13" s="52">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F13" s="52">
+        <f t="shared" si="1"/>
+        <v>44.800000000000004</v>
+      </c>
       <c r="G13" s="52"/>
       <c r="H13" s="52"/>
     </row>
@@ -9861,7 +10001,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1AF93A3-9609-4628-8F79-62333AE4055C}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9926,7 +10068,10 @@
       <c r="C9" s="57">
         <v>2</v>
       </c>
-      <c r="D9" s="59"/>
+      <c r="D9" s="59">
+        <f>B9 * C9 - (B9 * C9 * 0.074)</f>
+        <v>27.761479999999999</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A10" s="56" t="s">
@@ -9938,7 +10083,10 @@
       <c r="C10" s="57">
         <v>3</v>
       </c>
-      <c r="D10" s="59"/>
+      <c r="D10" s="59">
+        <f t="shared" ref="D10:D13" si="0">B10 * C10 - (B10 * C10 * 0.074)</f>
+        <v>24.974219999999999</v>
+      </c>
     </row>
     <row r="11" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A11" s="56" t="s">
@@ -9950,7 +10098,10 @@
       <c r="C11" s="57">
         <v>1</v>
       </c>
-      <c r="D11" s="59"/>
+      <c r="D11" s="59">
+        <f t="shared" si="0"/>
+        <v>9.2507400000000004</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A12" s="56" t="s">
@@ -9962,7 +10113,10 @@
       <c r="C12" s="57">
         <v>1</v>
       </c>
-      <c r="D12" s="59"/>
+      <c r="D12" s="59">
+        <f t="shared" si="0"/>
+        <v>18.510739999999998</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A13" s="56" t="s">
@@ -9974,7 +10128,10 @@
       <c r="C13" s="57">
         <v>3</v>
       </c>
-      <c r="D13" s="59"/>
+      <c r="D13" s="59">
+        <f t="shared" si="0"/>
+        <v>41.642220000000002</v>
+      </c>
     </row>
     <row r="14" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B14" s="10"/>
@@ -10003,8 +10160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75CB5D7E-25B3-4C15-AA63-0FF54A50799C}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
